--- a/data_clean/Equinor 14.01.2021.xlsx
+++ b/data_clean/Equinor 14.01.2021.xlsx
@@ -1689,7 +1689,7 @@
         <v>1.312453266456946</v>
       </c>
       <c r="K2">
-        <v>50.41945176644753</v>
+        <v>0.004194517664475219</v>
       </c>
       <c r="L2">
         <v>0.0005425455326215047</v>
@@ -1719,13 +1719,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1760,7 +1760,7 @@
         <v>1.312453266456946</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L3">
         <v>0.03864474276705644</v>
@@ -1790,13 +1790,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1831,7 +1831,7 @@
         <v>1.312453266456946</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L4">
         <v>0.02857398664495162</v>
@@ -1861,13 +1861,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1.000404776361061</v>
+        <v>0.0004047763610606214</v>
       </c>
       <c r="V4">
-        <v>1.000404776361061</v>
+        <v>0.0004047763610606214</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1902,7 +1902,7 @@
         <v>1.312453266456946</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L5">
         <v>0.02252753754545158</v>
@@ -1932,13 +1932,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.000202306291726</v>
+        <v>0.0002023062917255736</v>
       </c>
       <c r="V5">
-        <v>1.000202306291726</v>
+        <v>0.0002023062917255736</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1973,7 +1973,7 @@
         <v>1.312453266456946</v>
       </c>
       <c r="K6">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L6">
         <v>0.02761299002655745</v>
@@ -2003,13 +2003,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1.001031553398058</v>
+        <v>0.001031553398058271</v>
       </c>
       <c r="V6">
-        <v>1.001031553398058</v>
+        <v>0.001031553398058271</v>
       </c>
       <c r="W6">
-        <v>1.004548211036992</v>
+        <v>0.0045482110369921</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -2044,7 +2044,7 @@
         <v>1.312453266456946</v>
       </c>
       <c r="K7">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L7">
         <v>0.03290044895787391</v>
@@ -2074,13 +2074,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1.000838536299529</v>
+        <v>0.0008385362995293466</v>
       </c>
       <c r="V7">
-        <v>1.000838536299529</v>
+        <v>0.0008385362995293466</v>
       </c>
       <c r="W7">
-        <v>1.000905523694537</v>
+        <v>0.0009055236945367806</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -2115,7 +2115,7 @@
         <v>1.312453266456946</v>
       </c>
       <c r="K8">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L8">
         <v>0.03654596677635884</v>
@@ -2145,13 +2145,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1.000641714314555</v>
+        <v>0.0006417143145553972</v>
       </c>
       <c r="V8">
-        <v>1.000641714314555</v>
+        <v>0.0006417143145553972</v>
       </c>
       <c r="W8">
-        <v>1.000301568154403</v>
+        <v>0.0003015681544027426</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -2186,7 +2186,7 @@
         <v>1.312453266456946</v>
       </c>
       <c r="K9">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L9">
         <v>0.03931814919180712</v>
@@ -2216,13 +2216,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>1.000594466061392</v>
+        <v>0.0005944660613921293</v>
       </c>
       <c r="V9">
-        <v>1.000594466061392</v>
+        <v>0.0005944660613921293</v>
       </c>
       <c r="W9">
-        <v>1.000904431715405</v>
+        <v>0.0009044317154054404</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -2257,7 +2257,7 @@
         <v>1.312453266456946</v>
       </c>
       <c r="K10">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L10">
         <v>0.04138178092233891</v>
@@ -2287,13 +2287,13 @@
         <v>0.1125000000000114</v>
       </c>
       <c r="U10">
-        <v>1.000529300567108</v>
+        <v>0.0005293005671076489</v>
       </c>
       <c r="V10">
-        <v>1.000529300567108</v>
+        <v>0.0005293005671076489</v>
       </c>
       <c r="W10">
-        <v>1.000602409638554</v>
+        <v>0.0006024096385541799</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -2328,7 +2328,7 @@
         <v>24.82247126282083</v>
       </c>
       <c r="K11">
-        <v>96.12740395827335</v>
+        <v>0.4612740395827335</v>
       </c>
       <c r="L11">
         <v>0.04231335378801885</v>
@@ -2358,13 +2358,13 @@
         <v>0.1912499999999966</v>
       </c>
       <c r="U11">
-        <v>1.000392986698912</v>
+        <v>0.0003929866989118569</v>
       </c>
       <c r="V11">
-        <v>1.000392986698912</v>
+        <v>0.0003929866989118569</v>
       </c>
       <c r="W11">
-        <v>0.9996989765201687</v>
+        <v>-0.0003010234798312972</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -2399,7 +2399,7 @@
         <v>24.82247126282083</v>
       </c>
       <c r="K12">
-        <v>96.12740395827335</v>
+        <v>0.4612740395827335</v>
       </c>
       <c r="L12">
         <v>0.04235036190806235</v>
@@ -2429,13 +2429,13 @@
         <v>0.2818181818181813</v>
       </c>
       <c r="U12">
-        <v>1.000321408262665</v>
+        <v>0.0003214082626648018</v>
       </c>
       <c r="V12">
-        <v>1.000321408262665</v>
+        <v>0.0003214082626648018</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2470,7 +2470,7 @@
         <v>5.740494635410448</v>
       </c>
       <c r="K13">
-        <v>85.1642935112416</v>
+        <v>0.351642935112416</v>
       </c>
       <c r="L13">
         <v>0.04120080573194056</v>
@@ -2500,13 +2500,13 @@
         <v>0.375</v>
       </c>
       <c r="U13">
-        <v>1.000192233756248</v>
+        <v>0.0001922337562476617</v>
       </c>
       <c r="V13">
-        <v>1.000192233756248</v>
+        <v>0.0001922337562476617</v>
       </c>
       <c r="W13">
-        <v>0.999096657633243</v>
+        <v>-0.0009033423667570428</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2541,7 +2541,7 @@
         <v>3.728888727121464</v>
       </c>
       <c r="K14">
-        <v>78.85338273525601</v>
+        <v>0.2885338273525601</v>
       </c>
       <c r="L14">
         <v>0.03905699736864972</v>
@@ -2571,13 +2571,13 @@
         <v>0.3745192307692093</v>
       </c>
       <c r="U14">
-        <v>1.000116162906861</v>
+        <v>0.0001161629068606729</v>
       </c>
       <c r="V14">
-        <v>1.000116162906861</v>
+        <v>0.0001161629068606729</v>
       </c>
       <c r="W14">
-        <v>0.9993972272453285</v>
+        <v>-0.0006027727546714656</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2612,7 +2612,7 @@
         <v>3.728888727121464</v>
       </c>
       <c r="K15">
-        <v>78.85338273525601</v>
+        <v>0.2885338273525601</v>
       </c>
       <c r="L15">
         <v>0.03641996181131318</v>
@@ -2642,13 +2642,13 @@
         <v>0.3580357142856769</v>
       </c>
       <c r="U15">
-        <v>1.000099556641092</v>
+        <v>9.95566410917359E-05</v>
       </c>
       <c r="V15">
-        <v>1.000099556641092</v>
+        <v>9.95566410917359E-05</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2683,7 +2683,7 @@
         <v>5.087872968910534</v>
       </c>
       <c r="K16">
-        <v>83.5739016712933</v>
+        <v>0.335739016712933</v>
       </c>
       <c r="L16">
         <v>0.03457749863387272</v>
@@ -2713,13 +2713,13 @@
         <v>0.3579166666666822</v>
       </c>
       <c r="U16">
-        <v>1.000227187760619</v>
+        <v>0.0002271877606185857</v>
       </c>
       <c r="V16">
-        <v>1.000227187760619</v>
+        <v>0.0002271877606185857</v>
       </c>
       <c r="W16">
-        <v>1.00211097708082</v>
+        <v>0.002110977080820309</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2754,7 +2754,7 @@
         <v>5.292231501510328</v>
       </c>
       <c r="K17">
-        <v>84.10738702541428</v>
+        <v>0.3410738702541428</v>
       </c>
       <c r="L17">
         <v>0.03327076796817519</v>
@@ -2784,13 +2784,13 @@
         <v>0.3468750000000114</v>
       </c>
       <c r="U17">
-        <v>1.000217612252702</v>
+        <v>0.0002176122527020041</v>
       </c>
       <c r="V17">
-        <v>1.000684283615433</v>
+        <v>0.0006842836154326015</v>
       </c>
       <c r="W17">
-        <v>1.000300932891965</v>
+        <v>0.0003009328919649779</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2825,7 +2825,7 @@
         <v>5.722459991194349</v>
       </c>
       <c r="K18">
-        <v>85.12449309761776</v>
+        <v>0.3512449309761776</v>
       </c>
       <c r="L18">
         <v>0.03246321767128319</v>
@@ -2855,13 +2855,13 @@
         <v>0.2593750000000341</v>
       </c>
       <c r="U18">
-        <v>1.000227477759888</v>
+        <v>0.0002274777598876287</v>
       </c>
       <c r="V18">
-        <v>1.000563142334225</v>
+        <v>0.0005631423342247199</v>
       </c>
       <c r="W18">
-        <v>1.000601684717208</v>
+        <v>0.0006016847172083395</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2896,7 +2896,7 @@
         <v>6.628204180002555</v>
       </c>
       <c r="K19">
-        <v>86.89075467301316</v>
+        <v>0.3689075467301316</v>
       </c>
       <c r="L19">
         <v>0.03235644295996423</v>
@@ -2926,13 +2926,13 @@
         <v>0.2156250000000171</v>
       </c>
       <c r="U19">
-        <v>1.000269213246475</v>
+        <v>0.0002692132464752195</v>
       </c>
       <c r="V19">
-        <v>1.000643229009628</v>
+        <v>0.0006432290096283211</v>
       </c>
       <c r="W19">
-        <v>1.001202645820806</v>
+        <v>0.001202645820805648</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2967,7 +2967,7 @@
         <v>7.343265381693314</v>
       </c>
       <c r="K20">
-        <v>88.01428512397331</v>
+        <v>0.3801428512397331</v>
       </c>
       <c r="L20">
         <v>0.03287965026563841</v>
@@ -2997,13 +2997,13 @@
         <v>0.1812500000000057</v>
       </c>
       <c r="U20">
-        <v>1.000288442963712</v>
+        <v>0.0002884429637117769</v>
       </c>
       <c r="V20">
-        <v>1.000703079488158</v>
+        <v>0.0007030794881583979</v>
       </c>
       <c r="W20">
-        <v>1.000900900900901</v>
+        <v>0.0009009009009008917</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -3038,7 +3038,7 @@
         <v>8.346860050732879</v>
       </c>
       <c r="K21">
-        <v>89.30121993298069</v>
+        <v>0.3930121993298069</v>
       </c>
       <c r="L21">
         <v>0.03406858733613386</v>
@@ -3068,13 +3068,13 @@
         <v>0.1781249999999943</v>
       </c>
       <c r="U21">
-        <v>1.000319841269841</v>
+        <v>0.0003198412698413033</v>
       </c>
       <c r="V21">
-        <v>1.000481772924362</v>
+        <v>0.0004817729243615787</v>
       </c>
       <c r="W21">
-        <v>1.001200120012001</v>
+        <v>0.001200120012001094</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -3109,7 +3109,7 @@
         <v>8.610963911006525</v>
       </c>
       <c r="K22">
-        <v>89.59521636685375</v>
+        <v>0.3959521636685375</v>
       </c>
       <c r="L22">
         <v>0.03552917570143429</v>
@@ -3139,13 +3139,13 @@
         <v>0.2374999999999829</v>
       </c>
       <c r="U22">
-        <v>1.000303644378595</v>
+        <v>0.0003036443785948695</v>
       </c>
       <c r="V22">
-        <v>1.000441412520064</v>
+        <v>0.0004414125200642438</v>
       </c>
       <c r="W22">
-        <v>1.000299670362601</v>
+        <v>0.0002996703626012565</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -3180,7 +3180,7 @@
         <v>6.737822012700321</v>
       </c>
       <c r="K23">
-        <v>87.07646675823416</v>
+        <v>0.3707646675823416</v>
       </c>
       <c r="L23">
         <v>0.03677888273356185</v>
@@ -3210,13 +3210,13 @@
         <v>0.3031250000000227</v>
       </c>
       <c r="U23">
-        <v>1.000262256580879</v>
+        <v>0.0002622565808787503</v>
       </c>
       <c r="V23">
-        <v>1.000401107055473</v>
+        <v>0.0004011070554732488</v>
       </c>
       <c r="W23">
-        <v>0.999700419412822</v>
+        <v>-0.0002995805871780499</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -3251,7 +3251,7 @@
         <v>7.424758458277302</v>
       </c>
       <c r="K24">
-        <v>88.13022349599231</v>
+        <v>0.3813022349599231</v>
       </c>
       <c r="L24">
         <v>0.0380237352804454</v>
@@ -3281,13 +3281,13 @@
         <v>0.3375000000000057</v>
       </c>
       <c r="U24">
-        <v>1.00027869153135</v>
+        <v>0.0002786915313504057</v>
       </c>
       <c r="V24">
-        <v>1.00040094623311</v>
+        <v>0.0004009462331100444</v>
       </c>
       <c r="W24">
-        <v>1.000899011087804</v>
+        <v>0.0008990110878035473</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -3322,7 +3322,7 @@
         <v>7.424758458277302</v>
       </c>
       <c r="K25">
-        <v>88.13022349599231</v>
+        <v>0.3813022349599231</v>
       </c>
       <c r="L25">
         <v>0.03902977428279385</v>
@@ -3352,13 +3352,13 @@
         <v>0.3750000000000284</v>
       </c>
       <c r="U25">
-        <v>1.000255396060352</v>
+        <v>0.0002553960603521865</v>
       </c>
       <c r="V25">
-        <v>1.000360706985692</v>
+        <v>0.0003607069856919054</v>
       </c>
       <c r="W25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -3393,7 +3393,7 @@
         <v>3.684991351073843</v>
       </c>
       <c r="K26">
-        <v>78.65524341318601</v>
+        <v>0.2865524341318602</v>
       </c>
       <c r="L26">
         <v>0.03921483267465503</v>
@@ -3423,13 +3423,13 @@
         <v>0.3937499999999829</v>
       </c>
       <c r="U26">
-        <v>1.00018671886764</v>
+        <v>0.0001867188676403231</v>
       </c>
       <c r="V26">
-        <v>1.000300480769231</v>
+        <v>0.0003004807692306155</v>
       </c>
       <c r="W26">
-        <v>0.9988023952095809</v>
+        <v>-0.001197604790419082</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -3464,7 +3464,7 @@
         <v>3.950090679023186</v>
       </c>
       <c r="K27">
-        <v>79.79834987189906</v>
+        <v>0.2979834987189907</v>
       </c>
       <c r="L27">
         <v>0.03898026665336623</v>
@@ -3494,13 +3494,13 @@
         <v>0.390625</v>
       </c>
       <c r="U27">
-        <v>1.000195485489603</v>
+        <v>0.0001954854896033531</v>
       </c>
       <c r="V27">
-        <v>1.000340442575348</v>
+        <v>0.0003404425753479323</v>
       </c>
       <c r="W27">
-        <v>1.000599520383693</v>
+        <v>0.0005995203836930418</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3535,7 +3535,7 @@
         <v>3.466433245467893</v>
       </c>
       <c r="K28">
-        <v>77.61077027145309</v>
+        <v>0.2761077027145309</v>
       </c>
       <c r="L28">
         <v>0.03825019652327608</v>
@@ -3565,13 +3565,13 @@
         <v>0.3656249999999943</v>
       </c>
       <c r="U28">
-        <v>1.0001698199137</v>
+        <v>0.0001698199137003531</v>
       </c>
       <c r="V28">
-        <v>1.000380365150545</v>
+        <v>0.000380365150544737</v>
       </c>
       <c r="W28">
-        <v>0.999700419412822</v>
+        <v>-0.0002995805871780499</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3606,7 +3606,7 @@
         <v>2.499844962905172</v>
       </c>
       <c r="K29">
-        <v>71.42730576356976</v>
+        <v>0.2142730576356976</v>
       </c>
       <c r="L29">
         <v>0.03679046725690108</v>
@@ -3636,13 +3636,13 @@
         <v>0.296875</v>
       </c>
       <c r="U29">
-        <v>1.000125413865757</v>
+        <v>0.0001254138657571513</v>
       </c>
       <c r="V29">
-        <v>1.000360208921174</v>
+        <v>0.0003602089211740545</v>
       </c>
       <c r="W29">
-        <v>0.9991009889121966</v>
+        <v>-0.0008990110878034363</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3677,7 +3677,7 @@
         <v>1.796694747218322</v>
       </c>
       <c r="K30">
-        <v>64.24350562410751</v>
+        <v>0.1424350562410751</v>
       </c>
       <c r="L30">
         <v>0.0344044783628014</v>
@@ -3707,13 +3707,13 @@
         <v>0.2031250000000284</v>
       </c>
       <c r="U30">
-        <v>1.000075238883455</v>
+        <v>7.523888345484231E-05</v>
       </c>
       <c r="V30">
-        <v>1.000280061613555</v>
+        <v>0.0002800616135549827</v>
       </c>
       <c r="W30">
-        <v>0.9988002399520096</v>
+        <v>-0.001199760047990384</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3748,7 +3748,7 @@
         <v>1.470216660189832</v>
       </c>
       <c r="K31">
-        <v>59.51772101143744</v>
+        <v>0.09517721011437441</v>
       </c>
       <c r="L31">
         <v>0.03115745676443633</v>
@@ -3778,13 +3778,13 @@
         <v>0.1062499999999886</v>
       </c>
       <c r="U31">
-        <v>1.000040124385595</v>
+        <v>4.01243855954192E-05</v>
       </c>
       <c r="V31">
-        <v>1.000079995200288</v>
+        <v>7.999520028834084E-05</v>
       </c>
       <c r="W31">
-        <v>0.9990990990990991</v>
+        <v>-0.0009009009009008917</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3819,7 +3819,7 @@
         <v>1.171457402711975</v>
       </c>
       <c r="K32">
-        <v>53.94797987973051</v>
+        <v>0.03947979879730512</v>
       </c>
       <c r="L32">
         <v>0.02704530719114662</v>
@@ -3849,13 +3849,13 @@
         <v>0</v>
       </c>
       <c r="U32">
-        <v>1.000331012899472</v>
+        <v>0.0003310128994724604</v>
       </c>
       <c r="V32">
-        <v>0.9999800027996077</v>
+        <v>-1.999720039225217E-05</v>
       </c>
       <c r="W32">
-        <v>0.9987977156597536</v>
+        <v>-0.001202284340246385</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3890,7 +3890,7 @@
         <v>1.058273573687119</v>
       </c>
       <c r="K33">
-        <v>51.41559349622144</v>
+        <v>0.01415593496221446</v>
       </c>
       <c r="L33">
         <v>0.02235935889957454</v>
@@ -3920,13 +3920,13 @@
         <v>-0.109375</v>
       </c>
       <c r="U33">
-        <v>1.000230629618859</v>
+        <v>0.0002306296188594459</v>
       </c>
       <c r="V33">
-        <v>0.9999000119985605</v>
+        <v>-9.998800143951048E-05</v>
       </c>
       <c r="W33">
-        <v>0.9993981342160698</v>
+        <v>-0.0006018657839301778</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3961,7 +3961,7 @@
         <v>0.9181981490524795</v>
       </c>
       <c r="K34">
-        <v>47.86774241785376</v>
+        <v>-0.02132257582146235</v>
       </c>
       <c r="L34">
         <v>0.01721739834337043</v>
@@ -3991,13 +3991,13 @@
         <v>-0.1968750000000057</v>
       </c>
       <c r="U34">
-        <v>1.000200501253133</v>
+        <v>0.0002005012531327566</v>
       </c>
       <c r="V34">
-        <v>0.999760004799904</v>
+        <v>-0.0002399952000959882</v>
       </c>
       <c r="W34">
-        <v>0.999096657633243</v>
+        <v>-0.0009033423667570428</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -4032,7 +4032,7 @@
         <v>0.9181981490524797</v>
       </c>
       <c r="K35">
-        <v>47.86774241785376</v>
+        <v>-0.02132257582146235</v>
       </c>
       <c r="L35">
         <v>0.01207001207945787</v>
@@ -4062,13 +4062,13 @@
         <v>-0.2843750000000398</v>
       </c>
       <c r="U35">
-        <v>1.000200461060439</v>
+        <v>0.0002004610604389168</v>
       </c>
       <c r="V35">
-        <v>0.9996999339854767</v>
+        <v>-0.0003000660145232592</v>
       </c>
       <c r="W35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -4103,7 +4103,7 @@
         <v>1.015972631694814</v>
       </c>
       <c r="K36">
-        <v>50.39615199739556</v>
+        <v>0.003961519973955663</v>
       </c>
       <c r="L36">
         <v>0.007427480733988819</v>
@@ -4133,13 +4133,13 @@
         <v>-0.3500000000000227</v>
       </c>
       <c r="U36">
-        <v>1.00007014730935</v>
+        <v>7.014730934962188E-05</v>
       </c>
       <c r="V36">
-        <v>0.9996598231080163</v>
+        <v>-0.0003401768919837345</v>
       </c>
       <c r="W36">
-        <v>1.000602772754671</v>
+        <v>0.0006027727546713546</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -4174,7 +4174,7 @@
         <v>0.8080582242669491</v>
       </c>
       <c r="K37">
-        <v>44.69204660677144</v>
+        <v>-0.05307953393228559</v>
       </c>
       <c r="L37">
         <v>0.002809180662751944</v>
@@ -4204,13 +4204,13 @@
         <v>-0.4000000000000341</v>
       </c>
       <c r="U37">
-        <v>0.9999899796587074</v>
+        <v>-1.002034129260476E-05</v>
       </c>
       <c r="V37">
-        <v>0.999539604059491</v>
+        <v>-0.0004603959405089508</v>
       </c>
       <c r="W37">
-        <v>0.9984939759036144</v>
+        <v>-0.001506024096385561</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -4245,7 +4245,7 @@
         <v>0.6892735127494963</v>
       </c>
       <c r="K38">
-        <v>40.8029550897072</v>
+        <v>-0.09197044910292795</v>
       </c>
       <c r="L38">
         <v>-0.001948873969792495</v>
@@ -4275,13 +4275,13 @@
         <v>-0.4343749999999886</v>
       </c>
       <c r="U38">
-        <v>0.9999398773497935</v>
+        <v>-6.012265020649554E-05</v>
       </c>
       <c r="V38">
-        <v>0.9994793126927544</v>
+        <v>-0.0005206873072456375</v>
       </c>
       <c r="W38">
-        <v>0.998793363499246</v>
+        <v>-0.001206636500754033</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -4316,7 +4316,7 @@
         <v>0.8440105535770358</v>
       </c>
       <c r="K39">
-        <v>45.77037544279847</v>
+        <v>-0.04229624557201528</v>
       </c>
       <c r="L39">
         <v>-0.0060392590998581</v>
@@ -4346,13 +4346,13 @@
         <v>-0.4406249999999829</v>
       </c>
       <c r="U39">
-        <v>0.9999498947790361</v>
+        <v>-5.010522096393633E-05</v>
       </c>
       <c r="V39">
-        <v>0.9994990783040795</v>
+        <v>-0.0005009216959205309</v>
       </c>
       <c r="W39">
-        <v>1.00120809423135</v>
+        <v>0.001208094231349932</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -4387,7 +4387,7 @@
         <v>0.6782896994885987</v>
       </c>
       <c r="K40">
-        <v>40.41553134094097</v>
+        <v>-0.09584468659059026</v>
       </c>
       <c r="L40">
         <v>-0.01010221507560016</v>
@@ -4417,13 +4417,13 @@
         <v>-0.4312500000000341</v>
       </c>
       <c r="U40">
-        <v>0.9998697198977802</v>
+        <v>-0.0001302801022198263</v>
       </c>
       <c r="V40">
-        <v>0.9993785457971655</v>
+        <v>-0.0006214542028345482</v>
       </c>
       <c r="W40">
-        <v>0.9981900452488687</v>
+        <v>-0.001809954751131326</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -4458,7 +4458,7 @@
         <v>0.6345712437071327</v>
       </c>
       <c r="K41">
-        <v>38.82187736693288</v>
+        <v>-0.1117812263306712</v>
       </c>
       <c r="L41">
         <v>-0.0140719268389804</v>
@@ -4488,13 +4488,13 @@
         <v>-0.4156250000000057</v>
       </c>
       <c r="U41">
-        <v>0.999859680070561</v>
+        <v>-0.0001403199294389701</v>
       </c>
       <c r="V41">
-        <v>0.9994182781031854</v>
+        <v>-0.0005817218968146021</v>
       </c>
       <c r="W41">
-        <v>0.9993955877908735</v>
+        <v>-0.000604412209126548</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4529,7 +4529,7 @@
         <v>0.7363406510262023</v>
       </c>
       <c r="K42">
-        <v>42.40761457672573</v>
+        <v>-0.07592385423274267</v>
       </c>
       <c r="L42">
         <v>-0.01735122693542974</v>
@@ -4559,13 +4559,13 @@
         <v>-0.3843750000000057</v>
       </c>
       <c r="U42">
-        <v>0.9998897331542331</v>
+        <v>-0.000110266845766871</v>
       </c>
       <c r="V42">
-        <v>0.9994380105573729</v>
+        <v>-0.0005619894426270866</v>
       </c>
       <c r="W42">
-        <v>1.000907166616269</v>
+        <v>0.000907166616268551</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4600,7 +4600,7 @@
         <v>0.8077577789694022</v>
       </c>
       <c r="K43">
-        <v>44.6828545486831</v>
+        <v>-0.05317145451316896</v>
       </c>
       <c r="L43">
         <v>-0.01972101323129028</v>
@@ -4630,13 +4630,13 @@
         <v>-0.3406249999999886</v>
       </c>
       <c r="U43">
-        <v>0.9999398478149718</v>
+        <v>-6.015218502819497E-05</v>
       </c>
       <c r="V43">
-        <v>0.9994979415603977</v>
+        <v>-0.0005020584396022709</v>
       </c>
       <c r="W43">
-        <v>1.000604229607251</v>
+        <v>0.0006042296072508169</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4671,7 +4671,7 @@
         <v>0.778495711682839</v>
       </c>
       <c r="K44">
-        <v>43.77270670763748</v>
+        <v>-0.06227293292362518</v>
       </c>
       <c r="L44">
         <v>-0.02142732442838586</v>
@@ -4701,13 +4701,13 @@
         <v>-0.3156250000000114</v>
       </c>
       <c r="U44">
-        <v>0.9999498701637241</v>
+        <v>-5.012983627594725E-05</v>
       </c>
       <c r="V44">
-        <v>0.9995378742214186</v>
+        <v>-0.0004621257785814015</v>
       </c>
       <c r="W44">
-        <v>0.9996980676328503</v>
+        <v>-0.0003019323671497043</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4742,7 +4742,7 @@
         <v>0.7233302952511774</v>
       </c>
       <c r="K45">
-        <v>41.9728183996064</v>
+        <v>-0.08027181600393601</v>
       </c>
       <c r="L45">
         <v>-0.02276484568765513</v>
@@ -4772,13 +4772,13 @@
         <v>-0.2750000000000057</v>
       </c>
       <c r="U45">
-        <v>0.9999298147108369</v>
+        <v>-7.018528916313826E-05</v>
       </c>
       <c r="V45">
-        <v>0.9995778639917985</v>
+        <v>-0.0004221360082015124</v>
       </c>
       <c r="W45">
-        <v>0.9993959528843248</v>
+        <v>-0.0006040471156751881</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4813,7 +4813,7 @@
         <v>0.6973232380136787</v>
       </c>
       <c r="K46">
-        <v>41.08370299753469</v>
+        <v>-0.08916297002465307</v>
       </c>
       <c r="L46">
         <v>-0.02382089223352577</v>
@@ -4843,13 +4843,13 @@
         <v>-0.2249999999999943</v>
       </c>
       <c r="U46">
-        <v>0.9998495923953913</v>
+        <v>-0.0001504076046087155</v>
       </c>
       <c r="V46">
-        <v>0.999617906125568</v>
+        <v>-0.000382093874431999</v>
       </c>
       <c r="W46">
-        <v>0.9996977938954368</v>
+        <v>-0.0003022061045632185</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4884,7 +4884,7 @@
         <v>0.5863629707814314</v>
       </c>
       <c r="K47">
-        <v>36.96272426811584</v>
+        <v>-0.1303727573188416</v>
       </c>
       <c r="L47">
         <v>-0.0251014147398763</v>
@@ -4914,13 +4914,13 @@
         <v>-0.2249999999999943</v>
       </c>
       <c r="U47">
-        <v>0.9997893976773573</v>
+        <v>-0.0002106023226426945</v>
       </c>
       <c r="V47">
-        <v>0.9995976421831937</v>
+        <v>-0.0004023578168063091</v>
       </c>
       <c r="W47">
-        <v>0.9984885126964933</v>
+        <v>-0.001511487303506698</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4955,7 +4955,7 @@
         <v>0.653362190041527</v>
       </c>
       <c r="K48">
-        <v>39.51718467839867</v>
+        <v>-0.1048281532160133</v>
       </c>
       <c r="L48">
         <v>-0.02612591126196381</v>
@@ -4985,13 +4985,13 @@
         <v>-0.1937500000000227</v>
       </c>
       <c r="U48">
-        <v>0.9997893533146759</v>
+        <v>-0.0002106466853241118</v>
       </c>
       <c r="V48">
-        <v>0.9996779841809729</v>
+        <v>-0.0003220158190271327</v>
       </c>
       <c r="W48">
-        <v>1.000605510142295</v>
+        <v>0.0006055101422948184</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -5026,7 +5026,7 @@
         <v>0.6103191317993621</v>
       </c>
       <c r="K49">
-        <v>37.9005080264677</v>
+        <v>-0.120994919735323</v>
       </c>
       <c r="L49">
         <v>-0.02705481975351086</v>
@@ -5056,13 +5056,13 @@
         <v>-0.1624999999999943</v>
       </c>
       <c r="U49">
-        <v>0.9997291114856731</v>
+        <v>-0.0002708885143268835</v>
       </c>
       <c r="V49">
-        <v>0.9996980129250466</v>
+        <v>-0.0003019870749534359</v>
       </c>
       <c r="W49">
-        <v>0.9993948562783661</v>
+        <v>-0.000605143721633894</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -5097,7 +5097,7 @@
         <v>0.7143391142473015</v>
       </c>
       <c r="K50">
-        <v>41.66848369209259</v>
+        <v>-0.08331516307907405</v>
       </c>
       <c r="L50">
         <v>-0.02743930218523428</v>
@@ -5127,13 +5127,13 @@
         <v>-0.1500000000000057</v>
       </c>
       <c r="U50">
-        <v>0.9997290380852027</v>
+        <v>-0.000270961914797252</v>
       </c>
       <c r="V50">
-        <v>0.999758337361044</v>
+        <v>-0.0002416626389559751</v>
       </c>
       <c r="W50">
-        <v>1.000908265213442</v>
+        <v>0.0009082652134424496</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -5168,7 +5168,7 @@
         <v>0.6438418339649032</v>
       </c>
       <c r="K51">
-        <v>39.16689675745589</v>
+        <v>-0.1083310324254411</v>
       </c>
       <c r="L51">
         <v>-0.02769913307744802</v>
@@ -5198,13 +5198,13 @@
         <v>-0.1593749999999829</v>
       </c>
       <c r="U51">
-        <v>0.9996586962195585</v>
+        <v>-0.0003413037804415042</v>
       </c>
       <c r="V51">
-        <v>0.999657561840303</v>
+        <v>-0.0003424381596970338</v>
       </c>
       <c r="W51">
-        <v>0.999092558983666</v>
+        <v>-0.0009074410163339985</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -5239,7 +5239,7 @@
         <v>0.5832518988028753</v>
       </c>
       <c r="K52">
-        <v>36.83885673807702</v>
+        <v>-0.1316114326192298</v>
       </c>
       <c r="L52">
         <v>-0.02809581921656671</v>
@@ -5269,13 +5269,13 @@
         <v>-0.1656249999999773</v>
       </c>
       <c r="U52">
-        <v>0.9996184125964011</v>
+        <v>-0.0003815874035989486</v>
       </c>
       <c r="V52">
-        <v>0.9996977451790358</v>
+        <v>-0.0003022548209642428</v>
       </c>
       <c r="W52">
-        <v>0.9990917347865577</v>
+        <v>-0.0009082652134423386</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -5310,7 +5310,7 @@
         <v>0.6162718506778948</v>
       </c>
       <c r="K53">
-        <v>38.12922005783982</v>
+        <v>-0.1187077994216018</v>
       </c>
       <c r="L53">
         <v>-0.02833857034786076</v>
@@ -5340,13 +5340,13 @@
         <v>-0.1718749999999716</v>
       </c>
       <c r="U53">
-        <v>0.9996383581459828</v>
+        <v>-0.0003616418540172139</v>
       </c>
       <c r="V53">
-        <v>0.9997984358622916</v>
+        <v>-0.0002015641377084432</v>
       </c>
       <c r="W53">
-        <v>1.00030303030303</v>
+        <v>0.0003030303030304715</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -5381,7 +5381,7 @@
         <v>0.5762158119805809</v>
       </c>
       <c r="K54">
-        <v>36.55691102708465</v>
+        <v>-0.1344308897291535</v>
       </c>
       <c r="L54">
         <v>-0.02858949959812237</v>
@@ -5411,13 +5411,13 @@
         <v>-0.1906250000000114</v>
       </c>
       <c r="U54">
-        <v>0.9995879811074264</v>
+        <v>-0.0004120188925735846</v>
       </c>
       <c r="V54">
-        <v>0.9996774323615982</v>
+        <v>-0.0003225676384017717</v>
       </c>
       <c r="W54">
-        <v>0.9993941229930323</v>
+        <v>-0.0006058770069676811</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -5452,7 +5452,7 @@
         <v>0.6788432106211532</v>
       </c>
       <c r="K55">
-        <v>40.43517621696125</v>
+        <v>-0.09564823783038756</v>
       </c>
       <c r="L55">
         <v>-0.02839618673300864</v>
@@ -5482,13 +5482,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U55">
-        <v>0.9996179714282842</v>
+        <v>-0.0003820285717157645</v>
       </c>
       <c r="V55">
-        <v>0.9998588311216874</v>
+        <v>-0.0001411688783126142</v>
       </c>
       <c r="W55">
-        <v>1.000909366474689</v>
+        <v>0.0009093664746893104</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -5523,7 +5523,7 @@
         <v>0.6788432106211532</v>
       </c>
       <c r="K56">
-        <v>40.43517621696125</v>
+        <v>-0.09564823783038756</v>
       </c>
       <c r="L56">
         <v>-0.02784279754641265</v>
@@ -5553,13 +5553,13 @@
         <v>-0.1531249999999602</v>
       </c>
       <c r="U56">
-        <v>0.9996580543291327</v>
+        <v>-0.0003419456708673163</v>
       </c>
       <c r="V56">
-        <v>0.9998991508501582</v>
+        <v>-0.0001008491498417641</v>
       </c>
       <c r="W56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -5594,7 +5594,7 @@
         <v>0.6540514830914546</v>
       </c>
       <c r="K57">
-        <v>39.54238968844062</v>
+        <v>-0.1045761031155938</v>
       </c>
       <c r="L57">
         <v>-0.02711514568035525</v>
@@ -5624,13 +5624,13 @@
         <v>-0.1468749999999943</v>
       </c>
       <c r="U57">
-        <v>0.99962775536485</v>
+        <v>-0.0003722446351499542</v>
       </c>
       <c r="V57">
-        <v>0.9998184532214469</v>
+        <v>-0.0001815467785530878</v>
       </c>
       <c r="W57">
-        <v>0.9996971532404604</v>
+        <v>-0.0003028467595396211</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5665,7 +5665,7 @@
         <v>0.8078222206409877</v>
       </c>
       <c r="K58">
-        <v>44.68482638489549</v>
+        <v>-0.05315173615104507</v>
       </c>
       <c r="L58">
         <v>-0.02578990406345359</v>
@@ -5695,13 +5695,13 @@
         <v>-0.1374999999999886</v>
       </c>
       <c r="U58">
-        <v>0.9996779388083735</v>
+        <v>-0.0003220611916264771</v>
       </c>
       <c r="V58">
-        <v>0.9998587713104005</v>
+        <v>-0.0001412286895995374</v>
       </c>
       <c r="W58">
-        <v>1.001211754013935</v>
+        <v>0.00121175401393514</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5736,7 +5736,7 @@
         <v>0.7764042586693511</v>
       </c>
       <c r="K59">
-        <v>43.70650739437718</v>
+        <v>-0.06293492605622819</v>
       </c>
       <c r="L59">
         <v>-0.02420286827056142</v>
@@ -5766,13 +5766,13 @@
         <v>-0.1062500000000171</v>
       </c>
       <c r="U59">
-        <v>0.9996979703608246</v>
+        <v>-0.0003020296391753607</v>
       </c>
       <c r="V59">
-        <v>0.9998587513620404</v>
+        <v>-0.0001412486379596123</v>
       </c>
       <c r="W59">
-        <v>0.9996974281391829</v>
+        <v>-0.000302571860817058</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5807,7 +5807,7 @@
         <v>0.7764042586693513</v>
       </c>
       <c r="K60">
-        <v>43.70650739437718</v>
+        <v>-0.06293492605622819</v>
       </c>
       <c r="L60">
         <v>-0.02247009135454005</v>
@@ -5837,13 +5837,13 @@
         <v>-0.05937500000001705</v>
       </c>
       <c r="U60">
-        <v>0.9997381618965135</v>
+        <v>-0.0002618381034864559</v>
       </c>
       <c r="V60">
-        <v>0.9998990938628889</v>
+        <v>-0.000100906137111112</v>
       </c>
       <c r="W60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5878,7 +5878,7 @@
         <v>0.8194980797347553</v>
       </c>
       <c r="K61">
-        <v>45.03978810762037</v>
+        <v>-0.04960211892379635</v>
       </c>
       <c r="L61">
         <v>-0.02056748807103594</v>
@@ -5908,13 +5908,13 @@
         <v>-0.02187500000002274</v>
       </c>
       <c r="U61">
-        <v>0.9997783866548473</v>
+        <v>-0.0002216133451526936</v>
       </c>
       <c r="V61">
-        <v>0.9999394502078877</v>
+        <v>-6.054979211234102E-05</v>
       </c>
       <c r="W61">
-        <v>1.000302663438257</v>
+        <v>0.0003026634382568005</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5949,7 +5949,7 @@
         <v>0.864859996645707</v>
       </c>
       <c r="K62">
-        <v>46.37667161080812</v>
+        <v>-0.03623328389191877</v>
       </c>
       <c r="L62">
         <v>-0.01849814917586443</v>
@@ -5979,13 +5979,13 @@
         <v>0.02812499999998863</v>
       </c>
       <c r="U62">
-        <v>0.9998287153652393</v>
+        <v>-0.0001712846347606822</v>
       </c>
       <c r="V62">
-        <v>1.000060553458612</v>
+        <v>6.055345861155637E-05</v>
       </c>
       <c r="W62">
-        <v>1.000302571860817</v>
+        <v>0.000302571860816947</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -6020,7 +6020,7 @@
         <v>0.8254454815422945</v>
       </c>
       <c r="K63">
-        <v>45.21885150165573</v>
+        <v>-0.04781148498344273</v>
       </c>
       <c r="L63">
         <v>-0.01650217774198423</v>
@@ -6050,13 +6050,13 @@
         <v>0.04062500000000568</v>
       </c>
       <c r="U63">
-        <v>0.9998387633146233</v>
+        <v>-0.0001612366853767089</v>
       </c>
       <c r="V63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W63">
-        <v>0.999697519661222</v>
+        <v>-0.0003024803387779995</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -6091,7 +6091,7 @@
         <v>0.8734173653473748</v>
       </c>
       <c r="K64">
-        <v>46.62161147339548</v>
+        <v>-0.03378388526604525</v>
       </c>
       <c r="L64">
         <v>-0.01450761676779327</v>
@@ -6121,13 +6121,13 @@
         <v>0.06250000000002842</v>
       </c>
       <c r="U64">
-        <v>0.9998790529848715</v>
+        <v>-0.0001209470151285474</v>
       </c>
       <c r="V64">
-        <v>1.000060549792113</v>
+        <v>6.054979211267408E-05</v>
       </c>
       <c r="W64">
-        <v>1.000302571860817</v>
+        <v>0.000302571860816947</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -6162,7 +6162,7 @@
         <v>0.8734173653473748</v>
       </c>
       <c r="K65">
-        <v>46.62161147339548</v>
+        <v>-0.03378388526604525</v>
       </c>
       <c r="L65">
         <v>-0.01258808852815804</v>
@@ -6192,13 +6192,13 @@
         <v>0.08437499999999432</v>
       </c>
       <c r="U65">
-        <v>0.9998790383549218</v>
+        <v>-0.0001209616450782436</v>
       </c>
       <c r="V65">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -6233,7 +6233,7 @@
         <v>0.829334550192396</v>
       </c>
       <c r="K66">
-        <v>45.33531333047706</v>
+        <v>-0.04664686669522938</v>
       </c>
       <c r="L66">
         <v>-0.01090053840258063</v>
@@ -6263,13 +6263,13 @@
         <v>0.08750000000000568</v>
       </c>
       <c r="U66">
-        <v>0.9998487796517899</v>
+        <v>-0.0001512203482101349</v>
       </c>
       <c r="V66">
-        <v>1.000040364084038</v>
+        <v>4.036408403806924E-05</v>
       </c>
       <c r="W66">
-        <v>0.999697519661222</v>
+        <v>-0.0003024803387779995</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -6304,7 +6304,7 @@
         <v>0.7496768126228657</v>
       </c>
       <c r="K67">
-        <v>42.84658785064753</v>
+        <v>-0.07153412149352467</v>
       </c>
       <c r="L67">
         <v>-0.009641594322110331</v>
@@ -6334,13 +6334,13 @@
         <v>0.08125000000001137</v>
       </c>
       <c r="U67">
-        <v>0.9998790054245901</v>
+        <v>-0.0001209945754099273</v>
       </c>
       <c r="V67">
-        <v>1.000060543682266</v>
+        <v>6.054368226648954E-05</v>
       </c>
       <c r="W67">
-        <v>0.9993948562783661</v>
+        <v>-0.000605143721633894</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -6375,7 +6375,7 @@
         <v>0.8002295419488737</v>
       </c>
       <c r="K68">
-        <v>44.45152816915611</v>
+        <v>-0.05548471830843887</v>
       </c>
       <c r="L68">
         <v>-0.008577378956175833</v>
@@ -6405,13 +6405,13 @@
         <v>0.06874999999999432</v>
       </c>
       <c r="U68">
-        <v>0.9999294112901598</v>
+        <v>-7.058870984022469E-05</v>
       </c>
       <c r="V68">
-        <v>1.000060540016951</v>
+        <v>6.054001695132705E-05</v>
       </c>
       <c r="W68">
-        <v>1.000302755071147</v>
+        <v>0.0003027550711474092</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -6446,7 +6446,7 @@
         <v>0.6320593966914364</v>
       </c>
       <c r="K69">
-        <v>38.7277202026328</v>
+        <v>-0.112722797973672</v>
       </c>
       <c r="L69">
         <v>-0.008218375547103076</v>
@@ -6476,13 +6476,13 @@
         <v>0.03749999999999432</v>
       </c>
       <c r="U69">
-        <v>0.9998386429875252</v>
+        <v>-0.0001613570124747721</v>
       </c>
       <c r="V69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W69">
-        <v>0.9984866828087167</v>
+        <v>-0.001513317191283337</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -6517,7 +6517,7 @@
         <v>0.5370223259041871</v>
       </c>
       <c r="K70">
-        <v>34.93913633221118</v>
+        <v>-0.1506086366778882</v>
       </c>
       <c r="L70">
         <v>-0.008720261831574915</v>
@@ -6547,13 +6547,13 @@
         <v>-0.01874999999998295</v>
       </c>
       <c r="U70">
-        <v>0.9998587898288332</v>
+        <v>-0.0001412101711667502</v>
       </c>
       <c r="V70">
-        <v>0.9998587485118147</v>
+        <v>-0.0001412514881853344</v>
       </c>
       <c r="W70">
-        <v>0.998787511367081</v>
+        <v>-0.001212488632919007</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6588,7 +6588,7 @@
         <v>0.5370223259041871</v>
       </c>
       <c r="K71">
-        <v>34.93913633221118</v>
+        <v>-0.1506086366778882</v>
       </c>
       <c r="L71">
         <v>-0.009680217748071289</v>
@@ -6618,13 +6618,13 @@
         <v>-0.05937499999998863</v>
       </c>
       <c r="U71">
-        <v>0.9998789456163181</v>
+        <v>-0.0001210543836819289</v>
       </c>
       <c r="V71">
-        <v>0.9998587285570133</v>
+        <v>-0.0001412714429867012</v>
       </c>
       <c r="W71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6659,7 +6659,7 @@
         <v>0.5155490673452636</v>
       </c>
       <c r="K72">
-        <v>34.01731283094209</v>
+        <v>-0.1598268716905791</v>
       </c>
       <c r="L72">
         <v>-0.01093167090201475</v>
@@ -6689,13 +6689,13 @@
         <v>-0.109375</v>
       </c>
       <c r="U72">
-        <v>0.9998385746138402</v>
+        <v>-0.0001614253861598192</v>
       </c>
       <c r="V72">
-        <v>0.9998587085965724</v>
+        <v>-0.000141291403427557</v>
       </c>
       <c r="W72">
-        <v>0.9996965098634294</v>
+        <v>-0.0003034901365706055</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6730,7 +6730,7 @@
         <v>0.5997296645819509</v>
       </c>
       <c r="K73">
-        <v>37.48943823822102</v>
+        <v>-0.1251056176177898</v>
       </c>
       <c r="L73">
         <v>-0.01202012500762152</v>
@@ -6760,13 +6760,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U73">
-        <v>0.9998385485514779</v>
+        <v>-0.0001614514485220875</v>
       </c>
       <c r="V73">
-        <v>0.9998183139534885</v>
+        <v>-0.0001816860465114756</v>
       </c>
       <c r="W73">
-        <v>1.000607164541591</v>
+        <v>0.0006071645415908211</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6801,7 +6801,7 @@
         <v>0.5997296645819509</v>
       </c>
       <c r="K74">
-        <v>37.48943823822102</v>
+        <v>-0.1251056176177898</v>
       </c>
       <c r="L74">
         <v>-0.0128968918105477</v>
@@ -6831,13 +6831,13 @@
         <v>-0.1843750000000171</v>
       </c>
       <c r="U74">
-        <v>0.9998486148256546</v>
+        <v>-0.0001513851743454309</v>
       </c>
       <c r="V74">
-        <v>0.9998384719445961</v>
+        <v>-0.0001615280554039256</v>
       </c>
       <c r="W74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6872,7 +6872,7 @@
         <v>0.7396420145597716</v>
       </c>
       <c r="K75">
-        <v>42.51690913241958</v>
+        <v>-0.07483090867580416</v>
       </c>
       <c r="L75">
         <v>-0.01321215893840786</v>
@@ -6902,13 +6902,13 @@
         <v>-0.1937500000000227</v>
       </c>
       <c r="U75">
-        <v>0.9998990612698091</v>
+        <v>-0.0001009387301909026</v>
       </c>
       <c r="V75">
-        <v>0.9998990286556673</v>
+        <v>-0.0001009713443327342</v>
       </c>
       <c r="W75">
-        <v>1.000910194174757</v>
+        <v>0.0009101941747571285</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6943,7 +6943,7 @@
         <v>0.788734067183587</v>
       </c>
       <c r="K76">
-        <v>44.09454047160131</v>
+        <v>-0.05905459528398688</v>
       </c>
       <c r="L76">
         <v>-0.01300882264051857</v>
@@ -6973,13 +6973,13 @@
         <v>-0.2062499999999829</v>
       </c>
       <c r="U76">
-        <v>0.9999192408641229</v>
+        <v>-8.075913587712868E-05</v>
       </c>
       <c r="V76">
-        <v>0.9998990184594257</v>
+        <v>-0.000100981540574252</v>
       </c>
       <c r="W76">
-        <v>1.00030312215823</v>
+        <v>0.0003031221582299182</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -7014,7 +7014,7 @@
         <v>0.7887340671835871</v>
       </c>
       <c r="K77">
-        <v>44.09454047160131</v>
+        <v>-0.05905459528398688</v>
       </c>
       <c r="L77">
         <v>-0.01245680306418182</v>
@@ -7044,13 +7044,13 @@
         <v>-0.1843749999999886</v>
       </c>
       <c r="U77">
-        <v>0.9999697128780842</v>
+        <v>-3.028712191577299E-05</v>
       </c>
       <c r="V77">
-        <v>0.9998788099133492</v>
+        <v>-0.0001211900866507909</v>
       </c>
       <c r="W77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -7085,7 +7085,7 @@
         <v>0.8975253195355015</v>
       </c>
       <c r="K78">
-        <v>47.29978094601701</v>
+        <v>-0.02700219053982988</v>
       </c>
       <c r="L78">
         <v>-0.01146280574484904</v>
@@ -7115,13 +7115,13 @@
         <v>-0.1281250000000114</v>
       </c>
       <c r="U78">
-        <v>0.9999697119607467</v>
+        <v>-3.028803925331225E-05</v>
       </c>
       <c r="V78">
-        <v>0.9999393976122658</v>
+        <v>-6.060238773419879E-05</v>
       </c>
       <c r="W78">
-        <v>1.00060606060606</v>
+        <v>0.0006060606060604989</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -7156,7 +7156,7 @@
         <v>1.069300981143804</v>
       </c>
       <c r="K79">
-        <v>51.67450220570372</v>
+        <v>0.01674502205703721</v>
       </c>
       <c r="L79">
         <v>-0.009891746812027357</v>
@@ -7186,13 +7186,13 @@
         <v>-0.06562500000001137</v>
       </c>
       <c r="U79">
-        <v>1.000020192637764</v>
+        <v>2.019263776409375E-05</v>
       </c>
       <c r="V79">
-        <v>0.9999797979797979</v>
+        <v>-2.020202020214246E-05</v>
       </c>
       <c r="W79">
-        <v>1.000908540278619</v>
+        <v>0.0009085402786190855</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -7227,7 +7227,7 @@
         <v>1.310389629015082</v>
       </c>
       <c r="K80">
-        <v>56.71725723481977</v>
+        <v>0.06717257234819773</v>
       </c>
       <c r="L80">
         <v>-0.007593921739721484</v>
@@ -7257,13 +7257,13 @@
         <v>0.01874999999998295</v>
       </c>
       <c r="U80">
-        <v>1.000030288345045</v>
+        <v>3.028834504470446E-05</v>
       </c>
       <c r="V80">
-        <v>1.000060607284996</v>
+        <v>6.060728499579504E-05</v>
       </c>
       <c r="W80">
-        <v>1.001210287443268</v>
+        <v>0.001210287443267788</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -7298,7 +7298,7 @@
         <v>1.232212659546688</v>
       </c>
       <c r="K81">
-        <v>55.20140091835706</v>
+        <v>0.05201400918357058</v>
       </c>
       <c r="L81">
         <v>-0.005084605198907558</v>
@@ -7328,13 +7328,13 @@
         <v>0.08750000000000568</v>
       </c>
       <c r="U81">
-        <v>1.000050479046148</v>
+        <v>5.04790461479665E-05</v>
       </c>
       <c r="V81">
-        <v>1.000060603611975</v>
+        <v>6.060361197546271E-05</v>
       </c>
       <c r="W81">
-        <v>0.9996977938954368</v>
+        <v>-0.0003022061045632185</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -7369,7 +7369,7 @@
         <v>1.357811252494515</v>
       </c>
       <c r="K82">
-        <v>57.58778405429947</v>
+        <v>0.07587784054299473</v>
       </c>
       <c r="L82">
         <v>-0.002367942804783849</v>
@@ -7399,13 +7399,13 @@
         <v>0.1593750000000114</v>
       </c>
       <c r="U82">
-        <v>1.000100952996285</v>
+        <v>0.0001009529962849864</v>
       </c>
       <c r="V82">
-        <v>1.0001413998586</v>
+        <v>0.0001413998585999554</v>
       </c>
       <c r="W82">
-        <v>1.000604594921403</v>
+        <v>0.0006045949214026347</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -7440,7 +7440,7 @@
         <v>1.423915775098653</v>
       </c>
       <c r="K83">
-        <v>58.74444111164299</v>
+        <v>0.08744441111642987</v>
       </c>
       <c r="L83">
         <v>0.0004200977963489308</v>
@@ -7470,13 +7470,13 @@
         <v>0.2093749999999943</v>
       </c>
       <c r="U83">
-        <v>1.000100942805806</v>
+        <v>0.0001009428058060813</v>
       </c>
       <c r="V83">
-        <v>1.000141379867507</v>
+        <v>0.0001413798675069522</v>
       </c>
       <c r="W83">
-        <v>1.000302114803626</v>
+        <v>0.0003021148036255195</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -7511,7 +7511,7 @@
         <v>1.249961818682991</v>
       </c>
       <c r="K84">
-        <v>55.55480134390248</v>
+        <v>0.05554801343902482</v>
       </c>
       <c r="L84">
         <v>0.002851513800560402</v>
@@ -7541,13 +7541,13 @@
         <v>0.2500000000000284</v>
       </c>
       <c r="U84">
-        <v>1.000100932617385</v>
+        <v>0.0001009326173846414</v>
       </c>
       <c r="V84">
-        <v>1.000201942688665</v>
+        <v>0.0002019426886650244</v>
       </c>
       <c r="W84">
-        <v>0.9993959528843248</v>
+        <v>-0.0006040471156751881</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -7582,7 +7582,7 @@
         <v>1.249961818682991</v>
       </c>
       <c r="K85">
-        <v>55.55480134390249</v>
+        <v>0.05554801343902493</v>
       </c>
       <c r="L85">
         <v>0.004901392175203505</v>
@@ -7612,13 +7612,13 @@
         <v>0.2750000000000057</v>
       </c>
       <c r="U85">
-        <v>1.000070645701714</v>
+        <v>7.064570171366746E-05</v>
       </c>
       <c r="V85">
-        <v>1.000282662682469</v>
+        <v>0.0002826626824690148</v>
       </c>
       <c r="W85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7653,7 +7653,7 @@
         <v>1.385325700088254</v>
       </c>
       <c r="K86">
-        <v>58.07700390923549</v>
+        <v>0.08077003909235492</v>
       </c>
       <c r="L86">
         <v>0.006792031299817643</v>
@@ -7683,13 +7683,13 @@
         <v>0.2812500000000284</v>
       </c>
       <c r="U86">
-        <v>1.000090823771609</v>
+        <v>9.082377160862798E-05</v>
       </c>
       <c r="V86">
-        <v>1.000322951779262</v>
+        <v>0.0003229517792624481</v>
       </c>
       <c r="W86">
-        <v>1.000604412209127</v>
+        <v>0.0006044122091266591</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7724,7 +7724,7 @@
         <v>1.293193248742533</v>
       </c>
       <c r="K87">
-        <v>56.39268515427788</v>
+        <v>0.06392685154277877</v>
       </c>
       <c r="L87">
         <v>0.008330538199103107</v>
@@ -7754,13 +7754,13 @@
         <v>0.265625</v>
       </c>
       <c r="U87">
-        <v>1.0000908155234</v>
+        <v>9.081552340006738E-05</v>
       </c>
       <c r="V87">
-        <v>1.000322847515083</v>
+        <v>0.0003228475150831578</v>
       </c>
       <c r="W87">
-        <v>0.9996979764421624</v>
+        <v>-0.000302023557837594</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7795,7 +7795,7 @@
         <v>1.363199549590168</v>
       </c>
       <c r="K88">
-        <v>57.68448753413894</v>
+        <v>0.0768448753413894</v>
       </c>
       <c r="L88">
         <v>0.009637441756023931</v>
@@ -7825,13 +7825,13 @@
         <v>0.2249999999999943</v>
       </c>
       <c r="U88">
-        <v>1.00006053818446</v>
+        <v>6.053818446005721E-05</v>
       </c>
       <c r="V88">
-        <v>1.000302571860817</v>
+        <v>0.000302571860816947</v>
       </c>
       <c r="W88">
-        <v>1.000302114803626</v>
+        <v>0.0003021148036255195</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7866,7 +7866,7 @@
         <v>1.510581235585146</v>
       </c>
       <c r="K89">
-        <v>60.16858622911964</v>
+        <v>0.1016858622911964</v>
       </c>
       <c r="L89">
         <v>0.01090597892740594</v>
@@ -7896,13 +7896,13 @@
         <v>0.203125</v>
       </c>
       <c r="U89">
-        <v>1.000090801779715</v>
+        <v>9.080177971476644E-05</v>
       </c>
       <c r="V89">
-        <v>1.000342811050615</v>
+        <v>0.0003428110506149551</v>
       </c>
       <c r="W89">
-        <v>1.000604047115675</v>
+        <v>0.0006040471156749661</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7937,7 +7937,7 @@
         <v>1.743289160840397</v>
       </c>
       <c r="K90">
-        <v>63.5474081888745</v>
+        <v>0.135474081888745</v>
       </c>
       <c r="L90">
         <v>0.01236118465910796</v>
@@ -7967,13 +7967,13 @@
         <v>0.1781250000000227</v>
       </c>
       <c r="U90">
-        <v>1.000121058047334</v>
+        <v>0.0001210580473338663</v>
       </c>
       <c r="V90">
-        <v>1.000342693571472</v>
+        <v>0.0003426935714718748</v>
       </c>
       <c r="W90">
-        <v>1.000905523694537</v>
+        <v>0.0009055236945367806</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -8008,7 +8008,7 @@
         <v>1.611691483222068</v>
       </c>
       <c r="K91">
-        <v>61.71063824252738</v>
+        <v>0.1171063824252738</v>
       </c>
       <c r="L91">
         <v>0.01368117347493681</v>
@@ -8038,13 +8038,13 @@
         <v>0.1531250000000171</v>
       </c>
       <c r="U91">
-        <v>1.000100869495047</v>
+        <v>0.0001008694950472844</v>
       </c>
       <c r="V91">
-        <v>1.000302273093664</v>
+        <v>0.0003022730936641516</v>
       </c>
       <c r="W91">
-        <v>0.999698431845597</v>
+        <v>-0.0003015681544029647</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -8079,7 +8079,7 @@
         <v>1.39068107347691</v>
       </c>
       <c r="K92">
-        <v>58.17091576562153</v>
+        <v>0.08170915765621534</v>
       </c>
       <c r="L92">
         <v>0.01456463617871062</v>
@@ -8109,13 +8109,13 @@
         <v>0.1375000000000171</v>
       </c>
       <c r="U92">
-        <v>1.000070601524993</v>
+        <v>7.060152499271943E-05</v>
       </c>
       <c r="V92">
-        <v>1.000261890851951</v>
+        <v>0.0002618908519511631</v>
       </c>
       <c r="W92">
-        <v>0.9993966817496229</v>
+        <v>-0.0006033182503770718</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -8150,7 +8150,7 @@
         <v>1.297067304650125</v>
       </c>
       <c r="K93">
-        <v>56.46622987599774</v>
+        <v>0.06466229875997742</v>
       </c>
       <c r="L93">
         <v>0.01496399962135219</v>
@@ -8180,13 +8180,13 @@
         <v>0.1187500000000057</v>
       </c>
       <c r="U93">
-        <v>1.00007059654077</v>
+        <v>7.059654076968513E-05</v>
       </c>
       <c r="V93">
-        <v>1.000201401756224</v>
+        <v>0.0002014017562235182</v>
       </c>
       <c r="W93">
-        <v>0.9996981587684877</v>
+        <v>-0.0003018412315123342</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -8221,7 +8221,7 @@
         <v>1.36792525416186</v>
       </c>
       <c r="K94">
-        <v>57.76893724823441</v>
+        <v>0.07768937248234409</v>
       </c>
       <c r="L94">
         <v>0.01510028406775713</v>
@@ -8251,13 +8251,13 @@
         <v>0.09687500000001137</v>
       </c>
       <c r="U94">
-        <v>1.00007059155725</v>
+        <v>7.059155724964405E-05</v>
       </c>
       <c r="V94">
-        <v>1.000161088961379</v>
+        <v>0.0001610889613787858</v>
       </c>
       <c r="W94">
-        <v>1.00030193236715</v>
+        <v>0.0003019323671498153</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -8292,7 +8292,7 @@
         <v>1.517099884712839</v>
       </c>
       <c r="K95">
-        <v>60.27173946996211</v>
+        <v>0.1027173946996212</v>
       </c>
       <c r="L95">
         <v>0.01523375560993799</v>
@@ -8322,13 +8322,13 @@
         <v>0.09687500000001137</v>
       </c>
       <c r="U95">
-        <v>1.000090754167129</v>
+        <v>9.075416712867046E-05</v>
       </c>
       <c r="V95">
-        <v>1.000120797261929</v>
+        <v>0.0001207972619285957</v>
       </c>
       <c r="W95">
-        <v>1.000603682463024</v>
+        <v>0.0006036824630244464</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -8363,7 +8363,7 @@
         <v>1.595612848160745</v>
       </c>
       <c r="K96">
-        <v>61.47345314966362</v>
+        <v>0.1147345314966361</v>
       </c>
       <c r="L96">
         <v>0.01541152084550534</v>
@@ -8393,13 +8393,13 @@
         <v>0.1062500000000171</v>
       </c>
       <c r="U96">
-        <v>1.000110911694126</v>
+        <v>0.0001109116941258037</v>
       </c>
       <c r="V96">
-        <v>1.000161043562284</v>
+        <v>0.000161043562283858</v>
       </c>
       <c r="W96">
-        <v>1.000301659125189</v>
+        <v>0.0003016591251885359</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -8434,7 +8434,7 @@
         <v>1.595612848160745</v>
       </c>
       <c r="K97">
-        <v>61.47345314966362</v>
+        <v>0.1147345314966361</v>
       </c>
       <c r="L97">
         <v>0.01554848737471757</v>
@@ -8464,13 +8464,13 @@
         <v>0.09999999999996589</v>
       </c>
       <c r="U97">
-        <v>1.000131062920284</v>
+        <v>0.0001310629202835312</v>
       </c>
       <c r="V97">
-        <v>1.000120763223573</v>
+        <v>0.0001207632235731282</v>
       </c>
       <c r="W97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -8505,7 +8505,7 @@
         <v>1.359136722292477</v>
       </c>
       <c r="K98">
-        <v>57.61161315702567</v>
+        <v>0.07611613157025676</v>
       </c>
       <c r="L98">
         <v>0.0153750422034294</v>
@@ -8535,13 +8535,13 @@
         <v>0.07499999999998863</v>
       </c>
       <c r="U98">
-        <v>1.000100804419266</v>
+        <v>0.0001008044192658542</v>
       </c>
       <c r="V98">
-        <v>1.000060374320789</v>
+        <v>6.03743207887586E-05</v>
       </c>
       <c r="W98">
-        <v>0.9993968636911941</v>
+        <v>-0.0006031363088059294</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -8576,7 +8576,7 @@
         <v>1.593142958244033</v>
       </c>
       <c r="K99">
-        <v>61.43675778379924</v>
+        <v>0.1143675778379925</v>
       </c>
       <c r="L99">
         <v>0.01529885529237344</v>
@@ -8606,13 +8606,13 @@
         <v>0.06874999999999432</v>
       </c>
       <c r="U99">
-        <v>1.000181429665766</v>
+        <v>0.0001814296657660641</v>
       </c>
       <c r="V99">
-        <v>1.000160988469201</v>
+        <v>0.0001609884692008734</v>
       </c>
       <c r="W99">
-        <v>1.000905250452625</v>
+        <v>0.0009052504526252392</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8647,7 +8647,7 @@
         <v>1.593142958244033</v>
       </c>
       <c r="K100">
-        <v>61.43675778379924</v>
+        <v>0.1143675778379925</v>
       </c>
       <c r="L100">
         <v>0.01523057109109425</v>
@@ -8677,13 +8677,13 @@
         <v>0.06874999999999432</v>
       </c>
       <c r="U100">
-        <v>1.000221707145017</v>
+        <v>0.0002217071450165697</v>
       </c>
       <c r="V100">
-        <v>1.000160962556085</v>
+        <v>0.0001609625560852201</v>
       </c>
       <c r="W100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8718,7 +8718,7 @@
         <v>2.198145230325586</v>
       </c>
       <c r="K101">
-        <v>68.7318765102423</v>
+        <v>0.1873187651024231</v>
       </c>
       <c r="L101">
         <v>0.01588617369202878</v>
@@ -8748,13 +8748,13 @@
         <v>0.09687499999998295</v>
       </c>
       <c r="U101">
-        <v>1.000292185547898</v>
+        <v>0.0002921855478981161</v>
       </c>
       <c r="V101">
-        <v>1.00026152205838</v>
+        <v>0.0002615220583801481</v>
       </c>
       <c r="W101">
-        <v>1.00211034066928</v>
+        <v>0.002110340669279509</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8789,7 +8789,7 @@
         <v>2.380100800876472</v>
       </c>
       <c r="K102">
-        <v>70.41508348683872</v>
+        <v>0.2041508348683873</v>
       </c>
       <c r="L102">
         <v>0.01710023512318676</v>
@@ -8819,13 +8819,13 @@
         <v>0.1312499999999943</v>
       </c>
       <c r="U102">
-        <v>1.000322317462556</v>
+        <v>0.0003223174625557323</v>
       </c>
       <c r="V102">
-        <v>1.000321789147661</v>
+        <v>0.0003217891476607893</v>
       </c>
       <c r="W102">
-        <v>1.000601684717208</v>
+        <v>0.0006016847172083395</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8860,7 +8860,7 @@
         <v>2.571632980403668</v>
       </c>
       <c r="K103">
-        <v>72.00160247464791</v>
+        <v>0.2200160247464791</v>
       </c>
       <c r="L103">
         <v>0.01873240205766928</v>
@@ -8890,13 +8890,13 @@
         <v>0.1562499999999716</v>
       </c>
       <c r="U103">
-        <v>1.000322213607483</v>
+        <v>0.0003222136074834125</v>
       </c>
       <c r="V103">
-        <v>1.00034179098476</v>
+        <v>0.0003417909847600598</v>
       </c>
       <c r="W103">
-        <v>1.000601322910403</v>
+        <v>0.000601322910402935</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8931,7 +8931,7 @@
         <v>2.67243939068111</v>
       </c>
       <c r="K104">
-        <v>72.77014285007616</v>
+        <v>0.2277014285007616</v>
       </c>
       <c r="L104">
         <v>0.02055491807462601</v>
@@ -8961,13 +8961,13 @@
         <v>0.1812500000000057</v>
       </c>
       <c r="U104">
-        <v>1.00033217575117</v>
+        <v>0.0003321757511702828</v>
       </c>
       <c r="V104">
-        <v>1.000321575721033</v>
+        <v>0.000321575721033085</v>
       </c>
       <c r="W104">
-        <v>1.000300480769231</v>
+        <v>0.0003004807692306155</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -9002,7 +9002,7 @@
         <v>2.884663412317952</v>
       </c>
       <c r="K105">
-        <v>74.25774400868087</v>
+        <v>0.2425774400868087</v>
       </c>
       <c r="L105">
         <v>0.02252094721941365</v>
@@ -9032,13 +9032,13 @@
         <v>0.21875</v>
       </c>
       <c r="U105">
-        <v>1.000322002857775</v>
+        <v>0.0003220028577752831</v>
       </c>
       <c r="V105">
-        <v>1.000301380321874</v>
+        <v>0.0003013803218741007</v>
       </c>
       <c r="W105">
-        <v>1.00060078101532</v>
+        <v>0.0006007810153201287</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -9073,7 +9073,7 @@
         <v>2.16064999462108</v>
       </c>
       <c r="K106">
-        <v>68.360938360722</v>
+        <v>0.18360938360722</v>
       </c>
       <c r="L106">
         <v>0.02403592827381613</v>
@@ -9103,13 +9103,13 @@
         <v>0.2687499999999829</v>
       </c>
       <c r="U106">
-        <v>1.000281661804647</v>
+        <v>0.0002816618046472819</v>
       </c>
       <c r="V106">
-        <v>1.000261117583257</v>
+        <v>0.0002611175832565316</v>
       </c>
       <c r="W106">
-        <v>0.9990993695586911</v>
+        <v>-0.0009006304413089472</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -9144,7 +9144,7 @@
         <v>1.985771693997707</v>
       </c>
       <c r="K107">
-        <v>66.50782100954675</v>
+        <v>0.1650782100954674</v>
       </c>
       <c r="L107">
         <v>0.02498317049918209</v>
@@ -9174,13 +9174,13 @@
         <v>0.2937500000000171</v>
       </c>
       <c r="U107">
-        <v>1.000271525975985</v>
+        <v>0.0002715259759851207</v>
       </c>
       <c r="V107">
-        <v>1.000281130143176</v>
+        <v>0.0002811301431755453</v>
       </c>
       <c r="W107">
-        <v>0.9996995192307692</v>
+        <v>-0.0003004807692308376</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -9215,7 +9215,7 @@
         <v>1.985771693997707</v>
       </c>
       <c r="K108">
-        <v>66.50782100954675</v>
+        <v>0.1650782100954674</v>
       </c>
       <c r="L108">
         <v>0.02543483023652264</v>
@@ -9245,13 +9245,13 @@
         <v>0.3125</v>
       </c>
       <c r="U108">
-        <v>1.000251344694113</v>
+        <v>0.0002513446941134756</v>
       </c>
       <c r="V108">
-        <v>1.000301126212033</v>
+        <v>0.0003011262120329317</v>
       </c>
       <c r="W108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -9286,7 +9286,7 @@
         <v>2.075453489152959</v>
       </c>
       <c r="K109">
-        <v>67.48447006183079</v>
+        <v>0.1748447006183079</v>
       </c>
       <c r="L109">
         <v>0.0255745086638296</v>
@@ -9316,13 +9316,13 @@
         <v>0.2875000000000227</v>
       </c>
       <c r="U109">
-        <v>1.000231179012966</v>
+        <v>0.0002311790129663205</v>
       </c>
       <c r="V109">
-        <v>1.000301035562335</v>
+        <v>0.0003010355623345173</v>
       </c>
       <c r="W109">
-        <v>1.000300571085062</v>
+        <v>0.0003005710850616516</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -9357,7 +9357,7 @@
         <v>2.45306104770128</v>
       </c>
       <c r="K110">
-        <v>71.04018764262204</v>
+        <v>0.2104018764262204</v>
       </c>
       <c r="L110">
         <v>0.02586225416706055</v>
@@ -9387,13 +9387,13 @@
         <v>0.265625</v>
       </c>
       <c r="U110">
-        <v>1.000231125581582</v>
+        <v>0.0002311255815823365</v>
       </c>
       <c r="V110">
-        <v>1.000341070962823</v>
+        <v>0.0003410709628230979</v>
       </c>
       <c r="W110">
-        <v>1.001201923076923</v>
+        <v>0.001201923076922906</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -9428,7 +9428,7 @@
         <v>2.45306104770128</v>
       </c>
       <c r="K111">
-        <v>71.04018764262204</v>
+        <v>0.2104018764262204</v>
       </c>
       <c r="L111">
         <v>0.02612662456242285</v>
@@ -9458,13 +9458,13 @@
         <v>0.2374999999999829</v>
       </c>
       <c r="U111">
-        <v>1.000241118791191</v>
+        <v>0.0002411187911910417</v>
       </c>
       <c r="V111">
-        <v>1.000320898515844</v>
+        <v>0.0003208985158444921</v>
       </c>
       <c r="W111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -9499,7 +9499,7 @@
         <v>2.453061047701281</v>
       </c>
       <c r="K112">
-        <v>71.04018764262204</v>
+        <v>0.2104018764262204</v>
       </c>
       <c r="L112">
         <v>0.0262643859786322</v>
@@ -9529,13 +9529,13 @@
         <v>0.2062499999999829</v>
       </c>
       <c r="U112">
-        <v>1.000220972278023</v>
+        <v>0.0002209722780230905</v>
       </c>
       <c r="V112">
-        <v>1.000320795573021</v>
+        <v>0.0003207955730208933</v>
       </c>
       <c r="W112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -9570,7 +9570,7 @@
         <v>1.843967088956954</v>
       </c>
       <c r="K113">
-        <v>64.83784907768545</v>
+        <v>0.1483784907768545</v>
       </c>
       <c r="L113">
         <v>0.02589141202675464</v>
@@ -9600,13 +9600,13 @@
         <v>0.1531250000000171</v>
       </c>
       <c r="U113">
-        <v>1.000180755558234</v>
+        <v>0.0001807555582336029</v>
       </c>
       <c r="V113">
-        <v>1.00030064940271</v>
+        <v>0.0003006494027097961</v>
       </c>
       <c r="W113">
-        <v>0.9990996398559423</v>
+        <v>-0.0009003601440576992</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9641,7 +9641,7 @@
         <v>1.931089738720233</v>
       </c>
       <c r="K114">
-        <v>65.88299611609236</v>
+        <v>0.1588299611609236</v>
       </c>
       <c r="L114">
         <v>0.02524824411854948</v>
@@ -9671,13 +9671,13 @@
         <v>0.1156249999999943</v>
       </c>
       <c r="U114">
-        <v>1.000210843373494</v>
+        <v>0.0002108433734939741</v>
       </c>
       <c r="V114">
-        <v>1.000260484501172</v>
+        <v>0.0002604845011722201</v>
       </c>
       <c r="W114">
-        <v>1.00030039050766</v>
+        <v>0.0003003905076599533</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9712,7 +9712,7 @@
         <v>1.41282135821556</v>
       </c>
       <c r="K115">
-        <v>58.55474353312398</v>
+        <v>0.08554743533123987</v>
       </c>
       <c r="L115">
         <v>0.02395160548666462</v>
@@ -9742,13 +9742,13 @@
         <v>0.08124999999998295</v>
       </c>
       <c r="U115">
-        <v>1.000170646751187</v>
+        <v>0.0001706467511870535</v>
       </c>
       <c r="V115">
-        <v>1.000180288461539</v>
+        <v>0.0001802884615385025</v>
       </c>
       <c r="W115">
-        <v>0.9987987987987988</v>
+        <v>-0.001201201201201152</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9783,7 +9783,7 @@
         <v>1.483448016929323</v>
       </c>
       <c r="K116">
-        <v>59.73340318850494</v>
+        <v>0.09733403188504941</v>
       </c>
       <c r="L116">
         <v>0.02236449373494141</v>
@@ -9813,13 +9813,13 @@
         <v>0.04999999999998295</v>
       </c>
       <c r="U116">
-        <v>1.000160581304322</v>
+        <v>0.0001605813043217275</v>
       </c>
       <c r="V116">
-        <v>1.000060085321156</v>
+        <v>6.008532115608922E-05</v>
       </c>
       <c r="W116">
-        <v>1.000300661455201</v>
+        <v>0.0003006614552012454</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9854,7 +9854,7 @@
         <v>1.632135719484656</v>
       </c>
       <c r="K117">
-        <v>62.00803808871264</v>
+        <v>0.1200803808871264</v>
       </c>
       <c r="L117">
         <v>0.020840572855213</v>
@@ -9884,13 +9884,13 @@
         <v>0.04062500000000568</v>
       </c>
       <c r="U117">
-        <v>1.000190659682501</v>
+        <v>0.0001906596825012041</v>
       </c>
       <c r="V117">
-        <v>1.000060081711127</v>
+        <v>6.008171112714678E-05</v>
       </c>
       <c r="W117">
-        <v>1.000601142170123</v>
+        <v>0.0006011421701233033</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9925,7 +9925,7 @@
         <v>1.866905776150993</v>
       </c>
       <c r="K118">
-        <v>65.11918848820468</v>
+        <v>0.1511918848820468</v>
       </c>
       <c r="L118">
         <v>0.01970499695798709</v>
@@ -9955,13 +9955,13 @@
         <v>0.02187499999999432</v>
       </c>
       <c r="U118">
-        <v>1.000210688952876</v>
+        <v>0.0002106889528761258</v>
       </c>
       <c r="V118">
-        <v>1.000080104135376</v>
+        <v>8.010413537595795E-05</v>
       </c>
       <c r="W118">
-        <v>1.00090117152298</v>
+        <v>0.00090117152297986</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -9996,7 +9996,7 @@
         <v>1.496965995523066</v>
       </c>
       <c r="K119">
-        <v>59.95139694361279</v>
+        <v>0.09951396943612789</v>
       </c>
       <c r="L119">
         <v>0.01847627921525863</v>
@@ -10026,13 +10026,13 @@
         <v>0</v>
       </c>
       <c r="U119">
-        <v>1.000160491102775</v>
+        <v>0.000160491102774607</v>
       </c>
       <c r="V119">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W119">
-        <v>0.9990996398559423</v>
+        <v>-0.0009003601440576992</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -10067,7 +10067,7 @@
         <v>1.314214837713274</v>
       </c>
       <c r="K120">
-        <v>56.78880008443289</v>
+        <v>0.06788800084432889</v>
       </c>
       <c r="L120">
         <v>0.01698304224723889</v>
@@ -10097,13 +10097,13 @@
         <v>-0.02499999999997726</v>
       </c>
       <c r="U120">
-        <v>1.000110319927791</v>
+        <v>0.0001103199277905365</v>
       </c>
       <c r="V120">
-        <v>0.9999199022807824</v>
+        <v>-8.009771921757558E-05</v>
       </c>
       <c r="W120">
-        <v>0.9993992189846801</v>
+        <v>-0.0006007810153199067</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -10138,7 +10138,7 @@
         <v>1.164561311401367</v>
       </c>
       <c r="K121">
-        <v>53.8012624205786</v>
+        <v>0.03801262420578599</v>
       </c>
       <c r="L121">
         <v>0.01514391452340178</v>
@@ -10168,13 +10168,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U121">
-        <v>1.000100279780588</v>
+        <v>0.0001002797805877975</v>
       </c>
       <c r="V121">
-        <v>0.999939921898468</v>
+        <v>-6.007810153196846E-05</v>
       </c>
       <c r="W121">
-        <v>0.9993988578298768</v>
+        <v>-0.0006011421701231923</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -10209,7 +10209,7 @@
         <v>1.164561311401367</v>
       </c>
       <c r="K122">
-        <v>53.8012624205786</v>
+        <v>0.03801262420578599</v>
       </c>
       <c r="L122">
         <v>0.01315752184841731</v>
@@ -10239,13 +10239,13 @@
         <v>-0.05312499999999432</v>
       </c>
       <c r="U122">
-        <v>1.000120323670674</v>
+        <v>0.0001203236706741606</v>
       </c>
       <c r="V122">
-        <v>0.9999599455259153</v>
+        <v>-4.005447408472751E-05</v>
       </c>
       <c r="W122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -10280,7 +10280,7 @@
         <v>1.227648820774881</v>
       </c>
       <c r="K123">
-        <v>55.10962092974093</v>
+        <v>0.05109620929740932</v>
       </c>
       <c r="L123">
         <v>0.01127026012510742</v>
@@ -10310,13 +10310,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U123">
-        <v>1.000140360727069</v>
+        <v>0.0001403607270686891</v>
       </c>
       <c r="V123">
-        <v>0.9999799719607451</v>
+        <v>-2.00280392549379E-05</v>
       </c>
       <c r="W123">
-        <v>1.000300751879699</v>
+        <v>0.0003007518796993569</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -10351,7 +10351,7 @@
         <v>1.227648820774881</v>
       </c>
       <c r="K124">
-        <v>55.10962092974093</v>
+        <v>0.05109620929740932</v>
       </c>
       <c r="L124">
         <v>0.009522327100982702</v>
@@ -10381,13 +10381,13 @@
         <v>-0.05312500000002274</v>
       </c>
       <c r="U124">
-        <v>1.000130316669507</v>
+        <v>0.0001303166695070246</v>
       </c>
       <c r="V124">
-        <v>0.9999599431192292</v>
+        <v>-4.005688077080016E-05</v>
       </c>
       <c r="W124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -10422,7 +10422,7 @@
         <v>1.367454935729996</v>
       </c>
       <c r="K125">
-        <v>57.76054762826335</v>
+        <v>0.07760547628263348</v>
       </c>
       <c r="L125">
         <v>0.008154547521842241</v>
@@ -10452,13 +10452,13 @@
         <v>-0.05937499999998863</v>
       </c>
       <c r="U125">
-        <v>1.000130299689285</v>
+        <v>0.0001302996892853514</v>
       </c>
       <c r="V125">
-        <v>0.9999198830292227</v>
+        <v>-8.011697077725533E-05</v>
       </c>
       <c r="W125">
-        <v>1.000601322910403</v>
+        <v>0.000601322910402935</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -10493,7 +10493,7 @@
         <v>1.441037101495825</v>
       </c>
       <c r="K126">
-        <v>59.0338057792232</v>
+        <v>0.09033805779223203</v>
       </c>
       <c r="L126">
         <v>0.007183987436863075</v>
@@ -10523,13 +10523,13 @@
         <v>-0.06874999999999432</v>
       </c>
       <c r="U126">
-        <v>1.000130282713488</v>
+        <v>0.0001302827134883611</v>
       </c>
       <c r="V126">
-        <v>0.9999399074574846</v>
+        <v>-6.009254251537754E-05</v>
       </c>
       <c r="W126">
-        <v>1.000300480769231</v>
+        <v>0.0003004807692306155</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -10564,7 +10564,7 @@
         <v>1.518492012828321</v>
       </c>
       <c r="K127">
-        <v>60.29369976532193</v>
+        <v>0.1029369976532193</v>
       </c>
       <c r="L127">
         <v>0.006599191298352912</v>
@@ -10594,13 +10594,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U127">
-        <v>1.000140286183815</v>
+        <v>0.0001402861838148972</v>
       </c>
       <c r="V127">
-        <v>0.9999599358974358</v>
+        <v>-4.006410256418569E-05</v>
       </c>
       <c r="W127">
-        <v>1.00030039050766</v>
+        <v>0.0003003905076599533</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10635,7 +10635,7 @@
         <v>1.404020163099959</v>
       </c>
       <c r="K128">
-        <v>58.4030111165744</v>
+        <v>0.08403011116574399</v>
       </c>
       <c r="L128">
         <v>0.006151793477324341</v>
@@ -10665,13 +10665,13 @@
         <v>-0.03437499999998295</v>
       </c>
       <c r="U128">
-        <v>1.000150285542531</v>
+        <v>0.0001502855425308258</v>
       </c>
       <c r="V128">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W128">
-        <v>0.9996996996996996</v>
+        <v>-0.0003003003003003712</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10706,7 +10706,7 @@
         <v>1.300798112727134</v>
       </c>
       <c r="K129">
-        <v>56.53682109402025</v>
+        <v>0.06536821094020251</v>
       </c>
       <c r="L129">
         <v>0.005684249495541952</v>
@@ -10736,13 +10736,13 @@
         <v>-0.01250000000001705</v>
       </c>
       <c r="U129">
-        <v>1.000110192837465</v>
+        <v>0.0001101928374653838</v>
       </c>
       <c r="V129">
-        <v>0.9999599342922393</v>
+        <v>-4.006570776071694E-05</v>
       </c>
       <c r="W129">
-        <v>0.9996996094923402</v>
+        <v>-0.0003003905076598423</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10777,7 +10777,7 @@
         <v>1.300798112727134</v>
       </c>
       <c r="K130">
-        <v>56.53682109402025</v>
+        <v>0.06536821094020251</v>
       </c>
       <c r="L130">
         <v>0.005213602385780063</v>
@@ -10807,13 +10807,13 @@
         <v>0.01250000000001705</v>
       </c>
       <c r="U130">
-        <v>1.000110180696342</v>
+        <v>0.0001101806963421659</v>
       </c>
       <c r="V130">
-        <v>1.000040067313086</v>
+        <v>4.006731308581202E-05</v>
       </c>
       <c r="W130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10848,7 +10848,7 @@
         <v>1.300798112727134</v>
       </c>
       <c r="K131">
-        <v>56.53682109402025</v>
+        <v>0.06536821094020251</v>
       </c>
       <c r="L131">
         <v>0.004752087181698737</v>
@@ -10878,13 +10878,13 @@
         <v>0.01875000000003979</v>
       </c>
       <c r="U131">
-        <v>1.000040061293779</v>
+        <v>4.006129377942536E-05</v>
       </c>
       <c r="V131">
-        <v>1.00002003285388</v>
+        <v>2.003285388041398E-05</v>
       </c>
       <c r="W131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10919,7 +10919,7 @@
         <v>1.198065380220869</v>
       </c>
       <c r="K132">
-        <v>54.5054478816496</v>
+        <v>0.04505447881649605</v>
       </c>
       <c r="L132">
         <v>0.004198756915253707</v>
@@ -10949,13 +10949,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U132">
-        <v>1.000010014922234</v>
+        <v>1.001492223418055E-05</v>
       </c>
       <c r="V132">
-        <v>0.9999599350948537</v>
+        <v>-4.006490514629757E-05</v>
       </c>
       <c r="W132">
-        <v>0.9996995192307692</v>
+        <v>-0.0003004807692308376</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10990,7 +10990,7 @@
         <v>1.198065380220869</v>
       </c>
       <c r="K133">
-        <v>54.5054478816496</v>
+        <v>0.04505447881649605</v>
       </c>
       <c r="L133">
         <v>0.003609792354080777</v>
@@ -11020,13 +11020,13 @@
         <v>0.02499999999997726</v>
       </c>
       <c r="U133">
-        <v>0.9999899851780634</v>
+        <v>-1.00148219366325E-05</v>
       </c>
       <c r="V133">
-        <v>0.9998998337239821</v>
+        <v>-0.0001001662760179434</v>
       </c>
       <c r="W133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -11061,7 +11061,7 @@
         <v>1.285574180734709</v>
       </c>
       <c r="K134">
-        <v>56.24731813873812</v>
+        <v>0.06247318138738123</v>
       </c>
       <c r="L134">
         <v>0.003133085770620441</v>
@@ -11091,13 +11091,13 @@
         <v>0.03125</v>
       </c>
       <c r="U134">
-        <v>0.9999899850777659</v>
+        <v>-1.001492223406952E-05</v>
       </c>
       <c r="V134">
-        <v>0.9999799647379385</v>
+        <v>-2.003526206151296E-05</v>
       </c>
       <c r="W134">
-        <v>1.000300571085062</v>
+        <v>0.0003005710850616516</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -11132,7 +11132,7 @@
         <v>1.377688707591331</v>
       </c>
       <c r="K135">
-        <v>57.94234977828408</v>
+        <v>0.07942349778284075</v>
       </c>
       <c r="L135">
         <v>0.00285279661489703</v>
@@ -11162,13 +11162,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U135">
-        <v>0.9999799699549324</v>
+        <v>-2.003004506756501E-05</v>
       </c>
       <c r="V135">
-        <v>1.000040071326962</v>
+        <v>4.007132696215443E-05</v>
       </c>
       <c r="W135">
-        <v>1.000300480769231</v>
+        <v>0.0003004807692306155</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -11203,7 +11203,7 @@
         <v>1.474651367440462</v>
       </c>
       <c r="K136">
-        <v>59.5902674147469</v>
+        <v>0.095902674147469</v>
       </c>
       <c r="L136">
         <v>0.002808403104253235</v>
@@ -11233,13 +11233,13 @@
         <v>0.02187499999999432</v>
       </c>
       <c r="U136">
-        <v>1.000020030446278</v>
+        <v>2.003044627829631E-05</v>
       </c>
       <c r="V136">
-        <v>1.000100174303288</v>
+        <v>0.0001001743032877922</v>
       </c>
       <c r="W136">
-        <v>1.00030039050766</v>
+        <v>0.0003003905076599533</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -11274,7 +11274,7 @@
         <v>1.224659315555698</v>
       </c>
       <c r="K137">
-        <v>55.0492970762937</v>
+        <v>0.05049297076293702</v>
       </c>
       <c r="L137">
         <v>0.002680626868059667</v>
@@ -11304,13 +11304,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U137">
-        <v>1.000010015022534</v>
+        <v>1.001502253372699E-05</v>
       </c>
       <c r="V137">
-        <v>1.000060098561641</v>
+        <v>6.00985616410199E-05</v>
       </c>
       <c r="W137">
-        <v>0.9993993993993995</v>
+        <v>-0.0006006006006005205</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -11345,7 +11345,7 @@
         <v>1.124340775445352</v>
       </c>
       <c r="K138">
-        <v>52.92657319584908</v>
+        <v>0.0292657319584908</v>
       </c>
       <c r="L138">
         <v>0.002391285532319225</v>
@@ -11375,13 +11375,13 @@
         <v>0</v>
       </c>
       <c r="U138">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V138">
-        <v>1.000020031650007</v>
+        <v>2.00316500069686E-05</v>
       </c>
       <c r="W138">
-        <v>0.9996995192307692</v>
+        <v>-0.0003004807692308376</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -11416,7 +11416,7 @@
         <v>1.296794390802212</v>
       </c>
       <c r="K139">
-        <v>56.46105702780277</v>
+        <v>0.06461057027802763</v>
       </c>
       <c r="L139">
         <v>0.002232672660782066</v>
@@ -11446,13 +11446,13 @@
         <v>-0.003124999999982947</v>
       </c>
       <c r="U139">
-        <v>1.000010014922234</v>
+        <v>1.00149222339585E-05</v>
       </c>
       <c r="V139">
-        <v>1.000060093746244</v>
+        <v>6.009374624404984E-05</v>
       </c>
       <c r="W139">
-        <v>1.000601142170123</v>
+        <v>0.0006011421701233033</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -11487,7 +11487,7 @@
         <v>1.019255915611167</v>
       </c>
       <c r="K140">
-        <v>50.47680721057437</v>
+        <v>0.004768072105743704</v>
       </c>
       <c r="L140">
         <v>0.001826937045081174</v>
@@ -11517,13 +11517,13 @@
         <v>-0.009375000000005684</v>
       </c>
       <c r="U140">
-        <v>0.9999399110683812</v>
+        <v>-6.00889316187958E-05</v>
       </c>
       <c r="V140">
-        <v>0.9999599399098649</v>
+        <v>-4.006009013513001E-05</v>
       </c>
       <c r="W140">
-        <v>0.9990988284770203</v>
+        <v>-0.000901171522979749</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -11558,7 +11558,7 @@
         <v>1.019255915611167</v>
       </c>
       <c r="K141">
-        <v>50.47680721057437</v>
+        <v>0.004768072105743704</v>
       </c>
       <c r="L141">
         <v>0.001290706833886551</v>
@@ -11588,13 +11588,13 @@
         <v>-0.009374999999977263</v>
       </c>
       <c r="U141">
-        <v>0.9999399074574846</v>
+        <v>-6.009254251537754E-05</v>
       </c>
       <c r="V141">
-        <v>0.9999399074574846</v>
+        <v>-6.009254251537754E-05</v>
       </c>
       <c r="W141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11629,7 +11629,7 @@
         <v>1.177349266594461</v>
       </c>
       <c r="K142">
-        <v>54.07259573177824</v>
+        <v>0.04072595731778239</v>
       </c>
       <c r="L142">
         <v>0.0009237517179131211</v>
@@ -11659,13 +11659,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U142">
-        <v>0.9999599358974359</v>
+        <v>-4.006410256407467E-05</v>
       </c>
       <c r="V142">
-        <v>0.9999599358974359</v>
+        <v>-4.006410256407467E-05</v>
       </c>
       <c r="W142">
-        <v>1.000601322910403</v>
+        <v>0.000601322910402935</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11700,7 +11700,7 @@
         <v>1.177349266594461</v>
       </c>
       <c r="K143">
-        <v>54.07259573177823</v>
+        <v>0.04072595731778228</v>
       </c>
       <c r="L143">
         <v>0.0006793627703888724</v>
@@ -11730,13 +11730,13 @@
         <v>-0.006250000000022737</v>
       </c>
       <c r="U143">
-        <v>0.9999899835730598</v>
+        <v>-1.001642694020699E-05</v>
       </c>
       <c r="V143">
-        <v>0.9999799671461195</v>
+        <v>-2.0032853880525E-05</v>
       </c>
       <c r="W143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11771,7 +11771,7 @@
         <v>1.177349266594461</v>
       </c>
       <c r="K144">
-        <v>54.07259573177822</v>
+        <v>0.04072595731778217</v>
       </c>
       <c r="L144">
         <v>0.0005223245512000365</v>
@@ -11801,13 +11801,13 @@
         <v>-0.015625</v>
       </c>
       <c r="U144">
-        <v>0.9999799669454599</v>
+        <v>-2.003305454012505E-05</v>
       </c>
       <c r="V144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11842,7 +11842,7 @@
         <v>1.077965038470968</v>
       </c>
       <c r="K145">
-        <v>51.87599495245448</v>
+        <v>0.01875994952454474</v>
       </c>
       <c r="L145">
         <v>0.0003168847582181354</v>
@@ -11872,13 +11872,13 @@
         <v>-0.01874999999998295</v>
       </c>
       <c r="U145">
-        <v>1.000010016727936</v>
+        <v>1.00167279357688E-05</v>
       </c>
       <c r="V145">
-        <v>0.9999799667447965</v>
+        <v>-2.003325520349986E-05</v>
       </c>
       <c r="W145">
-        <v>0.9996995192307692</v>
+        <v>-0.0003004807692308376</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11913,7 +11913,7 @@
         <v>1.077965038470968</v>
       </c>
       <c r="K146">
-        <v>51.87599495245448</v>
+        <v>0.01875994952454474</v>
       </c>
       <c r="L146">
         <v>9.406005482979587E-05</v>
@@ -11943,13 +11943,13 @@
         <v>-0.01562500000002842</v>
       </c>
       <c r="U146">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="V146">
-        <v>0.9999799663434569</v>
+        <v>-2.003365654312805E-05</v>
       </c>
       <c r="W146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11984,7 +11984,7 @@
         <v>1.077965038470968</v>
       </c>
       <c r="K147">
-        <v>51.87599495245446</v>
+        <v>0.01875994952454463</v>
       </c>
       <c r="L147">
         <v>-0.0001254406494890953</v>
@@ -12014,13 +12014,13 @@
         <v>-0.02499999999997726</v>
       </c>
       <c r="U147">
-        <v>0.9999799667447965</v>
+        <v>-2.003325520349986E-05</v>
       </c>
       <c r="V147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -12055,7 +12055,7 @@
         <v>1.077965038470968</v>
       </c>
       <c r="K148">
-        <v>51.87599495245448</v>
+        <v>0.01875994952454474</v>
       </c>
       <c r="L148">
         <v>-0.0003284845283662014</v>
@@ -12085,13 +12085,13 @@
         <v>-0.01875000000003979</v>
       </c>
       <c r="U148">
-        <v>0.9999499158586422</v>
+        <v>-5.008414135776462E-05</v>
       </c>
       <c r="V148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -12126,7 +12126,7 @@
         <v>0.9767381513394672</v>
       </c>
       <c r="K149">
-        <v>49.41161026702575</v>
+        <v>-0.005883897329742482</v>
       </c>
       <c r="L149">
         <v>-0.000616849726372841</v>
@@ -12156,13 +12156,13 @@
         <v>-0.01562499999997158</v>
       </c>
       <c r="U149">
-        <v>0.9999699480100576</v>
+        <v>-3.005198994243674E-05</v>
       </c>
       <c r="V149">
-        <v>0.9999599318842032</v>
+        <v>-4.006811579682079E-05</v>
       </c>
       <c r="W149">
-        <v>0.9996994289149385</v>
+        <v>-0.0003005710850615406</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -12197,7 +12197,7 @@
         <v>1.075586086319158</v>
       </c>
       <c r="K150">
-        <v>51.82083717985417</v>
+        <v>0.01820837179854162</v>
       </c>
       <c r="L150">
         <v>-0.0008268614924594222</v>
@@ -12227,13 +12227,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U150">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V150">
-        <v>0.9999599302786848</v>
+        <v>-4.00697213152057E-05</v>
       </c>
       <c r="W150">
-        <v>1.000300661455201</v>
+        <v>0.0003006614552012454</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -12268,7 +12268,7 @@
         <v>1.179636544192577</v>
       </c>
       <c r="K151">
-        <v>54.12079125465207</v>
+        <v>0.04120791254652068</v>
       </c>
       <c r="L151">
         <v>-0.0008635866464044794</v>
@@ -12298,13 +12298,13 @@
         <v>-0.015625</v>
       </c>
       <c r="U151">
-        <v>1.000030052893092</v>
+        <v>3.005289309188086E-05</v>
       </c>
       <c r="V151">
-        <v>0.9999599286730381</v>
+        <v>-4.007132696193239E-05</v>
       </c>
       <c r="W151">
-        <v>1.000300571085062</v>
+        <v>0.0003005710850616516</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -12339,7 +12339,7 @@
         <v>1.179636544192577</v>
       </c>
       <c r="K152">
-        <v>54.12079125465207</v>
+        <v>0.04120791254652068</v>
       </c>
       <c r="L152">
         <v>-0.000789842924437769</v>
@@ -12369,13 +12369,13 @@
         <v>-0.009375000000005684</v>
       </c>
       <c r="U152">
-        <v>1.000030051989943</v>
+        <v>3.005198994254776E-05</v>
       </c>
       <c r="V152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -12410,7 +12410,7 @@
         <v>1.057693603739521</v>
       </c>
       <c r="K153">
-        <v>51.40189976862134</v>
+        <v>0.0140189976862134</v>
       </c>
       <c r="L153">
         <v>-0.0007604230845455371</v>
@@ -12440,13 +12440,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U153">
-        <v>1.000010017028949</v>
+        <v>1.00170289492052E-05</v>
       </c>
       <c r="V153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W153">
-        <v>0.9996995192307692</v>
+        <v>-0.0003004807692308376</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -12481,7 +12481,7 @@
         <v>0.9538963147566522</v>
       </c>
       <c r="K154">
-        <v>48.82021157174121</v>
+        <v>-0.01179788428258788</v>
       </c>
       <c r="L154">
         <v>-0.0008663915367062624</v>
@@ -12511,13 +12511,13 @@
         <v>-0.009374999999977263</v>
       </c>
       <c r="U154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V154">
-        <v>0.9999398906008938</v>
+        <v>-6.010939910616742E-05</v>
       </c>
       <c r="W154">
-        <v>0.9996994289149385</v>
+        <v>-0.0003005710850615406</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -12552,7 +12552,7 @@
         <v>1.057196839413508</v>
       </c>
       <c r="K155">
-        <v>51.39016447813071</v>
+        <v>0.01390164478130707</v>
       </c>
       <c r="L155">
         <v>-0.0009350484384685339</v>
@@ -12582,13 +12582,13 @@
         <v>-0.003125000000011369</v>
       </c>
       <c r="U155">
-        <v>0.9999899830713905</v>
+        <v>-1.001692860946868E-05</v>
       </c>
       <c r="V155">
-        <v>1.000020037670821</v>
+        <v>2.003767082103813E-05</v>
       </c>
       <c r="W155">
-        <v>1.000300661455201</v>
+        <v>0.0003006614552012454</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -12623,7 +12623,7 @@
         <v>0.9535141908051601</v>
       </c>
       <c r="K156">
-        <v>48.81020037085883</v>
+        <v>-0.01189799629141169</v>
       </c>
       <c r="L156">
         <v>-0.001082752553422239</v>
@@ -12653,13 +12653,13 @@
         <v>-0.009375000000005684</v>
       </c>
       <c r="U156">
-        <v>0.9999699489131522</v>
+        <v>-3.005108684783764E-05</v>
       </c>
       <c r="V156">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W156">
-        <v>0.9996994289149385</v>
+        <v>-0.0003005710850615406</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12694,7 +12694,7 @@
         <v>0.9535141908051601</v>
       </c>
       <c r="K157">
-        <v>48.81020037085883</v>
+        <v>-0.01189799629141169</v>
       </c>
       <c r="L157">
         <v>-0.001264995061912661</v>
@@ -12724,13 +12724,13 @@
         <v>-0.009375000000005684</v>
       </c>
       <c r="U157">
-        <v>0.9999599306800766</v>
+        <v>-4.006931992339702E-05</v>
       </c>
       <c r="V157">
-        <v>0.999959925461358</v>
+        <v>-4.007453864196542E-05</v>
       </c>
       <c r="W157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12765,7 +12765,7 @@
         <v>0.860053597634595</v>
       </c>
       <c r="K158">
-        <v>46.23810833883032</v>
+        <v>-0.03761891661169686</v>
       </c>
       <c r="L158">
         <v>-0.001561380580387873</v>
@@ -12795,13 +12795,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U158">
-        <v>0.9999599290744619</v>
+        <v>-4.007092553814928E-05</v>
       </c>
       <c r="V158">
-        <v>0.9999398857829878</v>
+        <v>-6.011421701224151E-05</v>
       </c>
       <c r="W158">
-        <v>0.9996993385447985</v>
+        <v>-0.0003006614552014675</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12836,7 +12836,7 @@
         <v>0.7129377737691623</v>
       </c>
       <c r="K159">
-        <v>41.62076315244121</v>
+        <v>-0.08379236847558791</v>
       </c>
       <c r="L159">
         <v>-0.002121225879312776</v>
@@ -12866,13 +12866,13 @@
         <v>-0.02812500000001705</v>
       </c>
       <c r="U159">
-        <v>0.9999499093358982</v>
+        <v>-5.009066410177621E-05</v>
       </c>
       <c r="V159">
-        <v>0.9998998036150855</v>
+        <v>-0.0001001963849145415</v>
       </c>
       <c r="W159">
-        <v>0.9993984962406015</v>
+        <v>-0.0006015037593984918</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12907,7 +12907,7 @@
         <v>0.6540542188026721</v>
       </c>
       <c r="K160">
-        <v>39.54248968187544</v>
+        <v>-0.1045751031812456</v>
       </c>
       <c r="L160">
         <v>-0.002906748893599513</v>
@@ -12937,13 +12937,13 @@
         <v>-0.04687499999997158</v>
       </c>
       <c r="U160">
-        <v>0.9999398881920371</v>
+        <v>-6.011180796294813E-05</v>
       </c>
       <c r="V160">
-        <v>0.9998997935747641</v>
+        <v>-0.0001002064252358936</v>
       </c>
       <c r="W160">
-        <v>0.9996990671080348</v>
+        <v>-0.0003009328919651999</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12978,7 +12978,7 @@
         <v>0.8279338804474827</v>
       </c>
       <c r="K161">
-        <v>45.29342605350706</v>
+        <v>-0.04706573946492937</v>
       </c>
       <c r="L161">
         <v>-0.003549519183722028</v>
@@ -13008,13 +13008,13 @@
         <v>-0.05625000000003411</v>
       </c>
       <c r="U161">
-        <v>0.9999599230522603</v>
+        <v>-4.007694773966453E-05</v>
       </c>
       <c r="V161">
-        <v>0.9999398701194581</v>
+        <v>-6.012988054193702E-05</v>
       </c>
       <c r="W161">
-        <v>1.000602046959663</v>
+        <v>0.0006020469596628164</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -13049,7 +13049,7 @@
         <v>1.010965103231546</v>
       </c>
       <c r="K162">
-        <v>50.27263285707756</v>
+        <v>0.002726328570775594</v>
       </c>
       <c r="L162">
         <v>-0.003833059554825799</v>
@@ -13079,13 +13079,13 @@
         <v>-0.05312499999999432</v>
       </c>
       <c r="U162">
-        <v>0.9999899803615084</v>
+        <v>-1.001963849156517E-05</v>
       </c>
       <c r="V162">
-        <v>0.9999799555012127</v>
+        <v>-2.00444987873416E-05</v>
       </c>
       <c r="W162">
-        <v>1.000601684717208</v>
+        <v>0.0006016847172083395</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -13120,7 +13120,7 @@
         <v>1.010965103231545</v>
       </c>
       <c r="K163">
-        <v>50.27263285707756</v>
+        <v>0.002726328570775594</v>
       </c>
       <c r="L163">
         <v>-0.003866934800078488</v>
@@ -13150,13 +13150,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U163">
-        <v>0.9999899802611146</v>
+        <v>-1.001973888536956E-05</v>
       </c>
       <c r="V163">
-        <v>0.9999799550994225</v>
+        <v>-2.00449005774983E-05</v>
       </c>
       <c r="W163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -13191,7 +13191,7 @@
         <v>1.010965103231545</v>
       </c>
       <c r="K164">
-        <v>50.27263285707756</v>
+        <v>0.002726328570775594</v>
       </c>
       <c r="L164">
         <v>-0.003733304500402439</v>
@@ -13221,13 +13221,13 @@
         <v>-0.05312499999999432</v>
       </c>
       <c r="U164">
-        <v>0.9999799603214364</v>
+        <v>-2.003967856356592E-05</v>
       </c>
       <c r="V164">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -13262,7 +13262,7 @@
         <v>1.010965103231546</v>
       </c>
       <c r="K165">
-        <v>50.27263285707756</v>
+        <v>0.002726328570775594</v>
       </c>
       <c r="L165">
         <v>-0.00349310416225602</v>
@@ -13292,13 +13292,13 @@
         <v>-0.05312500000002274</v>
       </c>
       <c r="U165">
-        <v>0.9999699398797596</v>
+        <v>-3.006012024042715E-05</v>
       </c>
       <c r="V165">
-        <v>0.9999799546976166</v>
+        <v>-2.004530238342017E-05</v>
       </c>
       <c r="W165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -13333,7 +13333,7 @@
         <v>0.9088493668892735</v>
       </c>
       <c r="K166">
-        <v>47.6124194320459</v>
+        <v>-0.02387580567954101</v>
       </c>
       <c r="L166">
         <v>-0.0033003787756559</v>
@@ -13363,13 +13363,13 @@
         <v>-0.04687500000002842</v>
       </c>
       <c r="U166">
-        <v>0.999949898293536</v>
+        <v>-5.010170646402301E-05</v>
       </c>
       <c r="V166">
-        <v>0.9999398628873831</v>
+        <v>-6.013711261687593E-05</v>
       </c>
       <c r="W166">
-        <v>0.9996993385447985</v>
+        <v>-0.0003006614552014675</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -13404,7 +13404,7 @@
         <v>1.015173757748806</v>
       </c>
       <c r="K167">
-        <v>50.37648757806765</v>
+        <v>0.003764875780676524</v>
       </c>
       <c r="L167">
         <v>-0.003027218629168299</v>
@@ -13434,13 +13434,13 @@
         <v>-0.02187499999999432</v>
       </c>
       <c r="U167">
-        <v>0.9999799583132915</v>
+        <v>-2.004168670854956E-05</v>
       </c>
       <c r="V167">
-        <v>0.9999599061804623</v>
+        <v>-4.009381953773428E-05</v>
       </c>
       <c r="W167">
-        <v>1.000300751879699</v>
+        <v>0.0003007518796993569</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -13475,7 +13475,7 @@
         <v>1.015173757748806</v>
       </c>
       <c r="K168">
-        <v>50.37648757806765</v>
+        <v>0.003764875780676524</v>
       </c>
       <c r="L168">
         <v>-0.002711704449456146</v>
@@ -13505,13 +13505,13 @@
         <v>0.009375000000005684</v>
       </c>
       <c r="U168">
-        <v>0.9999899789558072</v>
+        <v>-1.002104419278727E-05</v>
       </c>
       <c r="V168">
-        <v>0.9999799522864418</v>
+        <v>-2.004771355823554E-05</v>
       </c>
       <c r="W168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -13546,7 +13546,7 @@
         <v>1.250795676551029</v>
       </c>
       <c r="K169">
-        <v>55.57126706710516</v>
+        <v>0.05571267067105157</v>
       </c>
       <c r="L169">
         <v>-0.002161815089642826</v>
@@ -13576,13 +13576,13 @@
         <v>0.03125000000002842</v>
       </c>
       <c r="U169">
-        <v>0.999989978855385</v>
+        <v>-1.002114461501336E-05</v>
       </c>
       <c r="V169">
-        <v>1.000040096230954</v>
+        <v>4.009623095435622E-05</v>
       </c>
       <c r="W169">
-        <v>1.000601322910403</v>
+        <v>0.000601322910402935</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -13617,7 +13617,7 @@
         <v>1.250795676551028</v>
       </c>
       <c r="K170">
-        <v>55.57126706710516</v>
+        <v>0.05571267067105157</v>
       </c>
       <c r="L170">
         <v>-0.001497083654182036</v>
@@ -13647,13 +13647,13 @@
         <v>0.03749999999999432</v>
       </c>
       <c r="U170">
-        <v>1.000020042490079</v>
+        <v>2.004249007869774E-05</v>
       </c>
       <c r="V170">
-        <v>1.000020047311655</v>
+        <v>2.00473116553912E-05</v>
       </c>
       <c r="W170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13688,7 +13688,7 @@
         <v>1.106371628851129</v>
       </c>
       <c r="K171">
-        <v>52.52499671459085</v>
+        <v>0.02524996714590844</v>
       </c>
       <c r="L171">
         <v>-0.0009091518386084047</v>
@@ -13718,13 +13718,13 @@
         <v>0.04374999999998863</v>
       </c>
       <c r="U171">
-        <v>1.000010021044193</v>
+        <v>1.002104419289829E-05</v>
       </c>
       <c r="V171">
-        <v>1.000020046909769</v>
+        <v>2.004690976886714E-05</v>
       </c>
       <c r="W171">
-        <v>0.9996995192307692</v>
+        <v>-0.0003004807692308376</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -13759,7 +13759,7 @@
         <v>1.106371628851129</v>
       </c>
       <c r="K172">
-        <v>52.52499671459085</v>
+        <v>0.02524996714590844</v>
       </c>
       <c r="L172">
         <v>-0.0004019050834688095</v>
@@ -13789,13 +13789,13 @@
         <v>0.04687500000002842</v>
       </c>
       <c r="U172">
-        <v>0.9999899790562276</v>
+        <v>-1.002094377244855E-05</v>
       </c>
       <c r="V172">
-        <v>1.000020046507898</v>
+        <v>2.004650789833029E-05</v>
       </c>
       <c r="W172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -13830,7 +13830,7 @@
         <v>0.7995056601581185</v>
       </c>
       <c r="K173">
-        <v>44.42918285057618</v>
+        <v>-0.05570817149423818</v>
       </c>
       <c r="L173">
         <v>-0.000302832118021597</v>
@@ -13860,13 +13860,13 @@
         <v>0.04062500000000568</v>
       </c>
       <c r="U173">
-        <v>0.9999599158232286</v>
+        <v>-4.008417677137111E-05</v>
       </c>
       <c r="V173">
-        <v>0.9999799538939563</v>
+        <v>-2.004610604366963E-05</v>
       </c>
       <c r="W173">
-        <v>0.9990982867448152</v>
+        <v>-0.0009017132551848439</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -13901,7 +13901,7 @@
         <v>0.896825825380246</v>
       </c>
       <c r="K174">
-        <v>47.28034663912615</v>
+        <v>-0.02719653360873847</v>
       </c>
       <c r="L174">
         <v>-0.0003467805889226951</v>
@@ -13931,13 +13931,13 @@
         <v>0.04062500000000568</v>
       </c>
       <c r="U174">
-        <v>0.9999699356623174</v>
+        <v>-3.006433768260042E-05</v>
       </c>
       <c r="V174">
-        <v>1.000040093015797</v>
+        <v>4.009301579666058E-05</v>
       </c>
       <c r="W174">
-        <v>1.000300842358604</v>
+        <v>0.0003008423586041697</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -13972,7 +13972,7 @@
         <v>0.999268104561433</v>
       </c>
       <c r="K175">
-        <v>49.98169591569793</v>
+        <v>-0.000183040843020732</v>
       </c>
       <c r="L175">
         <v>-0.0003638363245399578</v>
@@ -14002,13 +14002,13 @@
         <v>0.03125</v>
       </c>
       <c r="U175">
-        <v>0.9999899782528086</v>
+        <v>-1.002174719144655E-05</v>
       </c>
       <c r="V175">
-        <v>1.000080182816822</v>
+        <v>8.018281682220518E-05</v>
       </c>
       <c r="W175">
-        <v>1.000300751879699</v>
+        <v>0.0003007518796993569</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -14043,7 +14043,7 @@
         <v>0.999268104561433</v>
       </c>
       <c r="K176">
-        <v>49.98169591569793</v>
+        <v>-0.000183040843020732</v>
       </c>
       <c r="L176">
         <v>-0.0003621879702092263</v>
@@ -14073,13 +14073,13 @@
         <v>0.01874999999998295</v>
       </c>
       <c r="U176">
-        <v>0.9999899781523723</v>
+        <v>-1.002184762766145E-05</v>
       </c>
       <c r="V176">
-        <v>1.000040088194027</v>
+        <v>4.008819402678832E-05</v>
       </c>
       <c r="W176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -14114,7 +14114,7 @@
         <v>0.8974042420640314</v>
       </c>
       <c r="K177">
-        <v>47.29641803097365</v>
+        <v>-0.02703581969026353</v>
       </c>
       <c r="L177">
         <v>-0.0004574720507162427</v>
@@ -14144,13 +14144,13 @@
         <v>-0.003124999999982947</v>
       </c>
       <c r="U177">
-        <v>0.9999799561038674</v>
+        <v>-2.004389613263768E-05</v>
       </c>
       <c r="V177">
-        <v>0.999979956706486</v>
+        <v>-2.004329351401601E-05</v>
       </c>
       <c r="W177">
-        <v>0.9996993385447985</v>
+        <v>-0.0003006614552014675</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -14185,7 +14185,7 @@
         <v>0.8974042420640314</v>
       </c>
       <c r="K178">
-        <v>47.29641803097365</v>
+        <v>-0.02703581969026353</v>
       </c>
       <c r="L178">
         <v>-0.0006037442589699862</v>
@@ -14215,13 +14215,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U178">
-        <v>0.9999799557021019</v>
+        <v>-2.004429789814743E-05</v>
       </c>
       <c r="V178">
-        <v>0.9999799563047443</v>
+        <v>-2.004369525565597E-05</v>
       </c>
       <c r="W178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -14256,7 +14256,7 @@
         <v>0.8063284631246505</v>
       </c>
       <c r="K179">
-        <v>44.63908306741926</v>
+        <v>-0.05360916932580745</v>
       </c>
       <c r="L179">
         <v>-0.000878867902386901</v>
@@ -14286,13 +14286,13 @@
         <v>-0.03124999999997158</v>
       </c>
       <c r="U179">
-        <v>0.9999799553003196</v>
+        <v>-2.004469968042155E-05</v>
       </c>
       <c r="V179">
-        <v>0.999959911805973</v>
+        <v>-4.008819402701036E-05</v>
       </c>
       <c r="W179">
-        <v>0.9996992481203006</v>
+        <v>-0.0003007518796993569</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -14327,7 +14327,7 @@
         <v>1.12681694477581</v>
       </c>
       <c r="K180">
-        <v>52.98137893548657</v>
+        <v>0.02981378935486578</v>
       </c>
       <c r="L180">
         <v>-0.0008828872000080084</v>
@@ -14357,13 +14357,13 @@
         <v>-0.03437500000001137</v>
       </c>
       <c r="U180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V180">
-        <v>1.000020044900577</v>
+        <v>2.004490057738728E-05</v>
       </c>
       <c r="W180">
-        <v>1.000902527075812</v>
+        <v>0.0009025270758122872</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -14398,7 +14398,7 @@
         <v>1.012912777067936</v>
       </c>
       <c r="K181">
-        <v>50.3207485494415</v>
+        <v>0.003207485494415074</v>
       </c>
       <c r="L181">
         <v>-0.0008286694268710049</v>
@@ -14428,13 +14428,13 @@
         <v>-0.02187500000002274</v>
       </c>
       <c r="U181">
-        <v>0.9999799548985219</v>
+        <v>-2.004510147812777E-05</v>
       </c>
       <c r="V181">
-        <v>1.000020044498787</v>
+        <v>2.004449878723058E-05</v>
       </c>
       <c r="W181">
-        <v>0.9996994289149385</v>
+        <v>-0.0003005710850615406</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -14469,7 +14469,7 @@
         <v>1.225723073290299</v>
       </c>
       <c r="K182">
-        <v>55.0707807273753</v>
+        <v>0.05070780727375301</v>
       </c>
       <c r="L182">
         <v>-0.0005206428438255883</v>
@@ -14499,13 +14499,13 @@
         <v>-0.01250000000001705</v>
       </c>
       <c r="U182">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="V182">
-        <v>1.000040088194027</v>
+        <v>4.008819402678832E-05</v>
       </c>
       <c r="W182">
-        <v>1.000601322910403</v>
+        <v>0.000601322910402935</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -14540,7 +14540,7 @@
         <v>1.225723073290299</v>
       </c>
       <c r="K183">
-        <v>55.0707807273753</v>
+        <v>0.05070780727375301</v>
       </c>
       <c r="L183">
         <v>-7.657968213213942E-05</v>
@@ -14570,13 +14570,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U183">
-        <v>1.000010022751646</v>
+        <v>1.002275164618815E-05</v>
       </c>
       <c r="V183">
-        <v>1.000040086587028</v>
+        <v>4.008658702803203E-05</v>
       </c>
       <c r="W183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -14611,7 +14611,7 @@
         <v>0.9918451191487484</v>
       </c>
       <c r="K184">
-        <v>49.79529329934205</v>
+        <v>-0.002047067006579528</v>
       </c>
       <c r="L184">
         <v>0.0002029142444884234</v>
@@ -14641,13 +14641,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V184">
-        <v>0.999959915019842</v>
+        <v>-4.008498015795059E-05</v>
       </c>
       <c r="W184">
-        <v>0.9993990384615385</v>
+        <v>-0.0006009615384614531</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -14682,7 +14682,7 @@
         <v>0.9013288592870317</v>
       </c>
       <c r="K185">
-        <v>47.40520583193671</v>
+        <v>-0.02594794168063286</v>
       </c>
       <c r="L185">
         <v>0.0002546740028746618</v>
@@ -14712,13 +14712,13 @@
         <v>0.003124999999982947</v>
       </c>
       <c r="U185">
-        <v>0.9999799546976166</v>
+        <v>-2.004530238342017E-05</v>
       </c>
       <c r="V185">
-        <v>0.9999398701194577</v>
+        <v>-6.012988054227009E-05</v>
       </c>
       <c r="W185">
-        <v>0.9996993385447985</v>
+        <v>-0.0003006614552014675</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -14753,7 +14753,7 @@
         <v>0.997392520537312</v>
       </c>
       <c r="K186">
-        <v>49.93472791562305</v>
+        <v>-0.0006527208437694942</v>
       </c>
       <c r="L186">
         <v>0.0002737232336734327</v>
@@ -14783,13 +14783,13 @@
         <v>0.015625</v>
       </c>
       <c r="U186">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V186">
-        <v>0.9999799555012129</v>
+        <v>-2.004449878711956E-05</v>
       </c>
       <c r="W186">
-        <v>1.000300751879699</v>
+        <v>0.0003007518796993569</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -14824,7 +14824,7 @@
         <v>0.9057984992786619</v>
       </c>
       <c r="K187">
-        <v>47.52855559606661</v>
+        <v>-0.02471444403933387</v>
       </c>
       <c r="L187">
         <v>0.0001612634569540436</v>
@@ -14854,13 +14854,13 @@
         <v>0.02812499999998863</v>
       </c>
       <c r="U187">
-        <v>0.9999899771478971</v>
+        <v>-1.002285210294218E-05</v>
       </c>
       <c r="V187">
-        <v>0.9999599101988454</v>
+        <v>-4.008980115455252E-05</v>
       </c>
       <c r="W187">
-        <v>0.9996993385447985</v>
+        <v>-0.0003006614552014675</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -14895,7 +14895,7 @@
         <v>0.7590488318224473</v>
       </c>
       <c r="K188">
-        <v>43.15109496056692</v>
+        <v>-0.06848905039433084</v>
       </c>
       <c r="L188">
         <v>-0.0002432508545878769</v>
@@ -14925,13 +14925,13 @@
         <v>0.015625</v>
       </c>
       <c r="U188">
-        <v>0.9999799540948773</v>
+        <v>-2.004590512272308E-05</v>
       </c>
       <c r="V188">
-        <v>0.9999799542957942</v>
+        <v>-2.004570420577334E-05</v>
       </c>
       <c r="W188">
-        <v>0.9993984962406015</v>
+        <v>-0.0006015037593984918</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -14966,7 +14966,7 @@
         <v>0.7590488318224472</v>
       </c>
       <c r="K189">
-        <v>43.15109496056692</v>
+        <v>-0.06848905039433084</v>
       </c>
       <c r="L189">
         <v>-0.0007980388110132558</v>
@@ -14996,13 +14996,13 @@
         <v>2.842170943040401E-14</v>
       </c>
       <c r="U189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V189">
-        <v>0.9999599077879122</v>
+        <v>-4.009221208778335E-05</v>
       </c>
       <c r="W189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -15037,7 +15037,7 @@
         <v>0.6965303573641847</v>
       </c>
       <c r="K190">
-        <v>41.05616821654458</v>
+        <v>-0.08943831783455414</v>
       </c>
       <c r="L190">
         <v>-0.001515100088252575</v>
@@ -15067,13 +15067,13 @@
         <v>-0.02812499999998863</v>
       </c>
       <c r="U190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V190">
-        <v>0.9999198123609246</v>
+        <v>-8.018763907535753E-05</v>
       </c>
       <c r="W190">
-        <v>0.9996990671080348</v>
+        <v>-0.0003009328919651999</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -15108,7 +15108,7 @@
         <v>0.5527590644303637</v>
       </c>
       <c r="K191">
-        <v>35.59850830000762</v>
+        <v>-0.1440149169999237</v>
       </c>
       <c r="L191">
         <v>-0.00260773540662931</v>
@@ -15138,13 +15138,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U191">
-        <v>0.9999498842325775</v>
+        <v>-5.011576742253165E-05</v>
       </c>
       <c r="V191">
-        <v>0.9998596603781148</v>
+        <v>-0.0001403396218851993</v>
       </c>
       <c r="W191">
-        <v>0.9990969295605057</v>
+        <v>-0.0009030704394943356</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -15179,7 +15179,7 @@
         <v>0.4285953457949676</v>
       </c>
       <c r="K192">
-        <v>30.00117192433299</v>
+        <v>-0.1999882807566701</v>
       </c>
       <c r="L192">
         <v>-0.004286791976658435</v>
@@ -15209,13 +15209,13 @@
         <v>-0.09687499999998295</v>
       </c>
       <c r="U192">
-        <v>0.9998897397858947</v>
+        <v>-0.0001102602141053177</v>
       </c>
       <c r="V192">
-        <v>0.999799486685916</v>
+        <v>-0.0002005133140839943</v>
       </c>
       <c r="W192">
-        <v>0.9987948177161796</v>
+        <v>-0.001205182283820383</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -15250,7 +15250,7 @@
         <v>0.4285953457949676</v>
       </c>
       <c r="K193">
-        <v>30.00117192433299</v>
+        <v>-0.1999882807566701</v>
       </c>
       <c r="L193">
         <v>-0.006198670784287395</v>
@@ -15280,13 +15280,13 @@
         <v>-0.1281249999999829</v>
       </c>
       <c r="U193">
-        <v>0.9998897276272392</v>
+        <v>-0.0001102723727608446</v>
       </c>
       <c r="V193">
-        <v>0.9997994464722635</v>
+        <v>-0.0002005535277365134</v>
       </c>
       <c r="W193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -15321,7 +15321,7 @@
         <v>0.4285953457949677</v>
       </c>
       <c r="K194">
-        <v>30.00117192433299</v>
+        <v>-0.1999882807566701</v>
       </c>
       <c r="L194">
         <v>-0.008107413584515876</v>
@@ -15351,13 +15351,13 @@
         <v>-0.1656249999999773</v>
       </c>
       <c r="U194">
-        <v>0.999889715465902</v>
+        <v>-0.0001102845340980041</v>
       </c>
       <c r="V194">
-        <v>0.9998194656182301</v>
+        <v>-0.0001805343817699034</v>
       </c>
       <c r="W194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -15392,7 +15392,7 @@
         <v>0.4940933445600418</v>
       </c>
       <c r="K195">
-        <v>33.0697774914147</v>
+        <v>-0.169302225085853</v>
       </c>
       <c r="L195">
         <v>-0.009753842626611615</v>
@@ -15422,13 +15422,13 @@
         <v>-0.1968750000000057</v>
       </c>
       <c r="U195">
-        <v>0.9998997302744381</v>
+        <v>-0.0001002697255618745</v>
       </c>
       <c r="V195">
-        <v>0.9997793070240554</v>
+        <v>-0.0002206929759446252</v>
       </c>
       <c r="W195">
-        <v>1.000301659125189</v>
+        <v>0.0003016591251885359</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -15463,7 +15463,7 @@
         <v>0.4342187005358905</v>
       </c>
       <c r="K196">
-        <v>30.27562674881079</v>
+        <v>-0.1972437325118921</v>
       </c>
       <c r="L196">
         <v>-0.01132016675431456</v>
@@ -15493,13 +15493,13 @@
         <v>-0.2124999999999773</v>
       </c>
       <c r="U196">
-        <v>0.9998896922413535</v>
+        <v>-0.0001103077586465107</v>
       </c>
       <c r="V196">
-        <v>0.9997591908813614</v>
+        <v>-0.0002408091186385519</v>
       </c>
       <c r="W196">
-        <v>0.9993968636911941</v>
+        <v>-0.0006031363088059294</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -15534,7 +15534,7 @@
         <v>0.3850962900567549</v>
       </c>
       <c r="K197">
-        <v>27.80285333382673</v>
+        <v>-0.2219714666617327</v>
       </c>
       <c r="L197">
         <v>-0.012916261622555</v>
@@ -15564,13 +15564,13 @@
         <v>-0.2375000000000114</v>
       </c>
       <c r="U197">
-        <v>0.9998595928191756</v>
+        <v>-0.0001404071808244201</v>
       </c>
       <c r="V197">
-        <v>0.9996788438378161</v>
+        <v>-0.0003211561621838666</v>
       </c>
       <c r="W197">
-        <v>0.9993964996982498</v>
+        <v>-0.0006035003017501595</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -15605,7 +15605,7 @@
         <v>0.3634557032155614</v>
       </c>
       <c r="K198">
-        <v>26.65694986337957</v>
+        <v>-0.2334305013662044</v>
       </c>
       <c r="L198">
         <v>-0.01449154663883943</v>
@@ -15635,13 +15635,13 @@
         <v>-0.2531250000000114</v>
       </c>
       <c r="U198">
-        <v>0.9998495426095331</v>
+        <v>-0.0001504573904669293</v>
       </c>
       <c r="V198">
-        <v>0.9996586619548631</v>
+        <v>-0.0003413380451369186</v>
       </c>
       <c r="W198">
-        <v>0.9996980676328503</v>
+        <v>-0.0003019323671497043</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -15676,7 +15676,7 @@
         <v>0.481761517549127</v>
       </c>
       <c r="K199">
-        <v>32.51275673199918</v>
+        <v>-0.1748724326800082</v>
       </c>
       <c r="L199">
         <v>-0.01568233557863491</v>
@@ -15706,13 +15706,13 @@
         <v>-0.2437500000000057</v>
       </c>
       <c r="U199">
-        <v>0.9998495199687</v>
+        <v>-0.0001504800313000265</v>
       </c>
       <c r="V199">
-        <v>0.9997388876614379</v>
+        <v>-0.0002611123385620751</v>
       </c>
       <c r="W199">
-        <v>1.000604047115675</v>
+        <v>0.0006040471156749661</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -15747,7 +15747,7 @@
         <v>0.42841051273055</v>
       </c>
       <c r="K200">
-        <v>29.99211423553585</v>
+        <v>-0.2000788576446415</v>
       </c>
       <c r="L200">
         <v>-0.0167265791727286</v>
@@ -15777,13 +15777,13 @@
         <v>-0.2218750000000114</v>
       </c>
       <c r="U200">
-        <v>0.9998294302971926</v>
+        <v>-0.0001705697028073772</v>
       </c>
       <c r="V200">
-        <v>0.9997187286535137</v>
+        <v>-0.000281271346486256</v>
       </c>
       <c r="W200">
-        <v>0.9993963175369756</v>
+        <v>-0.0006036824630244464</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -15818,7 +15818,7 @@
         <v>0.42841051273055</v>
       </c>
       <c r="K201">
-        <v>29.99211423553585</v>
+        <v>-0.2000788576446415</v>
       </c>
       <c r="L201">
         <v>-0.01755489483805028</v>
@@ -15848,13 +15848,13 @@
         <v>-0.203125</v>
       </c>
       <c r="U201">
-        <v>0.9998394364218406</v>
+        <v>-0.0001605635781594117</v>
       </c>
       <c r="V201">
-        <v>0.9996985530546623</v>
+        <v>-0.0003014469453377355</v>
       </c>
       <c r="W201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -15889,7 +15889,7 @@
         <v>0.5511158028506944</v>
       </c>
       <c r="K202">
-        <v>35.53028096534344</v>
+        <v>-0.1446971903465656</v>
       </c>
       <c r="L202">
         <v>-0.01791671211786957</v>
@@ -15919,13 +15919,13 @@
         <v>-0.1750000000000114</v>
       </c>
       <c r="U202">
-        <v>0.9998594843074085</v>
+        <v>-0.0001405156925915474</v>
       </c>
       <c r="V202">
-        <v>0.9997587697256006</v>
+        <v>-0.0002412302743993733</v>
       </c>
       <c r="W202">
-        <v>1.000604047115675</v>
+        <v>0.0006040471156749661</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -15960,7 +15960,7 @@
         <v>0.4880744203746029</v>
       </c>
       <c r="K203">
-        <v>32.79905989189281</v>
+        <v>-0.1720094010810719</v>
       </c>
       <c r="L203">
         <v>-0.01812694828835537</v>
@@ -15990,13 +15990,13 @@
         <v>-0.1625000000000227</v>
       </c>
       <c r="U203">
-        <v>0.9998695028056896</v>
+        <v>-0.0001304971943103528</v>
       </c>
       <c r="V203">
-        <v>0.9997587115195142</v>
+        <v>-0.0002412884804857685</v>
       </c>
       <c r="W203">
-        <v>0.9993963175369756</v>
+        <v>-0.0006036824630244464</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -16031,7 +16031,7 @@
         <v>0.4134074082563527</v>
       </c>
       <c r="K204">
-        <v>29.24899118551755</v>
+        <v>-0.2075100881448245</v>
       </c>
       <c r="L204">
         <v>-0.01849508421827125</v>
@@ -16061,13 +16061,13 @@
         <v>-0.1531249999999886</v>
       </c>
       <c r="U204">
-        <v>0.9998293275505491</v>
+        <v>-0.0001706724494509038</v>
       </c>
       <c r="V204">
-        <v>0.999698316606665</v>
+        <v>-0.0003016833933350282</v>
       </c>
       <c r="W204">
-        <v>0.9990939293264874</v>
+        <v>-0.0009060706735125601</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -16102,7 +16102,7 @@
         <v>0.574441979174845</v>
       </c>
       <c r="K205">
-        <v>36.48543336451854</v>
+        <v>-0.1351456663548146</v>
       </c>
       <c r="L205">
         <v>-0.0185393931240489</v>
@@ -16132,13 +16132,13 @@
         <v>-0.1218749999999886</v>
       </c>
       <c r="U205">
-        <v>0.9998493809557281</v>
+        <v>-0.000150619044271938</v>
       </c>
       <c r="V205">
-        <v>0.9997786987486422</v>
+        <v>-0.000221301251357775</v>
       </c>
       <c r="W205">
-        <v>1.000906892382104</v>
+        <v>0.0009068923821040631</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -16173,7 +16173,7 @@
         <v>0.574441979174845</v>
       </c>
       <c r="K206">
-        <v>36.48543336451854</v>
+        <v>-0.1351456663548146</v>
       </c>
       <c r="L206">
         <v>-0.0183172576428847</v>
@@ -16203,13 +16203,13 @@
         <v>-0.08750000000000568</v>
       </c>
       <c r="U206">
-        <v>0.999849358266214</v>
+        <v>-0.0001506417337859833</v>
       </c>
       <c r="V206">
-        <v>0.9998390180098603</v>
+        <v>-0.0001609819901396969</v>
       </c>
       <c r="W206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -16244,7 +16244,7 @@
         <v>0.5133738778685873</v>
       </c>
       <c r="K207">
-        <v>33.92247516467083</v>
+        <v>-0.1607752483532917</v>
       </c>
       <c r="L207">
         <v>-0.01810063246932245</v>
@@ -16274,13 +16274,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U207">
-        <v>0.9998392912745208</v>
+        <v>-0.0001607087254792416</v>
       </c>
       <c r="V207">
-        <v>0.9998792440678648</v>
+        <v>-0.0001207559321352303</v>
       </c>
       <c r="W207">
-        <v>0.9993959528843248</v>
+        <v>-0.0006040471156751881</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -16315,7 +16315,7 @@
         <v>0.625277628345984</v>
       </c>
       <c r="K208">
-        <v>38.47205040177153</v>
+        <v>-0.1152794959822847</v>
       </c>
       <c r="L208">
         <v>-0.0176159294409794</v>
@@ -16345,13 +16345,13 @@
         <v>-0.06875000000002274</v>
       </c>
       <c r="U208">
-        <v>0.9998593572626903</v>
+        <v>-0.0001406427373097374</v>
       </c>
       <c r="V208">
-        <v>0.9999194863227392</v>
+        <v>-8.051367726080727E-05</v>
       </c>
       <c r="W208">
-        <v>1.000604412209127</v>
+        <v>0.0006044122091266591</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -16386,7 +16386,7 @@
         <v>0.5904991695430097</v>
       </c>
       <c r="K209">
-        <v>37.12665689179045</v>
+        <v>-0.1287334310820955</v>
       </c>
       <c r="L209">
         <v>-0.01704530123442412</v>
@@ -16416,13 +16416,13 @@
         <v>-0.05937500000001705</v>
       </c>
       <c r="U209">
-        <v>0.9998593374795285</v>
+        <v>-0.0001406625204715128</v>
       </c>
       <c r="V209">
-        <v>0.9998993497997061</v>
+        <v>-0.000100650200293928</v>
       </c>
       <c r="W209">
-        <v>0.9996979764421624</v>
+        <v>-0.000302023557837594</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -16457,7 +16457,7 @@
         <v>0.5904991695430098</v>
       </c>
       <c r="K210">
-        <v>37.12665689179045</v>
+        <v>-0.1287334310820955</v>
       </c>
       <c r="L210">
         <v>-0.01639695797928377</v>
@@ -16487,13 +16487,13 @@
         <v>-0.06250000000002842</v>
       </c>
       <c r="U210">
-        <v>0.9998291714816862</v>
+        <v>-0.000170828518313848</v>
       </c>
       <c r="V210">
-        <v>0.9998792076018682</v>
+        <v>-0.000120792398131786</v>
       </c>
       <c r="W210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -16528,7 +16528,7 @@
         <v>0.5904991695430098</v>
       </c>
       <c r="K211">
-        <v>37.12665689179045</v>
+        <v>-0.1287334310820955</v>
       </c>
       <c r="L211">
         <v>-0.01568317067371569</v>
@@ -16558,13 +16558,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U211">
-        <v>0.9998391927475929</v>
+        <v>-0.0001608072524070803</v>
       </c>
       <c r="V211">
-        <v>0.9999194620062015</v>
+        <v>-8.053799379847959E-05</v>
       </c>
       <c r="W211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -16599,7 +16599,7 @@
         <v>0.59049916954301</v>
       </c>
       <c r="K212">
-        <v>37.12665689179046</v>
+        <v>-0.1287334310820954</v>
       </c>
       <c r="L212">
         <v>-0.01491813096002748</v>
@@ -16629,13 +16629,13 @@
         <v>-0.02500000000003411</v>
       </c>
       <c r="U212">
-        <v>0.9998190627450194</v>
+        <v>-0.0001809372549805843</v>
       </c>
       <c r="V212">
-        <v>0.9999597277596551</v>
+        <v>-4.027224034486299E-05</v>
       </c>
       <c r="W212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -16670,7 +16670,7 @@
         <v>0.658786953725916</v>
       </c>
       <c r="K213">
-        <v>39.71498282200551</v>
+        <v>-0.1028501717799449</v>
       </c>
       <c r="L213">
         <v>-0.01400665464438841</v>
@@ -16700,13 +16700,13 @@
         <v>-0.02187499999996589</v>
       </c>
       <c r="U213">
-        <v>0.9998290838896485</v>
+        <v>-0.0001709161103514711</v>
       </c>
       <c r="V213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W213">
-        <v>1.000302114803626</v>
+        <v>0.0003021148036255195</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -16741,7 +16741,7 @@
         <v>0.6146077913934836</v>
       </c>
       <c r="K214">
-        <v>38.06545432702562</v>
+        <v>-0.1193454567297438</v>
       </c>
       <c r="L214">
         <v>-0.01312333305698222</v>
@@ -16771,13 +16771,13 @@
         <v>-0.02499999999997726</v>
       </c>
       <c r="U214">
-        <v>0.9998391102798475</v>
+        <v>-0.0001608897201524906</v>
       </c>
       <c r="V214">
-        <v>0.999939589206605</v>
+        <v>-6.041079339502708E-05</v>
       </c>
       <c r="W214">
-        <v>0.9996979764421624</v>
+        <v>-0.000302023557837594</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -16812,7 +16812,7 @@
         <v>0.6851987178524009</v>
       </c>
       <c r="K215">
-        <v>40.65981718319907</v>
+        <v>-0.09340182816800935</v>
       </c>
       <c r="L215">
         <v>-0.01215572507546048</v>
@@ -16842,13 +16842,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U215">
-        <v>0.9998591988414077</v>
+        <v>-0.0001408011585922742</v>
       </c>
       <c r="V215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W215">
-        <v>1.000302114803626</v>
+        <v>0.0003021148036255195</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -16883,7 +16883,7 @@
         <v>0.6851987178524011</v>
       </c>
       <c r="K216">
-        <v>40.65981718319907</v>
+        <v>-0.09340182816800924</v>
       </c>
       <c r="L216">
         <v>-0.01115440915350163</v>
@@ -16913,13 +16913,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U216">
-        <v>0.9998491203717673</v>
+        <v>-0.0001508796282326808</v>
       </c>
       <c r="V216">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -16954,7 +16954,7 @@
         <v>0.6354923533324093</v>
       </c>
       <c r="K217">
-        <v>38.8563328980143</v>
+        <v>-0.111436671019857</v>
       </c>
       <c r="L217">
         <v>-0.01026571160404858</v>
@@ -16984,13 +16984,13 @@
         <v>-0.003125000000011369</v>
       </c>
       <c r="U217">
-        <v>0.9998490976036699</v>
+        <v>-0.0001509023963300882</v>
       </c>
       <c r="V217">
-        <v>0.9999395855569203</v>
+        <v>-6.041444307969268E-05</v>
       </c>
       <c r="W217">
-        <v>0.9996979764421624</v>
+        <v>-0.000302023557837594</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -17025,7 +17025,7 @@
         <v>0.4599000971526526</v>
       </c>
       <c r="K218">
-        <v>31.50216224039087</v>
+        <v>-0.1849783775960913</v>
       </c>
       <c r="L218">
         <v>-0.01001396563130183</v>
@@ -17055,13 +17055,13 @@
         <v>-0.009375000000005684</v>
       </c>
       <c r="U218">
-        <v>0.9998188897944401</v>
+        <v>-0.0001811102055598868</v>
       </c>
       <c r="V218">
-        <v>0.99987916381359</v>
+        <v>-0.0001208361864100116</v>
       </c>
       <c r="W218">
-        <v>0.9984894259818731</v>
+        <v>-0.001510574018126931</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -17096,7 +17096,7 @@
         <v>0.4599000971526526</v>
       </c>
       <c r="K219">
-        <v>31.50216224039087</v>
+        <v>-0.1849783775960913</v>
       </c>
       <c r="L219">
         <v>-0.01012787759872248</v>
@@ -17126,13 +17126,13 @@
         <v>-0.02187499999999432</v>
       </c>
       <c r="U219">
-        <v>0.9998188569875915</v>
+        <v>-0.0001811430124084579</v>
       </c>
       <c r="V219">
-        <v>0.999939574605221</v>
+        <v>-6.042539477901787E-05</v>
       </c>
       <c r="W219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -17167,7 +17167,7 @@
         <v>0.4599000971526526</v>
       </c>
       <c r="K220">
-        <v>31.50216224039087</v>
+        <v>-0.1849783775960913</v>
       </c>
       <c r="L220">
         <v>-0.01041933946511845</v>
@@ -17197,13 +17197,13 @@
         <v>-0.04375000000001705</v>
       </c>
       <c r="U220">
-        <v>0.9998288894928085</v>
+        <v>-0.0001711105071915409</v>
       </c>
       <c r="V220">
-        <v>0.9998791419075433</v>
+        <v>-0.0001208580924566549</v>
       </c>
       <c r="W220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -17238,7 +17238,7 @@
         <v>0.7821733139470971</v>
       </c>
       <c r="K221">
-        <v>43.88873449208855</v>
+        <v>-0.06111265507911456</v>
       </c>
       <c r="L221">
         <v>-0.01021236581812131</v>
@@ -17268,13 +17268,13 @@
         <v>-0.04687500000002842</v>
       </c>
       <c r="U221">
-        <v>0.9999093965812308</v>
+        <v>-9.060341876920841E-05</v>
       </c>
       <c r="V221">
-        <v>0.9999798545498499</v>
+        <v>-2.014545015005531E-05</v>
       </c>
       <c r="W221">
-        <v>1.001512859304085</v>
+        <v>0.001512859304084735</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -17309,7 +17309,7 @@
         <v>0.782173313947097</v>
       </c>
       <c r="K222">
-        <v>43.88873449208855</v>
+        <v>-0.06111265507911456</v>
       </c>
       <c r="L222">
         <v>-0.009679346681010517</v>
@@ -17339,13 +17339,13 @@
         <v>-0.04375000000001705</v>
       </c>
       <c r="U222">
-        <v>0.9999496602063932</v>
+        <v>-5.033979360680174E-05</v>
       </c>
       <c r="V222">
-        <v>1.000020145855997</v>
+        <v>2.014585599741103E-05</v>
       </c>
       <c r="W222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -17380,7 +17380,7 @@
         <v>0.8535912013253836</v>
       </c>
       <c r="K223">
-        <v>46.05067183719019</v>
+        <v>-0.03949328162809812</v>
       </c>
       <c r="L223">
         <v>-0.008837501712899902</v>
@@ -17410,13 +17410,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U223">
-        <v>0.9999597261377366</v>
+        <v>-4.027386226335139E-05</v>
       </c>
       <c r="V223">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W223">
-        <v>1.000302114803626</v>
+        <v>0.0003021148036255195</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -17451,7 +17451,7 @@
         <v>0.7939078131287804</v>
       </c>
       <c r="K224">
-        <v>44.25577542605795</v>
+        <v>-0.05744224573942047</v>
       </c>
       <c r="L224">
         <v>-0.00793989403417435</v>
@@ -17481,13 +17481,13 @@
         <v>-0.05312499999999432</v>
       </c>
       <c r="U224">
-        <v>0.9999496556446091</v>
+        <v>-5.034435539086335E-05</v>
       </c>
       <c r="V224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W224">
-        <v>0.9996979764421624</v>
+        <v>-0.000302023557837594</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -17522,7 +17522,7 @@
         <v>0.6920391525124308</v>
       </c>
       <c r="K225">
-        <v>40.89971272147301</v>
+        <v>-0.09100287278526992</v>
       </c>
       <c r="L225">
         <v>-0.007256688887156477</v>
@@ -17552,13 +17552,13 @@
         <v>-0.05937499999998863</v>
       </c>
       <c r="U225">
-        <v>0.9999194449758839</v>
+        <v>-8.055502411608018E-05</v>
       </c>
       <c r="V225">
-        <v>0.9999597090996999</v>
+        <v>-4.029090030011062E-05</v>
       </c>
       <c r="W225">
-        <v>0.9993957703927493</v>
+        <v>-0.0006042296072507058</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -17593,7 +17593,7 @@
         <v>0.6920391525124309</v>
       </c>
       <c r="K226">
-        <v>40.89971272147302</v>
+        <v>-0.09100287278526986</v>
       </c>
       <c r="L226">
         <v>-0.006720518318760138</v>
@@ -17623,13 +17623,13 @@
         <v>-0.03437499999998295</v>
       </c>
       <c r="U226">
-        <v>0.9999395788646865</v>
+        <v>-6.042113531345983E-05</v>
       </c>
       <c r="V226">
-        <v>0.9999597074762778</v>
+        <v>-4.029252372217407E-05</v>
       </c>
       <c r="W226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -17664,7 +17664,7 @@
         <v>0.8342141762522103</v>
       </c>
       <c r="K227">
-        <v>45.48073976599247</v>
+        <v>-0.04519260234007527</v>
       </c>
       <c r="L227">
         <v>-0.006063180129572052</v>
@@ -17694,13 +17694,13 @@
         <v>-0.003124999999982947</v>
       </c>
       <c r="U227">
-        <v>0.9999798584045844</v>
+        <v>-2.014159541563476E-05</v>
       </c>
       <c r="V227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W227">
-        <v>1.000604594921403</v>
+        <v>0.0006045949214026347</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -17735,7 +17735,7 @@
         <v>0.8342141762522105</v>
       </c>
       <c r="K228">
-        <v>45.48073976599247</v>
+        <v>-0.04519260234007527</v>
       </c>
       <c r="L228">
         <v>-0.005352213999994832</v>
@@ -17765,13 +17765,13 @@
         <v>0.02812500000001705</v>
       </c>
       <c r="U228">
-        <v>0.9999899289994459</v>
+        <v>-1.007100055405719E-05</v>
       </c>
       <c r="V228">
-        <v>0.9999798529263626</v>
+        <v>-2.014707363739987E-05</v>
       </c>
       <c r="W228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -17806,7 +17806,7 @@
         <v>0.912981502423856</v>
       </c>
       <c r="K229">
-        <v>47.7255792210775</v>
+        <v>-0.02274420778922498</v>
       </c>
       <c r="L229">
         <v>-0.004524559883602803</v>
@@ -17836,13 +17836,13 @@
         <v>0.03437500000001137</v>
       </c>
       <c r="U229">
-        <v>0.9999798577960403</v>
+        <v>-2.014220395973876E-05</v>
       </c>
       <c r="V229">
-        <v>1.00002014747955</v>
+        <v>2.014747955003671E-05</v>
       </c>
       <c r="W229">
-        <v>1.000302114803626</v>
+        <v>0.0003021148036255195</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -17877,7 +17877,7 @@
         <v>0.6856007209166882</v>
       </c>
       <c r="K230">
-        <v>40.67396936943849</v>
+        <v>-0.0932603063056151</v>
       </c>
       <c r="L230">
         <v>-0.004102442568480004</v>
@@ -17907,13 +17907,13 @@
         <v>0.02499999999997726</v>
       </c>
       <c r="U230">
-        <v>0.999959714780647</v>
+        <v>-4.028521935295348E-05</v>
       </c>
       <c r="V230">
-        <v>0.9999194117054498</v>
+        <v>-8.058829455015459E-05</v>
       </c>
       <c r="W230">
-        <v>0.9987919057686498</v>
+        <v>-0.001208094231350154</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -17948,7 +17948,7 @@
         <v>1.013302035818353</v>
       </c>
       <c r="K231">
-        <v>50.33035370703696</v>
+        <v>0.003303537070369678</v>
       </c>
       <c r="L231">
         <v>-0.003387997049744593</v>
@@ -17978,13 +17978,13 @@
         <v>0.02812500000001705</v>
       </c>
       <c r="U231">
-        <v>1.000010071710579</v>
+        <v>1.007171057909595E-05</v>
       </c>
       <c r="V231">
-        <v>1.000020148697387</v>
+        <v>2.014869738675706E-05</v>
       </c>
       <c r="W231">
-        <v>1.001511944360447</v>
+        <v>0.001511944360447437</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -18019,7 +18019,7 @@
         <v>0.8904396212040052</v>
       </c>
       <c r="K232">
-        <v>47.10225130792021</v>
+        <v>-0.02897748692079793</v>
       </c>
       <c r="L232">
         <v>-0.002749615762406979</v>
@@ -18049,13 +18049,13 @@
         <v>0.03125000000002842</v>
       </c>
       <c r="U232">
-        <v>0.9999697851725768</v>
+        <v>-3.02148274231584E-05</v>
       </c>
       <c r="V232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W232">
-        <v>0.9993961352657005</v>
+        <v>-0.0006038647342995196</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -18090,7 +18090,7 @@
         <v>0.8904396212040052</v>
       </c>
       <c r="K233">
-        <v>47.10225130792021</v>
+        <v>-0.02897748692079793</v>
       </c>
       <c r="L233">
         <v>-0.002187983431595264</v>
@@ -18120,13 +18120,13 @@
         <v>0.04375000000001705</v>
       </c>
       <c r="U233">
-        <v>0.9999899280865381</v>
+        <v>-1.00719134619176E-05</v>
       </c>
       <c r="V233">
-        <v>1.000100741457124</v>
+        <v>0.0001007414571243537</v>
       </c>
       <c r="W233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -18161,7 +18161,7 @@
         <v>1.024788151701072</v>
       </c>
       <c r="K234">
-        <v>50.61211716594267</v>
+        <v>0.006121171659426716</v>
       </c>
       <c r="L234">
         <v>-0.001480645802170342</v>
@@ -18191,13 +18191,13 @@
         <v>0.046875</v>
       </c>
       <c r="U234">
-        <v>1.000040288059626</v>
+        <v>4.028805962619231E-05</v>
       </c>
       <c r="V234">
-        <v>1.000141023833028</v>
+        <v>0.0001410238330277203</v>
       </c>
       <c r="W234">
-        <v>1.000604229607251</v>
+        <v>0.0006042296072508169</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -18232,7 +18232,7 @@
         <v>0.9571110648165704</v>
       </c>
       <c r="K235">
-        <v>48.90427947717292</v>
+        <v>-0.01095720522827082</v>
       </c>
       <c r="L235">
         <v>-0.0008347224659374371</v>
@@ -18262,13 +18262,13 @@
         <v>0.03437499999998295</v>
       </c>
       <c r="U235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V235">
-        <v>1.000120860526952</v>
+        <v>0.000120860526952038</v>
       </c>
       <c r="W235">
-        <v>0.9996980676328503</v>
+        <v>-0.0003019323671497043</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -18303,7 +18303,7 @@
         <v>0.8402848077168357</v>
       </c>
       <c r="K236">
-        <v>45.6605849373577</v>
+        <v>-0.04339415062642293</v>
       </c>
       <c r="L236">
         <v>-0.0004841596867014792</v>
@@ -18333,13 +18333,13 @@
         <v>0.015625</v>
       </c>
       <c r="U236">
-        <v>0.9999798567817182</v>
+        <v>-2.014321828180954E-05</v>
       </c>
       <c r="V236">
-        <v>0.9999798590130915</v>
+        <v>-2.014098690850119E-05</v>
       </c>
       <c r="W236">
-        <v>0.9993959528843248</v>
+        <v>-0.0006040471156751881</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -18374,7 +18374,7 @@
         <v>0.8402848077168356</v>
       </c>
       <c r="K237">
-        <v>45.6605849373577</v>
+        <v>-0.04339415062642293</v>
       </c>
       <c r="L237">
         <v>-0.0003331174839688063</v>
@@ -18404,13 +18404,13 @@
         <v>0.006250000000022737</v>
       </c>
       <c r="U237">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="V237">
-        <v>0.9999798586074241</v>
+        <v>-2.014139257588976E-05</v>
       </c>
       <c r="W237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -18445,7 +18445,7 @@
         <v>0.8402848077168357</v>
       </c>
       <c r="K238">
-        <v>45.6605849373577</v>
+        <v>-0.04339415062642293</v>
       </c>
       <c r="L238">
         <v>-0.0003113646421364914</v>
@@ -18475,13 +18475,13 @@
         <v>0.02187499999999432</v>
       </c>
       <c r="U238">
-        <v>0.9999798563759607</v>
+        <v>-2.014362403934822E-05</v>
       </c>
       <c r="V238">
-        <v>0.9999597164034807</v>
+        <v>-4.028359651930824E-05</v>
       </c>
       <c r="W238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -18516,7 +18516,7 @@
         <v>1.05383431273458</v>
       </c>
       <c r="K239">
-        <v>51.31058071239695</v>
+        <v>0.01310580712396947</v>
       </c>
       <c r="L239">
         <v>-3.814410740228018E-05</v>
@@ -18546,13 +18546,13 @@
         <v>0.01874999999998295</v>
       </c>
       <c r="U239">
-        <v>1.000020144029813</v>
+        <v>2.01440298133182E-05</v>
       </c>
       <c r="V239">
-        <v>1.000040285219353</v>
+        <v>4.028521935306451E-05</v>
       </c>
       <c r="W239">
-        <v>1.00090661831369</v>
+        <v>0.0009066183136898776</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -18587,7 +18587,7 @@
         <v>1.05383431273458</v>
       </c>
       <c r="K240">
-        <v>51.31058071239695</v>
+        <v>0.01310580712396947</v>
       </c>
       <c r="L240">
         <v>0.0003701514408890673</v>
@@ -18617,13 +18617,13 @@
         <v>0.02499999999997726</v>
       </c>
       <c r="U240">
-        <v>1.000020143624039</v>
+        <v>2.014362403945924E-05</v>
       </c>
       <c r="V240">
-        <v>1.000080567193039</v>
+        <v>8.056719303883852E-05</v>
       </c>
       <c r="W240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -18658,7 +18658,7 @@
         <v>0.8521893186340663</v>
       </c>
       <c r="K241">
-        <v>46.00983873843577</v>
+        <v>-0.03990161261564223</v>
       </c>
       <c r="L241">
         <v>0.0005028624734662716</v>
@@ -18688,13 +18688,13 @@
         <v>0.01562499999997158</v>
       </c>
       <c r="U241">
-        <v>0.999989928390859</v>
+        <v>-1.007160914101579E-05</v>
       </c>
       <c r="V241">
-        <v>1.000020140175622</v>
+        <v>2.014017562212977E-05</v>
       </c>
       <c r="W241">
-        <v>0.9990942028985507</v>
+        <v>-0.0009057971014493349</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -18729,7 +18729,7 @@
         <v>0.8521893186340663</v>
       </c>
       <c r="K242">
-        <v>46.00983873843577</v>
+        <v>-0.03990161261564223</v>
       </c>
       <c r="L242">
         <v>0.0004583300539597417</v>
@@ -18759,13 +18759,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U242">
-        <v>0.9999899282894207</v>
+        <v>-1.007171057931799E-05</v>
       </c>
       <c r="V242">
-        <v>0.9999798602299964</v>
+        <v>-2.013977000359102E-05</v>
       </c>
       <c r="W242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -18800,7 +18800,7 @@
         <v>0.9228611986580167</v>
       </c>
       <c r="K243">
-        <v>47.99416615729157</v>
+        <v>-0.02005833842708432</v>
       </c>
       <c r="L243">
         <v>0.0004176044175467013</v>
@@ -18830,13 +18830,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U243">
-        <v>0.9999899281879802</v>
+        <v>-1.007181201984064E-05</v>
       </c>
       <c r="V243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W243">
-        <v>1.000302206104563</v>
+        <v>0.0003022061045634405</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -18871,7 +18871,7 @@
         <v>0.922861198658017</v>
       </c>
       <c r="K244">
-        <v>47.99416615729157</v>
+        <v>-0.02005833842708432</v>
       </c>
       <c r="L244">
         <v>0.0003802595608086868</v>
@@ -18901,13 +18901,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V244">
-        <v>0.9999798598243779</v>
+        <v>-2.014017562212977E-05</v>
       </c>
       <c r="W244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -18942,7 +18942,7 @@
         <v>1.001167990928322</v>
       </c>
       <c r="K245">
-        <v>50.02918273062573</v>
+        <v>0.0002918273062573196</v>
       </c>
       <c r="L245">
         <v>0.0004559716876570227</v>
@@ -18972,13 +18972,13 @@
         <v>0.006249999999965894</v>
       </c>
       <c r="U245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V245">
-        <v>1.000080562325029</v>
+        <v>8.056232502862137E-05</v>
       </c>
       <c r="W245">
-        <v>1.000302114803626</v>
+        <v>0.0003021148036255195</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -19013,7 +19013,7 @@
         <v>0.9249278508430714</v>
       </c>
       <c r="K246">
-        <v>48.05000096174906</v>
+        <v>-0.01949999038250938</v>
       </c>
       <c r="L246">
         <v>0.0004836768693430684</v>
@@ -19043,13 +19043,13 @@
         <v>0.003125000000011369</v>
       </c>
       <c r="U246">
-        <v>0.9999899280865379</v>
+        <v>-1.007191346213965E-05</v>
       </c>
       <c r="V246">
-        <v>0.9999597220823681</v>
+        <v>-4.027791763194788E-05</v>
       </c>
       <c r="W246">
-        <v>0.9996979764421624</v>
+        <v>-0.000302023557837594</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -19084,7 +19084,7 @@
         <v>0.7971328597241087</v>
       </c>
       <c r="K247">
-        <v>44.3558112807799</v>
+        <v>-0.05644188719220095</v>
       </c>
       <c r="L247">
         <v>0.0002587463192651723</v>
@@ -19114,13 +19114,13 @@
         <v>-0.009374999999977263</v>
       </c>
       <c r="U247">
-        <v>0.9999798559701869</v>
+        <v>-2.014402981309615E-05</v>
       </c>
       <c r="V247">
-        <v>0.9999597204599924</v>
+        <v>-4.027954000762612E-05</v>
       </c>
       <c r="W247">
-        <v>0.9993957703927493</v>
+        <v>-0.0006042296072507058</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -19155,7 +19155,7 @@
         <v>0.9425723587731454</v>
       </c>
       <c r="K248">
-        <v>48.52186609761286</v>
+        <v>-0.01478133902387135</v>
       </c>
       <c r="L248">
         <v>0.0001141811060121571</v>
@@ -19185,13 +19185,13 @@
         <v>-0.02187499999996589</v>
       </c>
       <c r="U248">
-        <v>1.000050361089008</v>
+        <v>5.036108900813296E-05</v>
       </c>
       <c r="V248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W248">
-        <v>1.000604594921403</v>
+        <v>0.0006045949214026347</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -19226,7 +19226,7 @@
         <v>0.8174287503890747</v>
       </c>
       <c r="K249">
-        <v>44.97721026004897</v>
+        <v>-0.05022789739951028</v>
       </c>
       <c r="L249">
         <v>-0.0001929256414413972</v>
@@ -19256,13 +19256,13 @@
         <v>-0.02187499999999432</v>
       </c>
       <c r="U249">
-        <v>1.000030215131738</v>
+        <v>3.021513173817603E-05</v>
       </c>
       <c r="V249">
-        <v>0.9999194376749714</v>
+        <v>-8.056232502862137E-05</v>
       </c>
       <c r="W249">
-        <v>0.9993957703927493</v>
+        <v>-0.0006042296072507058</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -19297,7 +19297,7 @@
         <v>0.7640392287097758</v>
       </c>
       <c r="K250">
-        <v>43.31191825414204</v>
+        <v>-0.06688081745857954</v>
       </c>
       <c r="L250">
         <v>-0.0006882458717996841</v>
@@ -19327,13 +19327,13 @@
         <v>-0.01874999999998295</v>
       </c>
       <c r="U250">
-        <v>1.000020142812541</v>
+        <v>2.014281254081318E-05</v>
       </c>
       <c r="V250">
-        <v>0.99991943118416</v>
+        <v>-8.056881583995423E-05</v>
       </c>
       <c r="W250">
-        <v>0.9996977025392986</v>
+        <v>-0.0003022974607014284</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -19368,7 +19368,7 @@
         <v>0.9015423358069011</v>
       </c>
       <c r="K251">
-        <v>47.41111038289559</v>
+        <v>-0.02588889617104406</v>
       </c>
       <c r="L251">
         <v>-0.001043502519792324</v>
@@ -19398,13 +19398,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U251">
-        <v>0.9999899287965919</v>
+        <v>-1.007120340812406E-05</v>
       </c>
       <c r="V251">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W251">
-        <v>1.000604777744179</v>
+        <v>0.000604777744178886</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -19439,7 +19439,7 @@
         <v>0.9015423358069011</v>
       </c>
       <c r="K252">
-        <v>47.41111038289559</v>
+        <v>-0.02588889617104406</v>
       </c>
       <c r="L252">
         <v>-0.001287471433034007</v>
@@ -19469,13 +19469,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U252">
-        <v>0.9999899286951619</v>
+        <v>-1.007130483809959E-05</v>
       </c>
       <c r="V252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -19510,7 +19510,7 @@
         <v>0.9777213425089313</v>
       </c>
       <c r="K253">
-        <v>49.43675944097347</v>
+        <v>-0.005632405590265344</v>
       </c>
       <c r="L253">
         <v>-0.00133377132280907</v>
@@ -19540,13 +19540,13 @@
         <v>-0.03437500000001137</v>
       </c>
       <c r="U253">
-        <v>0.9999899285937294</v>
+        <v>-1.007140627062864E-05</v>
       </c>
       <c r="V253">
-        <v>1.000020143826924</v>
+        <v>2.01438269242793E-05</v>
       </c>
       <c r="W253">
-        <v>1.000302206104563</v>
+        <v>0.0003022061045634405</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -19581,7 +19581,7 @@
         <v>1.138098198723686</v>
       </c>
       <c r="K254">
-        <v>53.22946342703347</v>
+        <v>0.03229463427033474</v>
       </c>
       <c r="L254">
         <v>-0.001032472326768556</v>
@@ -19611,13 +19611,13 @@
         <v>-0.03124999999997158</v>
       </c>
       <c r="U254">
-        <v>1.000020143015409</v>
+        <v>2.014301540942398E-05</v>
       </c>
       <c r="V254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W254">
-        <v>1.000604229607251</v>
+        <v>0.0006042296072508169</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -19652,7 +19652,7 @@
         <v>1.222507070415686</v>
       </c>
       <c r="K255">
-        <v>55.00576743663789</v>
+        <v>0.05005767436637887</v>
       </c>
       <c r="L255">
         <v>-0.0004259983673116628</v>
@@ -19682,13 +19682,13 @@
         <v>-0.003125000000011369</v>
       </c>
       <c r="U255">
-        <v>1.000050356524191</v>
+        <v>5.035652419138614E-05</v>
       </c>
       <c r="V255">
-        <v>1.000020143421159</v>
+        <v>2.014342115863599E-05</v>
       </c>
       <c r="W255">
-        <v>1.00030193236715</v>
+        <v>0.0003019323671498153</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -19723,7 +19723,7 @@
         <v>1.122749184271023</v>
       </c>
       <c r="K256">
-        <v>52.89127856415067</v>
+        <v>0.02891278564150679</v>
       </c>
       <c r="L256">
         <v>0.0002182495395516909</v>
@@ -19753,13 +19753,13 @@
         <v>0.009375000000005684</v>
       </c>
       <c r="U256">
-        <v>1.000040283190831</v>
+        <v>4.028319083149157E-05</v>
       </c>
       <c r="V256">
-        <v>1.000060429046228</v>
+        <v>6.042904622827194E-05</v>
       </c>
       <c r="W256">
-        <v>0.9996981587684877</v>
+        <v>-0.0003018412315123342</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -19794,7 +19794,7 @@
         <v>1.122749184271022</v>
       </c>
       <c r="K257">
-        <v>52.89127856415066</v>
+        <v>0.02891278564150657</v>
       </c>
       <c r="L257">
         <v>0.0008435265301739551</v>
@@ -19824,13 +19824,13 @@
         <v>0.02500000000003411</v>
       </c>
       <c r="U257">
-        <v>1.000020140784081</v>
+        <v>2.014078408096864E-05</v>
       </c>
       <c r="V257">
-        <v>1.000060425394779</v>
+        <v>6.042539477912889E-05</v>
       </c>
       <c r="W257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -19865,7 +19865,7 @@
         <v>1.122749184271022</v>
       </c>
       <c r="K258">
-        <v>52.89127856415066</v>
+        <v>0.02891278564150657</v>
       </c>
       <c r="L258">
         <v>0.001414382755066986</v>
@@ -19895,13 +19895,13 @@
         <v>0.04687499999997158</v>
       </c>
       <c r="U258">
-        <v>1.000020140378437</v>
+        <v>2.014037843744987E-05</v>
       </c>
       <c r="V258">
-        <v>1.000040281162515</v>
+        <v>4.028116251464375E-05</v>
       </c>
       <c r="W258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -19936,7 +19936,7 @@
         <v>1.217924656979026</v>
       </c>
       <c r="K259">
-        <v>54.91280567834651</v>
+        <v>0.0491280567834651</v>
       </c>
       <c r="L259">
         <v>0.002020745433047782</v>
@@ -19966,13 +19966,13 @@
         <v>0.06250000000002842</v>
       </c>
       <c r="U259">
-        <v>1.000020139972811</v>
+        <v>2.013997281125057E-05</v>
       </c>
       <c r="V259">
-        <v>1.000060419310011</v>
+        <v>6.041931001132816E-05</v>
       </c>
       <c r="W259">
-        <v>1.00030193236715</v>
+        <v>0.0003019323671498153</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -20007,7 +20007,7 @@
         <v>1.217924656979026</v>
       </c>
       <c r="K260">
-        <v>54.91280567834651</v>
+        <v>0.0491280567834651</v>
       </c>
       <c r="L260">
         <v>0.002602600080775377</v>
@@ -20037,13 +20037,13 @@
         <v>0.078125</v>
       </c>
       <c r="U260">
-        <v>1.000060418701602</v>
+        <v>6.04187016017832E-05</v>
       </c>
       <c r="V260">
-        <v>1.000040277106493</v>
+        <v>4.027710649290306E-05</v>
       </c>
       <c r="W260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -20078,7 +20078,7 @@
         <v>1.005788582179623</v>
       </c>
       <c r="K261">
-        <v>50.1442969172088</v>
+        <v>0.001442969172087971</v>
       </c>
       <c r="L261">
         <v>0.002903007346156847</v>
@@ -20108,13 +20108,13 @@
         <v>0.08437500000002274</v>
       </c>
       <c r="U261">
-        <v>0.9999899308247663</v>
+        <v>-1.006917523371786E-05</v>
       </c>
       <c r="V261">
-        <v>1.000020137742156</v>
+        <v>2.013774215625652E-05</v>
       </c>
       <c r="W261">
-        <v>0.9993963175369756</v>
+        <v>-0.0006036824630244464</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -20149,7 +20149,7 @@
         <v>1.18913418577523</v>
       </c>
       <c r="K262">
-        <v>54.31983993955703</v>
+        <v>0.04319839939557024</v>
       </c>
       <c r="L262">
         <v>0.003223210190563446</v>
@@ -20179,13 +20179,13 @@
         <v>0.08125000000001137</v>
       </c>
       <c r="U262">
-        <v>1.00003020782987</v>
+        <v>3.020782986951076E-05</v>
       </c>
       <c r="V262">
-        <v>1.000100686683179</v>
+        <v>0.0001006866831794184</v>
       </c>
       <c r="W262">
-        <v>1.000604047115675</v>
+        <v>0.0006040471156749661</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -20220,7 +20220,7 @@
         <v>1.18913418577523</v>
       </c>
       <c r="K263">
-        <v>54.31983993955703</v>
+        <v>0.04319839939557024</v>
       </c>
       <c r="L263">
         <v>0.00352324522035353</v>
@@ -20250,13 +20250,13 @@
         <v>0.06562499999998295</v>
       </c>
       <c r="U263">
-        <v>1.000030206917384</v>
+        <v>3.020691738431225E-05</v>
       </c>
       <c r="V263">
-        <v>1.000060405927835</v>
+        <v>6.040592783507215E-05</v>
       </c>
       <c r="W263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -20291,7 +20291,7 @@
         <v>0.9883482505325184</v>
       </c>
       <c r="K264">
-        <v>49.70699927780858</v>
+        <v>-0.002930007221914221</v>
       </c>
       <c r="L264">
         <v>0.003559094870968803</v>
@@ -20321,13 +20321,13 @@
         <v>0.05624999999997726</v>
       </c>
       <c r="U264">
-        <v>0.9999899313316819</v>
+        <v>-1.006866831809727E-05</v>
       </c>
       <c r="V264">
-        <v>1.000060402279179</v>
+        <v>6.040227917902818E-05</v>
       </c>
       <c r="W264">
-        <v>0.9993963175369756</v>
+        <v>-0.0006036824630244464</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -20362,7 +20362,7 @@
         <v>0.8391923804204647</v>
       </c>
       <c r="K265">
-        <v>45.62830889004736</v>
+        <v>-0.04371691109952636</v>
       </c>
       <c r="L265">
         <v>0.003199669888752537</v>
@@ -20392,13 +20392,13 @@
         <v>0.03437500000001137</v>
       </c>
       <c r="U265">
-        <v>0.999979862460606</v>
+        <v>-2.013753939400509E-05</v>
       </c>
       <c r="V265">
-        <v>1.000040265753976</v>
+        <v>4.026575397642063E-05</v>
       </c>
       <c r="W265">
-        <v>0.9993959528843248</v>
+        <v>-0.0006040471156751881</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -20433,7 +20433,7 @@
         <v>0.7774413265470972</v>
       </c>
       <c r="K266">
-        <v>43.73935245769122</v>
+        <v>-0.06260647542308784</v>
       </c>
       <c r="L266">
         <v>0.002502074181359917</v>
@@ -20463,13 +20463,13 @@
         <v>0.006250000000022737</v>
       </c>
       <c r="U266">
-        <v>0.9999899310275386</v>
+        <v>-1.00689724613634E-05</v>
       </c>
       <c r="V266">
-        <v>0.9999798679336446</v>
+        <v>-2.013206635542719E-05</v>
       </c>
       <c r="W266">
-        <v>0.9996977938954368</v>
+        <v>-0.0003022061045632185</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -20504,7 +20504,7 @@
         <v>0.8548980705034934</v>
       </c>
       <c r="K267">
-        <v>46.08868185794381</v>
+        <v>-0.03911318142056186</v>
       </c>
       <c r="L267">
         <v>0.001744971557587559</v>
@@ -20534,13 +20534,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V267">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W267">
-        <v>1.000302297460701</v>
+        <v>0.0003022974607012063</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -20575,7 +20575,7 @@
         <v>0.8548980705034934</v>
       </c>
       <c r="K268">
-        <v>46.08868185794381</v>
+        <v>-0.03911318142056186</v>
       </c>
       <c r="L268">
         <v>0.0009937157247268404</v>
@@ -20605,13 +20605,13 @@
         <v>-0.04375000000001705</v>
       </c>
       <c r="U268">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V268">
-        <v>0.9999798675283363</v>
+        <v>-2.013247166365861E-05</v>
       </c>
       <c r="W268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -20646,7 +20646,7 @@
         <v>0.8548980705034933</v>
       </c>
       <c r="K269">
-        <v>46.0886818579438</v>
+        <v>-0.03911318142056197</v>
       </c>
       <c r="L269">
         <v>0.0002902541963887585</v>
@@ -20676,13 +20676,13 @@
         <v>-0.05312499999999432</v>
       </c>
       <c r="U269">
-        <v>0.9999697927784601</v>
+        <v>-3.020722153990185E-05</v>
       </c>
       <c r="V269">
-        <v>0.9999396013690357</v>
+        <v>-6.039863096429787E-05</v>
       </c>
       <c r="W269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -20717,7 +20717,7 @@
         <v>0.7840643387823601</v>
       </c>
       <c r="K270">
-        <v>43.94820981161986</v>
+        <v>-0.06051790188380141</v>
       </c>
       <c r="L270">
         <v>-0.0004504760504290311</v>
@@ -20747,13 +20747,13 @@
         <v>-0.07187499999997726</v>
       </c>
       <c r="U270">
-        <v>0.9999597224879417</v>
+        <v>-4.027751205826213E-05</v>
       </c>
       <c r="V270">
-        <v>0.9998993295347011</v>
+        <v>-0.0001006704652989354</v>
       </c>
       <c r="W270">
-        <v>0.9996977938954368</v>
+        <v>-0.0003022061045632185</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -20788,7 +20788,7 @@
         <v>0.7211662333775707</v>
       </c>
       <c r="K271">
-        <v>41.89985949017681</v>
+        <v>-0.08100140509823189</v>
       </c>
       <c r="L271">
         <v>-0.00127494120081955</v>
@@ -20818,13 +20818,13 @@
         <v>-0.09062499999998863</v>
       </c>
       <c r="U271">
-        <v>0.9999798604327993</v>
+        <v>-2.013956720070542E-05</v>
       </c>
       <c r="V271">
-        <v>0.9998993193991382</v>
+        <v>-0.0001006806008617689</v>
       </c>
       <c r="W271">
-        <v>0.9996977025392986</v>
+        <v>-0.0003022974607014284</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -20859,7 +20859,7 @@
         <v>0.805608961773894</v>
       </c>
       <c r="K272">
-        <v>44.6170227789762</v>
+        <v>-0.05382977221023799</v>
       </c>
       <c r="L272">
         <v>-0.001982988248919782</v>
@@ -20889,13 +20889,13 @@
         <v>-0.09687500000001137</v>
       </c>
       <c r="U272">
-        <v>0.9999899300135945</v>
+        <v>-1.006998640551426E-05</v>
       </c>
       <c r="V272">
-        <v>0.9999194474092273</v>
+        <v>-8.055259077266452E-05</v>
       </c>
       <c r="W272">
-        <v>1.00030238887209</v>
+        <v>0.000302388872089665</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -20930,7 +20930,7 @@
         <v>0.8056089617738939</v>
       </c>
       <c r="K273">
-        <v>44.61702277897619</v>
+        <v>-0.0538297722102381</v>
       </c>
       <c r="L273">
         <v>-0.002568187112097717</v>
@@ -20960,13 +20960,13 @@
         <v>-0.09062500000001705</v>
       </c>
       <c r="U273">
-        <v>0.9999798598243779</v>
+        <v>-2.014017562212977E-05</v>
       </c>
       <c r="V273">
-        <v>0.9999194409199844</v>
+        <v>-8.055908001558532E-05</v>
       </c>
       <c r="W273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -21001,7 +21001,7 @@
         <v>0.8056089617738939</v>
       </c>
       <c r="K274">
-        <v>44.61702277897619</v>
+        <v>-0.0538297722102381</v>
       </c>
       <c r="L274">
         <v>-0.003032337519351538</v>
@@ -21031,13 +21031,13 @@
         <v>-0.078125</v>
       </c>
       <c r="U274">
-        <v>0.9999798594187427</v>
+        <v>-2.014058125732188E-05</v>
       </c>
       <c r="V274">
-        <v>0.9998992930371209</v>
+        <v>-0.0001007069628791157</v>
       </c>
       <c r="W274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -21072,7 +21072,7 @@
         <v>0.8056089617738937</v>
       </c>
       <c r="K275">
-        <v>44.61702277897619</v>
+        <v>-0.0538297722102381</v>
       </c>
       <c r="L275">
         <v>-0.003382550269520009</v>
@@ -21102,13 +21102,13 @@
         <v>-0.06875000000002274</v>
       </c>
       <c r="U275">
-        <v>0.9999697885196374</v>
+        <v>-3.021148036264076E-05</v>
       </c>
       <c r="V275">
-        <v>0.9998992828942067</v>
+        <v>-0.000100717105793291</v>
       </c>
       <c r="W275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -21143,7 +21143,7 @@
         <v>0.6672555095680071</v>
       </c>
       <c r="K276">
-        <v>40.02119085759661</v>
+        <v>-0.09978809142403383</v>
       </c>
       <c r="L276">
         <v>-0.003849117149317155</v>
@@ -21173,13 +21173,13 @@
         <v>-0.06562499999998295</v>
       </c>
       <c r="U276">
-        <v>0.9999597168091685</v>
+        <v>-4.028319083149157E-05</v>
       </c>
       <c r="V276">
-        <v>0.9998992727492495</v>
+        <v>-0.0001007272507504986</v>
       </c>
       <c r="W276">
-        <v>0.9993954050785974</v>
+        <v>-0.0006045949214026347</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -21214,7 +21214,7 @@
         <v>0.6672555095680071</v>
       </c>
       <c r="K277">
-        <v>40.02119085759661</v>
+        <v>-0.09978809142403383</v>
       </c>
       <c r="L277">
         <v>-0.004342466567906614</v>
@@ -21244,13 +21244,13 @@
         <v>-0.06874999999999432</v>
       </c>
       <c r="U277">
-        <v>0.999979857593184</v>
+        <v>-2.014240681602608E-05</v>
       </c>
       <c r="V277">
-        <v>0.9998589676431477</v>
+        <v>-0.0001410323568522553</v>
       </c>
       <c r="W277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -21285,7 +21285,7 @@
         <v>0.609284771633024</v>
       </c>
       <c r="K278">
-        <v>37.86059387206848</v>
+        <v>-0.1213940612793152</v>
       </c>
       <c r="L278">
         <v>-0.004914839898010095</v>
@@ -21315,13 +21315,13 @@
         <v>-0.06249999999997158</v>
       </c>
       <c r="U278">
-        <v>0.9999496429686476</v>
+        <v>-5.035703135236602E-05</v>
       </c>
       <c r="V278">
-        <v>0.999838797428819</v>
+        <v>-0.0001612025711810183</v>
       </c>
       <c r="W278">
-        <v>0.999697519661222</v>
+        <v>-0.0003024803387779995</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -21356,7 +21356,7 @@
         <v>0.609284771633024</v>
       </c>
       <c r="K279">
-        <v>37.86059387206848</v>
+        <v>-0.1213940612793152</v>
       </c>
       <c r="L279">
         <v>-0.00548077328423052</v>
@@ -21386,13 +21386,13 @@
         <v>-0.04999999999998295</v>
       </c>
       <c r="U279">
-        <v>0.9999697842596137</v>
+        <v>-3.021574038630792E-05</v>
       </c>
       <c r="V279">
-        <v>0.9998790785787703</v>
+        <v>-0.0001209214212296583</v>
       </c>
       <c r="W279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -21427,7 +21427,7 @@
         <v>0.7055500009432867</v>
       </c>
       <c r="K280">
-        <v>41.36788722424256</v>
+        <v>-0.08632112775757439</v>
       </c>
       <c r="L280">
         <v>-0.005876816212486827</v>
@@ -21457,13 +21457,13 @@
         <v>-0.046875</v>
       </c>
       <c r="U280">
-        <v>0.9999899277821984</v>
+        <v>-1.007221780158218E-05</v>
       </c>
       <c r="V280">
-        <v>0.999939531977506</v>
+        <v>-6.046802249404237E-05</v>
       </c>
       <c r="W280">
-        <v>1.000302571860817</v>
+        <v>0.000302571860816947</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -21498,7 +21498,7 @@
         <v>0.640633447541778</v>
       </c>
       <c r="K281">
-        <v>39.04793288846226</v>
+        <v>-0.1095206711153774</v>
       </c>
       <c r="L281">
         <v>-0.006233350488034896</v>
@@ -21528,13 +21528,13 @@
         <v>-0.05312499999999432</v>
       </c>
       <c r="U281">
-        <v>0.9999597107229911</v>
+        <v>-4.028927700894247E-05</v>
       </c>
       <c r="V281">
-        <v>0.999939528320903</v>
+        <v>-6.047167909695172E-05</v>
       </c>
       <c r="W281">
-        <v>0.999697519661222</v>
+        <v>-0.0003024803387779995</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -21569,7 +21569,7 @@
         <v>0.5840660718918919</v>
       </c>
       <c r="K282">
-        <v>36.87132009552647</v>
+        <v>-0.1312867990447353</v>
       </c>
       <c r="L282">
         <v>-0.006630608596591698</v>
@@ -21599,13 +21599,13 @@
         <v>-0.06562500000001137</v>
       </c>
       <c r="U282">
-        <v>0.9999496363746246</v>
+        <v>-5.036362537536032E-05</v>
       </c>
       <c r="V282">
-        <v>0.9998992077730965</v>
+        <v>-0.0001007922269035122</v>
       </c>
       <c r="W282">
-        <v>0.9996974281391829</v>
+        <v>-0.000302571860817058</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -21640,7 +21640,7 @@
         <v>0.5840660718918919</v>
       </c>
       <c r="K283">
-        <v>36.87132009552647</v>
+        <v>-0.1312867990447353</v>
       </c>
       <c r="L283">
         <v>-0.007003140387112269</v>
@@ -21670,13 +21670,13 @@
         <v>-0.07499999999996021</v>
       </c>
       <c r="U283">
-        <v>0.9999395606056027</v>
+        <v>-6.043939439726032E-05</v>
       </c>
       <c r="V283">
-        <v>0.9998991976129994</v>
+        <v>-0.0001008023870006092</v>
       </c>
       <c r="W283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -21711,7 +21711,7 @@
         <v>0.6819044423618689</v>
       </c>
       <c r="K284">
-        <v>40.54359006295758</v>
+        <v>-0.09456409937042415</v>
       </c>
       <c r="L284">
         <v>-0.007201456426979804</v>
@@ -21741,13 +21741,13 @@
         <v>-0.06874999999999432</v>
       </c>
       <c r="U284">
-        <v>0.9999294831112052</v>
+        <v>-7.051688879478046E-05</v>
       </c>
       <c r="V284">
-        <v>0.9999193499606832</v>
+        <v>-8.065003931678749E-05</v>
       </c>
       <c r="W284">
-        <v>1.000302663438257</v>
+        <v>0.0003026634382568005</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -21782,7 +21782,7 @@
         <v>0.6182339170813337</v>
       </c>
       <c r="K285">
-        <v>38.20423676426136</v>
+        <v>-0.1179576323573864</v>
       </c>
       <c r="L285">
         <v>-0.007365442125793388</v>
@@ -21812,13 +21812,13 @@
         <v>-0.06562500000003979</v>
       </c>
       <c r="U285">
-        <v>0.9999093290348579</v>
+        <v>-9.067096514214779E-05</v>
       </c>
       <c r="V285">
-        <v>0.9999193434557297</v>
+        <v>-8.065654427025226E-05</v>
       </c>
       <c r="W285">
-        <v>0.9996974281391829</v>
+        <v>-0.000302571860817058</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -21853,7 +21853,7 @@
         <v>0.4437689563004267</v>
       </c>
       <c r="K286">
-        <v>30.73684015464349</v>
+        <v>-0.1926315984535651</v>
       </c>
       <c r="L286">
         <v>-0.007911661803208804</v>
@@ -21883,13 +21883,13 @@
         <v>-0.07187500000003411</v>
       </c>
       <c r="U286">
-        <v>0.9998790944171848</v>
+        <v>-0.0001209055828151895</v>
       </c>
       <c r="V286">
-        <v>0.9998588396620219</v>
+        <v>-0.0001411603379780635</v>
       </c>
       <c r="W286">
-        <v>0.9987893462469735</v>
+        <v>-0.001210653753026536</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -21924,7 +21924,7 @@
         <v>0.4437689563004267</v>
       </c>
       <c r="K287">
-        <v>30.73684015464349</v>
+        <v>-0.1926315984535651</v>
       </c>
       <c r="L287">
         <v>-0.008625985674797453</v>
@@ -21954,13 +21954,13 @@
         <v>-0.08125000000003979</v>
       </c>
       <c r="U287">
-        <v>0.9998790797972569</v>
+        <v>-0.0001209202027431244</v>
       </c>
       <c r="V287">
-        <v>0.9998386511233915</v>
+        <v>-0.0001613488766084581</v>
       </c>
       <c r="W287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -21995,7 +21995,7 @@
         <v>0.5219404099337066</v>
       </c>
       <c r="K288">
-        <v>34.29440512434002</v>
+        <v>-0.1570559487565998</v>
       </c>
       <c r="L288">
         <v>-0.009255283469202912</v>
@@ -22025,13 +22025,13 @@
         <v>-0.09062499999998863</v>
       </c>
       <c r="U288">
-        <v>0.9998891430759775</v>
+        <v>-0.0001108569240224622</v>
       </c>
       <c r="V288">
-        <v>0.9998587969500139</v>
+        <v>-0.000141203049986105</v>
       </c>
       <c r="W288">
-        <v>1.00030303030303</v>
+        <v>0.0003030303030304715</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -22066,7 +22066,7 @@
         <v>0.6042261506002702</v>
       </c>
       <c r="K289">
-        <v>37.6646491128561</v>
+        <v>-0.123353508871439</v>
       </c>
       <c r="L289">
         <v>-0.009649271347008099</v>
@@ -22096,13 +22096,13 @@
         <v>-0.09062499999998863</v>
       </c>
       <c r="U289">
-        <v>0.9998891307853571</v>
+        <v>-0.0001108692146428725</v>
       </c>
       <c r="V289">
-        <v>0.9998789517219119</v>
+        <v>-0.0001210482780881206</v>
       </c>
       <c r="W289">
-        <v>1.000302938503484</v>
+        <v>0.0003029385034836185</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -22137,7 +22137,7 @@
         <v>0.5150094477418886</v>
       </c>
       <c r="K290">
-        <v>33.99381096332479</v>
+        <v>-0.1600618903667521</v>
       </c>
       <c r="L290">
         <v>-0.01006071346683628</v>
@@ -22167,13 +22167,13 @@
         <v>-0.09062500000001705</v>
       </c>
       <c r="U290">
-        <v>0.9998689582178318</v>
+        <v>-0.000131041782168162</v>
       </c>
       <c r="V290">
-        <v>0.9998385827566028</v>
+        <v>-0.0001614172433972438</v>
       </c>
       <c r="W290">
-        <v>0.9993943064809206</v>
+        <v>-0.0006056935190793533</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -22208,7 +22208,7 @@
         <v>0.5927223361240164</v>
       </c>
       <c r="K291">
-        <v>37.21441727039762</v>
+        <v>-0.1278558272960238</v>
       </c>
       <c r="L291">
         <v>-0.01030986957607799</v>
@@ -22238,13 +22238,13 @@
         <v>-0.08750000000000568</v>
       </c>
       <c r="U291">
-        <v>0.9998991854181788</v>
+        <v>-0.0001008145818212069</v>
       </c>
       <c r="V291">
-        <v>0.9998990979355439</v>
+        <v>-0.0001009020644561209</v>
       </c>
       <c r="W291">
-        <v>1.00030303030303</v>
+        <v>0.0003030303030304715</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -22279,7 +22279,7 @@
         <v>0.5927223361240164</v>
       </c>
       <c r="K292">
-        <v>37.21441727039762</v>
+        <v>-0.1278558272960238</v>
       </c>
       <c r="L292">
         <v>-0.01040734096050013</v>
@@ -22309,13 +22309,13 @@
         <v>-0.09687500000003979</v>
       </c>
       <c r="U292">
-        <v>0.9998790103042891</v>
+        <v>-0.0001209896957109491</v>
       </c>
       <c r="V292">
-        <v>0.9998990877532898</v>
+        <v>-0.0001009122467101609</v>
       </c>
       <c r="W292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -22350,7 +22350,7 @@
         <v>0.5927223361240164</v>
       </c>
       <c r="K293">
-        <v>37.21441727039762</v>
+        <v>-0.1278558272960238</v>
       </c>
       <c r="L293">
         <v>-0.01036884759244146</v>
@@ -22380,13 +22380,13 @@
         <v>-0.09999999999996589</v>
       </c>
       <c r="U293">
-        <v>0.9998789956640113</v>
+        <v>-0.000121004335988717</v>
       </c>
       <c r="V293">
-        <v>0.9999192620551843</v>
+        <v>-8.073794481566754E-05</v>
       </c>
       <c r="W293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -22421,7 +22421,7 @@
         <v>0.5434626191272582</v>
       </c>
       <c r="K294">
-        <v>35.21061102435742</v>
+        <v>-0.1478938897564258</v>
       </c>
       <c r="L294">
         <v>-0.01032285623201284</v>
@@ -22451,13 +22451,13 @@
         <v>-0.08437499999996589</v>
       </c>
       <c r="U294">
-        <v>0.9998890659351741</v>
+        <v>-0.0001109340648258739</v>
       </c>
       <c r="V294">
-        <v>0.9998990694200528</v>
+        <v>-0.0001009305799472004</v>
       </c>
       <c r="W294">
-        <v>0.9996970614965162</v>
+        <v>-0.0003029385034838405</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -22492,7 +22492,7 @@
         <v>0.5434626191272584</v>
       </c>
       <c r="K295">
-        <v>35.21061102435742</v>
+        <v>-0.1478938897564258</v>
       </c>
       <c r="L295">
         <v>-0.01023772162844488</v>
@@ -22522,13 +22522,13 @@
         <v>-0.06874999999996589</v>
       </c>
       <c r="U295">
-        <v>0.9999092256951799</v>
+        <v>-9.077430482007376E-05</v>
       </c>
       <c r="V295">
-        <v>0.9998788710784511</v>
+        <v>-0.0001211289215489186</v>
       </c>
       <c r="W295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -22563,7 +22563,7 @@
         <v>0.8197204917330261</v>
       </c>
       <c r="K296">
-        <v>45.04650551867767</v>
+        <v>-0.04953494481322329</v>
       </c>
       <c r="L296">
         <v>-0.009766545647001983</v>
@@ -22593,13 +22593,13 @@
         <v>-0.046875</v>
       </c>
       <c r="U296">
-        <v>0.9999495652524766</v>
+        <v>-5.043474752342014E-05</v>
       </c>
       <c r="V296">
-        <v>0.9999596188014861</v>
+        <v>-4.038119851390576E-05</v>
       </c>
       <c r="W296">
-        <v>1.000909090909091</v>
+        <v>0.0009090909090909705</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -22634,7 +22634,7 @@
         <v>1.013585665491441</v>
       </c>
       <c r="K297">
-        <v>50.33735007465217</v>
+        <v>0.003373500746521763</v>
       </c>
       <c r="L297">
         <v>-0.008835509413823739</v>
@@ -22664,13 +22664,13 @@
         <v>-0.02812499999998863</v>
       </c>
       <c r="U297">
-        <v>0.9999596501669474</v>
+        <v>-4.034983305256645E-05</v>
       </c>
       <c r="V297">
-        <v>1.000020191414611</v>
+        <v>2.019141461073737E-05</v>
       </c>
       <c r="W297">
-        <v>1.000605510142295</v>
+        <v>0.0006055101422948184</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -22705,7 +22705,7 @@
         <v>0.9197405776499549</v>
       </c>
       <c r="K298">
-        <v>47.90962843405919</v>
+        <v>-0.02090371565940807</v>
       </c>
       <c r="L298">
         <v>-0.007763094765701696</v>
@@ -22735,13 +22735,13 @@
         <v>-0.003125000000011369</v>
       </c>
       <c r="U298">
-        <v>0.9999495606734656</v>
+        <v>-5.043932653436833E-05</v>
       </c>
       <c r="V298">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W298">
-        <v>0.9996974281391829</v>
+        <v>-0.000302571860817058</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -22776,7 +22776,7 @@
         <v>0.8380627775744759</v>
       </c>
       <c r="K299">
-        <v>45.59489413524771</v>
+        <v>-0.04405105864752296</v>
       </c>
       <c r="L299">
         <v>-0.006755240625631161</v>
@@ -22806,13 +22806,13 @@
         <v>0.01250000000001705</v>
       </c>
       <c r="U299">
-        <v>0.9999394697550543</v>
+        <v>-6.053024494567794E-05</v>
       </c>
       <c r="V299">
-        <v>0.9999596179861489</v>
+        <v>-4.038201385114792E-05</v>
       </c>
       <c r="W299">
-        <v>0.9996973365617434</v>
+        <v>-0.0003026634382565785</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -22847,7 +22847,7 @@
         <v>1.025021217264293</v>
       </c>
       <c r="K300">
-        <v>50.61780136057279</v>
+        <v>0.006178013605727894</v>
       </c>
       <c r="L300">
         <v>-0.005605693814424077</v>
@@ -22877,13 +22877,13 @@
         <v>0.03750000000002274</v>
       </c>
       <c r="U300">
-        <v>0.999969733045461</v>
+        <v>-3.026695453900441E-05</v>
       </c>
       <c r="V300">
-        <v>1.000020191822312</v>
+        <v>2.019182231172145E-05</v>
       </c>
       <c r="W300">
-        <v>1.000605510142295</v>
+        <v>0.0006055101422948184</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -22918,7 +22918,7 @@
         <v>0.9331955422608073</v>
       </c>
       <c r="K301">
-        <v>48.27217536253298</v>
+        <v>-0.01727824637467018</v>
       </c>
       <c r="L301">
         <v>-0.004533312551626429</v>
@@ -22948,13 +22948,13 @@
         <v>0.05624999999997726</v>
       </c>
       <c r="U301">
-        <v>0.9999697321293446</v>
+        <v>-3.026787065540937E-05</v>
       </c>
       <c r="V301">
-        <v>1.000080765658442</v>
+        <v>8.076565844206129E-05</v>
       </c>
       <c r="W301">
-        <v>0.9996974281391829</v>
+        <v>-0.000302571860817058</v>
       </c>
     </row>
     <row r="302" spans="1:23">
@@ -22989,7 +22989,7 @@
         <v>0.9331955422608073</v>
       </c>
       <c r="K302">
-        <v>48.27217536253298</v>
+        <v>-0.01727824637467018</v>
       </c>
       <c r="L302">
         <v>-0.003559500823166026</v>
@@ -23019,13 +23019,13 @@
         <v>0.06874999999999432</v>
       </c>
       <c r="U302">
-        <v>0.9999596416175642</v>
+        <v>-4.035838243576784E-05</v>
       </c>
       <c r="V302">
-        <v>1.000080759135877</v>
+        <v>8.075913587712868E-05</v>
       </c>
       <c r="W302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:23">
@@ -23060,7 +23060,7 @@
         <v>0.9331955422608071</v>
       </c>
       <c r="K303">
-        <v>48.27217536253298</v>
+        <v>-0.01727824637467024</v>
       </c>
       <c r="L303">
         <v>-0.002694497062978674</v>
@@ -23090,13 +23090,13 @@
         <v>0.08125000000001137</v>
       </c>
       <c r="U303">
-        <v>0.9999596399886991</v>
+        <v>-4.036001130092171E-05</v>
       </c>
       <c r="V303">
-        <v>1.000060564460775</v>
+        <v>6.056446077473687E-05</v>
       </c>
       <c r="W303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:23">
@@ -23131,7 +23131,7 @@
         <v>0.7718910508961934</v>
       </c>
       <c r="K304">
-        <v>43.56312147441479</v>
+        <v>-0.06436878525585216</v>
       </c>
       <c r="L304">
         <v>-0.002161178283840492</v>
@@ -23161,13 +23161,13 @@
         <v>0.07187499999997726</v>
       </c>
       <c r="U304">
-        <v>0.9999394575395545</v>
+        <v>-6.054246044551181E-05</v>
       </c>
       <c r="V304">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W304">
-        <v>0.9993946731234867</v>
+        <v>-0.000605326876513268</v>
       </c>
     </row>
     <row r="305" spans="1:23">
@@ -23202,7 +23202,7 @@
         <v>0.7075243031907411</v>
       </c>
       <c r="K305">
-        <v>41.4356798242131</v>
+        <v>-0.08564320175786905</v>
       </c>
       <c r="L305">
         <v>-0.001965166845996429</v>
@@ -23232,13 +23232,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U305">
-        <v>0.9999293628529335</v>
+        <v>-7.063714706645463E-05</v>
       </c>
       <c r="V305">
-        <v>1.000020186930981</v>
+        <v>2.018693098082558E-05</v>
       </c>
       <c r="W305">
-        <v>0.9996971532404604</v>
+        <v>-0.0003028467595396211</v>
       </c>
     </row>
     <row r="306" spans="1:23">
@@ -23273,7 +23273,7 @@
         <v>0.6504312397405878</v>
       </c>
       <c r="K306">
-        <v>39.40977509870824</v>
+        <v>-0.1059022490129176</v>
       </c>
       <c r="L306">
         <v>-0.002089089328915458</v>
@@ -23303,13 +23303,13 @@
         <v>0.02500000000003411</v>
       </c>
       <c r="U306">
-        <v>0.9999394495968353</v>
+        <v>-6.055040316466087E-05</v>
       </c>
       <c r="V306">
-        <v>0.9999798134765231</v>
+        <v>-2.018652347690608E-05</v>
       </c>
       <c r="W306">
-        <v>0.9996970614965162</v>
+        <v>-0.0003029385034838405</v>
       </c>
     </row>
     <row r="307" spans="1:23">
@@ -23344,7 +23344,7 @@
         <v>0.735372437174304</v>
       </c>
       <c r="K307">
-        <v>42.37548213982851</v>
+        <v>-0.07624517860171487</v>
       </c>
       <c r="L307">
         <v>-0.002281119240964823</v>
@@ -23374,13 +23374,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U307">
-        <v>0.9999495382752182</v>
+        <v>-5.046172478184729E-05</v>
       </c>
       <c r="V307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W307">
-        <v>1.00030303030303</v>
+        <v>0.0003030303030304715</v>
       </c>
     </row>
     <row r="308" spans="1:23">
@@ -23415,7 +23415,7 @@
         <v>0.8247842239465859</v>
       </c>
       <c r="K308">
-        <v>45.19900014056284</v>
+        <v>-0.04800999859437161</v>
       </c>
       <c r="L308">
         <v>-0.002383642108677378</v>
@@ -23445,13 +23445,13 @@
         <v>-0.009375000000005684</v>
       </c>
       <c r="U308">
-        <v>0.9999697214372226</v>
+        <v>-3.027856277737495E-05</v>
       </c>
       <c r="V308">
-        <v>1.000020186930981</v>
+        <v>2.018693098082558E-05</v>
       </c>
       <c r="W308">
-        <v>1.000302938503484</v>
+        <v>0.0003029385034836185</v>
       </c>
     </row>
     <row r="309" spans="1:23">
@@ -23486,7 +23486,7 @@
         <v>1.013019564519865</v>
       </c>
       <c r="K309">
-        <v>50.32338395387056</v>
+        <v>0.003233839538705596</v>
       </c>
       <c r="L309">
         <v>-0.002196249165645295</v>
@@ -23516,13 +23516,13 @@
         <v>-0.01875000000003979</v>
       </c>
       <c r="U309">
-        <v>0.9999899068401342</v>
+        <v>-1.009315986577608E-05</v>
       </c>
       <c r="V309">
-        <v>1.000080746093908</v>
+        <v>8.074609390784637E-05</v>
       </c>
       <c r="W309">
-        <v>1.000605693519079</v>
+        <v>0.0006056935190792423</v>
       </c>
     </row>
     <row r="310" spans="1:23">
@@ -23557,7 +23557,7 @@
         <v>0.7809195724059338</v>
       </c>
       <c r="K310">
-        <v>43.84923297524044</v>
+        <v>-0.06150767024759562</v>
       </c>
       <c r="L310">
         <v>-0.00216786951411952</v>
@@ -23587,13 +23587,13 @@
         <v>-0.04062500000000568</v>
       </c>
       <c r="U310">
-        <v>0.9999495336913077</v>
+        <v>-5.046630869232072E-05</v>
       </c>
       <c r="V310">
-        <v>1.000020184893626</v>
+        <v>2.018489362565212E-05</v>
       </c>
       <c r="W310">
-        <v>0.9990920096852302</v>
+        <v>-0.0009079903147698465</v>
       </c>
     </row>
     <row r="311" spans="1:23">
@@ -23628,7 +23628,7 @@
         <v>0.722811374016249</v>
       </c>
       <c r="K311">
-        <v>41.95534026056596</v>
+        <v>-0.0804465973943404</v>
       </c>
       <c r="L311">
         <v>-0.002339993735433674</v>
@@ -23658,13 +23658,13 @@
         <v>-0.06562500000001137</v>
       </c>
       <c r="U311">
-        <v>0.9999495311443308</v>
+        <v>-5.046885566917236E-05</v>
       </c>
       <c r="V311">
-        <v>0.9999394465413882</v>
+        <v>-6.055345861177841E-05</v>
       </c>
       <c r="W311">
-        <v>0.9996970614965162</v>
+        <v>-0.0003029385034838405</v>
       </c>
     </row>
     <row r="312" spans="1:23">
@@ -23699,7 +23699,7 @@
         <v>0.801137653420763</v>
       </c>
       <c r="K312">
-        <v>44.47953502605554</v>
+        <v>-0.05520464973944461</v>
       </c>
       <c r="L312">
         <v>-0.002503871069814771</v>
@@ -23729,13 +23729,13 @@
         <v>-0.06562500000001137</v>
       </c>
       <c r="U312">
-        <v>0.999969717158258</v>
+        <v>-3.028284174200202E-05</v>
       </c>
       <c r="V312">
-        <v>0.9999192571659266</v>
+        <v>-8.074283407344396E-05</v>
       </c>
       <c r="W312">
-        <v>1.00030303030303</v>
+        <v>0.0003030303030304715</v>
       </c>
     </row>
     <row r="313" spans="1:23">
@@ -23770,7 +23770,7 @@
         <v>0.801137653420763</v>
       </c>
       <c r="K313">
-        <v>44.47953502605554</v>
+        <v>-0.05520464973944461</v>
       </c>
       <c r="L313">
         <v>-0.002643199782592997</v>
@@ -23800,13 +23800,13 @@
         <v>-0.05312499999999432</v>
       </c>
       <c r="U313">
-        <v>0.9999697162411799</v>
+        <v>-3.028375882008216E-05</v>
       </c>
       <c r="V313">
-        <v>0.999939437984496</v>
+        <v>-6.056201550397322E-05</v>
       </c>
       <c r="W313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:23">
@@ -23841,7 +23841,7 @@
         <v>0.8879257746445522</v>
       </c>
       <c r="K314">
-        <v>47.03181589920958</v>
+        <v>-0.02968184100790416</v>
       </c>
       <c r="L314">
         <v>-0.002638907396648404</v>
@@ -23871,13 +23871,13 @@
         <v>-0.03437500000001137</v>
       </c>
       <c r="U314">
-        <v>0.9999697153240461</v>
+        <v>-3.02846759538955E-05</v>
       </c>
       <c r="V314">
-        <v>0.999979811438839</v>
+        <v>-2.018856116103862E-05</v>
       </c>
       <c r="W314">
-        <v>1.000302938503484</v>
+        <v>0.0003029385034836185</v>
       </c>
     </row>
     <row r="315" spans="1:23">
@@ -23912,7 +23912,7 @@
         <v>0.8879257746445521</v>
       </c>
       <c r="K315">
-        <v>47.03181589920958</v>
+        <v>-0.02968184100790416</v>
       </c>
       <c r="L315">
         <v>-0.002538264984133885</v>
@@ -23942,13 +23942,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U315">
-        <v>0.9999798096045711</v>
+        <v>-2.019039542888734E-05</v>
       </c>
       <c r="V315">
-        <v>0.9999394330937577</v>
+        <v>-6.056690624234307E-05</v>
       </c>
       <c r="W315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:23">
@@ -23983,7 +23983,7 @@
         <v>0.887925774644552</v>
       </c>
       <c r="K316">
-        <v>47.03181589920958</v>
+        <v>-0.02968184100790416</v>
       </c>
       <c r="L316">
         <v>-0.002376417137076915</v>
@@ -24013,13 +24013,13 @@
         <v>-0.015625</v>
       </c>
       <c r="U316">
-        <v>1.000020190803089</v>
+        <v>2.019080308923726E-05</v>
       </c>
       <c r="V316">
-        <v>0.99995961961679</v>
+        <v>-4.038038320997028E-05</v>
       </c>
       <c r="W316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:23">
@@ -24054,7 +24054,7 @@
         <v>0.887925774644552</v>
       </c>
       <c r="K317">
-        <v>47.03181589920958</v>
+        <v>-0.02968184100790416</v>
       </c>
       <c r="L317">
         <v>-0.00217914576126483</v>
@@ -24084,13 +24084,13 @@
         <v>-0.02187499999999432</v>
       </c>
       <c r="U317">
-        <v>1.000020190395429</v>
+        <v>2.019039542910939E-05</v>
       </c>
       <c r="V317">
-        <v>0.999959617986149</v>
+        <v>-4.03820138510369E-05</v>
       </c>
       <c r="W317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:23">
@@ -24125,7 +24125,7 @@
         <v>0.7319440416280959</v>
       </c>
       <c r="K318">
-        <v>42.26141399695798</v>
+        <v>-0.07738586003042014</v>
       </c>
       <c r="L318">
         <v>-0.002185572899763646</v>
@@ -24155,13 +24155,13 @@
         <v>-0.015625</v>
       </c>
       <c r="U318">
-        <v>0.9999899050061075</v>
+        <v>-1.009499389248436E-05</v>
       </c>
       <c r="V318">
-        <v>0.9999192327107522</v>
+        <v>-8.076728924777399E-05</v>
       </c>
       <c r="W318">
-        <v>0.9993943064809206</v>
+        <v>-0.0006056935190793533</v>
       </c>
     </row>
     <row r="319" spans="1:23">
@@ -24196,7 +24196,7 @@
         <v>0.5343315855901464</v>
       </c>
       <c r="K319">
-        <v>34.82503981592922</v>
+        <v>-0.1517496018407078</v>
       </c>
       <c r="L319">
         <v>-0.002748113881969495</v>
@@ -24226,13 +24226,13 @@
         <v>-0.015625</v>
       </c>
       <c r="U319">
-        <v>0.999939429425185</v>
+        <v>-6.057057481501094E-05</v>
       </c>
       <c r="V319">
-        <v>0.9998788392803053</v>
+        <v>-0.0001211607196947018</v>
       </c>
       <c r="W319">
-        <v>0.9987878787878789</v>
+        <v>-0.001212121212121109</v>
       </c>
     </row>
     <row r="320" spans="1:23">
@@ -24267,7 +24267,7 @@
         <v>0.4988866095740506</v>
       </c>
       <c r="K320">
-        <v>33.28381255709681</v>
+        <v>-0.1671618744290319</v>
       </c>
       <c r="L320">
         <v>-0.003712031935318899</v>
@@ -24297,13 +24297,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U320">
-        <v>0.9999495214634738</v>
+        <v>-5.047853652617729E-05</v>
       </c>
       <c r="V320">
-        <v>0.9998788245986066</v>
+        <v>-0.0001211754013934474</v>
       </c>
       <c r="W320">
-        <v>0.9996966019417475</v>
+        <v>-0.0003033980582525242</v>
       </c>
     </row>
     <row r="321" spans="1:23">
@@ -24338,7 +24338,7 @@
         <v>0.4377530837292473</v>
       </c>
       <c r="K321">
-        <v>30.44702798298317</v>
+        <v>-0.1955297201701683</v>
       </c>
       <c r="L321">
         <v>-0.005064802102365419</v>
@@ -24368,13 +24368,13 @@
         <v>-0.05625000000003411</v>
       </c>
       <c r="U321">
-        <v>0.99991923026442</v>
+        <v>-8.076973558002187E-05</v>
       </c>
       <c r="V321">
-        <v>0.9998586115655739</v>
+        <v>-0.0001413884344261263</v>
       </c>
       <c r="W321">
-        <v>0.9993930197268589</v>
+        <v>-0.0006069802731411</v>
       </c>
     </row>
     <row r="322" spans="1:23">
@@ -24409,7 +24409,7 @@
         <v>0.5667424745080017</v>
       </c>
       <c r="K322">
-        <v>36.17330121122642</v>
+        <v>-0.1382669878877358</v>
       </c>
       <c r="L322">
         <v>-0.006328090393231319</v>
@@ -24439,13 +24439,13 @@
         <v>-0.08437500000002274</v>
       </c>
       <c r="U322">
-        <v>0.9999394178051071</v>
+        <v>-6.058219489291083E-05</v>
       </c>
       <c r="V322">
-        <v>0.9998787927760494</v>
+        <v>-0.0001212072239505924</v>
       </c>
       <c r="W322">
-        <v>1.000607348921956</v>
+        <v>0.000607348921955575</v>
       </c>
     </row>
     <row r="323" spans="1:23">
@@ -24480,7 +24480,7 @@
         <v>0.5307128299729005</v>
       </c>
       <c r="K323">
-        <v>34.67095980258401</v>
+        <v>-0.1532904019741599</v>
       </c>
       <c r="L323">
         <v>-0.007544026667098786</v>
@@ -24510,13 +24510,13 @@
         <v>-0.1124999999999829</v>
       </c>
       <c r="U323">
-        <v>0.9999293164904628</v>
+        <v>-7.068350953720604E-05</v>
       </c>
       <c r="V323">
-        <v>0.9998383707774365</v>
+        <v>-0.0001616292225634641</v>
       </c>
       <c r="W323">
-        <v>0.9996965098634294</v>
+        <v>-0.0003034901365706055</v>
       </c>
     </row>
     <row r="324" spans="1:23">
@@ -24551,7 +24551,7 @@
         <v>0.6645511897987466</v>
       </c>
       <c r="K324">
-        <v>39.92374604466772</v>
+        <v>-0.1007625395533228</v>
       </c>
       <c r="L324">
         <v>-0.008405875383265961</v>
@@ -24581,13 +24581,13 @@
         <v>-0.1312500000000227</v>
       </c>
       <c r="U324">
-        <v>0.9999596065679721</v>
+        <v>-4.039343202788537E-05</v>
       </c>
       <c r="V324">
-        <v>0.9998383446492078</v>
+        <v>-0.0001616553507921559</v>
       </c>
       <c r="W324">
-        <v>1.000607164541591</v>
+        <v>0.0006071645415908211</v>
       </c>
     </row>
     <row r="325" spans="1:23">
@@ -24622,7 +24622,7 @@
         <v>0.620819867280769</v>
       </c>
       <c r="K325">
-        <v>38.30282931577779</v>
+        <v>-0.1169717068422221</v>
       </c>
       <c r="L325">
         <v>-0.009078046156265658</v>
@@ -24652,13 +24652,13 @@
         <v>-0.1468749999999943</v>
       </c>
       <c r="U325">
-        <v>0.9999495061703458</v>
+        <v>-5.049382965416349E-05</v>
       </c>
       <c r="V325">
-        <v>0.9998787388843978</v>
+        <v>-0.0001212611156021781</v>
       </c>
       <c r="W325">
-        <v>0.9996966019417475</v>
+        <v>-0.0003033980582525242</v>
       </c>
     </row>
     <row r="326" spans="1:23">
@@ -24693,7 +24693,7 @@
         <v>0.6900891301730618</v>
       </c>
       <c r="K326">
-        <v>40.83152289739879</v>
+        <v>-0.09168477102601208</v>
       </c>
       <c r="L326">
         <v>-0.009449182285084217</v>
@@ -24723,13 +24723,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U326">
-        <v>0.9999293050688266</v>
+        <v>-7.069493117339842E-05</v>
       </c>
       <c r="V326">
-        <v>0.9999191494522375</v>
+        <v>-8.085054776252321E-05</v>
       </c>
       <c r="W326">
-        <v>1.000303490136571</v>
+        <v>0.0003034901365706055</v>
       </c>
     </row>
     <row r="327" spans="1:23">
@@ -24764,7 +24764,7 @@
         <v>0.6900891301730619</v>
       </c>
       <c r="K327">
-        <v>40.8315228973988</v>
+        <v>-0.09168477102601202</v>
       </c>
       <c r="L327">
         <v>-0.009579911595342173</v>
@@ -24794,13 +24794,13 @@
         <v>-0.1437500000000114</v>
       </c>
       <c r="U327">
-        <v>0.9999091000908996</v>
+        <v>-9.08999091003837E-05</v>
       </c>
       <c r="V327">
-        <v>0.9998989286436223</v>
+        <v>-0.0001010713563777133</v>
       </c>
       <c r="W327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:23">
@@ -24835,7 +24835,7 @@
         <v>0.7668417760370548</v>
       </c>
       <c r="K328">
-        <v>43.40183634083216</v>
+        <v>-0.06598163659167838</v>
       </c>
       <c r="L328">
         <v>-0.009411461564209633</v>
@@ -24865,13 +24865,13 @@
         <v>-0.1187500000000057</v>
       </c>
       <c r="U328">
-        <v>0.9999292936434986</v>
+        <v>-7.070635650141543E-05</v>
       </c>
       <c r="V328">
-        <v>0.9999191347417367</v>
+        <v>-8.086525826334068E-05</v>
       </c>
       <c r="W328">
-        <v>1.000303398058252</v>
+        <v>0.0003033980582523021</v>
       </c>
     </row>
     <row r="329" spans="1:23">
@@ -24906,7 +24906,7 @@
         <v>0.70951819814614</v>
       </c>
       <c r="K329">
-        <v>41.50398626440864</v>
+        <v>-0.08496013735591362</v>
       </c>
       <c r="L329">
         <v>-0.009148537646271267</v>
@@ -24936,13 +24936,13 @@
         <v>-0.08437500000002274</v>
       </c>
       <c r="U329">
-        <v>0.9999292886437564</v>
+        <v>-7.071135624359126E-05</v>
       </c>
       <c r="V329">
-        <v>0.9998786923030266</v>
+        <v>-0.0001213076969733828</v>
       </c>
       <c r="W329">
-        <v>0.99969669396421</v>
+        <v>-0.0003033060357899853</v>
       </c>
     </row>
     <row r="330" spans="1:23">
@@ -24977,7 +24977,7 @@
         <v>0.7882053669882695</v>
       </c>
       <c r="K330">
-        <v>44.07801148230421</v>
+        <v>-0.05921988517695786</v>
       </c>
       <c r="L330">
         <v>-0.008701472071103812</v>
@@ -25007,13 +25007,13 @@
         <v>-0.05624999999997726</v>
       </c>
       <c r="U330">
-        <v>0.9999191813066362</v>
+        <v>-8.081869336384884E-05</v>
       </c>
       <c r="V330">
-        <v>0.9998988979880701</v>
+        <v>-0.0001011020119299211</v>
       </c>
       <c r="W330">
-        <v>1.000303398058252</v>
+        <v>0.0003033980582523021</v>
       </c>
     </row>
     <row r="331" spans="1:23">
@@ -25048,7 +25048,7 @@
         <v>0.7279133261491786</v>
       </c>
       <c r="K331">
-        <v>42.12672679430071</v>
+        <v>-0.07873273205699294</v>
       </c>
       <c r="L331">
         <v>-0.008249984831129563</v>
@@ -25078,13 +25078,13 @@
         <v>-0.02499999999997726</v>
       </c>
       <c r="U331">
-        <v>0.9999191747744471</v>
+        <v>-8.082522555286076E-05</v>
       </c>
       <c r="V331">
-        <v>0.9998786653185034</v>
+        <v>-0.0001213346814965544</v>
       </c>
       <c r="W331">
-        <v>0.99969669396421</v>
+        <v>-0.0003033060357899853</v>
       </c>
     </row>
     <row r="332" spans="1:23">
@@ -25119,7 +25119,7 @@
         <v>0.7279133261491785</v>
       </c>
       <c r="K332">
-        <v>42.1267267943007</v>
+        <v>-0.07873273205699299</v>
       </c>
       <c r="L332">
         <v>-0.007794554205581995</v>
@@ -25149,13 +25149,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U332">
-        <v>0.9999191682412019</v>
+        <v>-8.083175879813886E-05</v>
       </c>
       <c r="V332">
-        <v>0.9998786505946122</v>
+        <v>-0.0001213494053877717</v>
       </c>
       <c r="W332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:23">
@@ -25190,7 +25190,7 @@
         <v>0.5803483220592284</v>
       </c>
       <c r="K333">
-        <v>36.72281065879336</v>
+        <v>-0.1327718934120664</v>
       </c>
       <c r="L333">
         <v>-0.007668521823618956</v>
@@ -25220,13 +25220,13 @@
         <v>0.009375000000005684</v>
       </c>
       <c r="U333">
-        <v>0.9998888473469882</v>
+        <v>-0.000111152653011759</v>
       </c>
       <c r="V333">
-        <v>0.9998584085116712</v>
+        <v>-0.0001415914883288183</v>
       </c>
       <c r="W333">
-        <v>0.9990898058252426</v>
+        <v>-0.0009101941747573505</v>
       </c>
     </row>
     <row r="334" spans="1:23">
@@ -25261,7 +25261,7 @@
         <v>0.5803483220592285</v>
       </c>
       <c r="K334">
-        <v>36.72281065879336</v>
+        <v>-0.1327718934120664</v>
       </c>
       <c r="L334">
         <v>-0.007722244202237814</v>
@@ -25291,13 +25291,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U334">
-        <v>0.9999090468105751</v>
+        <v>-9.095318942486941E-05</v>
       </c>
       <c r="V334">
-        <v>0.9999393093402926</v>
+        <v>-6.069065970737419E-05</v>
       </c>
       <c r="W334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:23">
@@ -25332,7 +25332,7 @@
         <v>0.5803483220592285</v>
       </c>
       <c r="K335">
-        <v>36.72281065879336</v>
+        <v>-0.1327718934120664</v>
       </c>
       <c r="L335">
         <v>-0.007853397632883483</v>
@@ -25362,13 +25362,13 @@
         <v>0.003124999999982947</v>
       </c>
       <c r="U335">
-        <v>0.999919145366524</v>
+        <v>-8.085463347595745E-05</v>
       </c>
       <c r="V335">
-        <v>0.9999595371044753</v>
+        <v>-4.046289552472881E-05</v>
       </c>
       <c r="W335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:23">
@@ -25403,7 +25403,7 @@
         <v>0.8956103208672149</v>
       </c>
       <c r="K336">
-        <v>47.24654170786989</v>
+        <v>-0.02753458292130107</v>
       </c>
       <c r="L336">
         <v>-0.007552939588599198</v>
@@ -25433,13 +25433,13 @@
         <v>-0.003125000000011369</v>
       </c>
       <c r="U336">
-        <v>0.9999696770606964</v>
+        <v>-3.032293930360641E-05</v>
       </c>
       <c r="V336">
-        <v>1.000080929065674</v>
+        <v>8.092906567380709E-05</v>
       </c>
       <c r="W336">
-        <v>1.001214697843911</v>
+        <v>0.00121469784391115</v>
       </c>
     </row>
     <row r="337" spans="1:23">
@@ -25474,7 +25474,7 @@
         <v>0.8269994037515194</v>
       </c>
       <c r="K337">
-        <v>45.26544464400905</v>
+        <v>-0.04734555355990949</v>
       </c>
       <c r="L337">
         <v>-0.007092990320311436</v>
@@ -25504,13 +25504,13 @@
         <v>-0.01249999999996021</v>
       </c>
       <c r="U337">
-        <v>0.9999494602353132</v>
+        <v>-5.053976468682997E-05</v>
       </c>
       <c r="V337">
-        <v>1.000020230629172</v>
+        <v>2.023062917233531E-05</v>
       </c>
       <c r="W337">
-        <v>0.99969669396421</v>
+        <v>-0.0003033060357899853</v>
       </c>
     </row>
     <row r="338" spans="1:23">
@@ -25545,7 +25545,7 @@
         <v>0.7121447032425304</v>
       </c>
       <c r="K338">
-        <v>41.59372171603494</v>
+        <v>-0.08406278283965057</v>
       </c>
       <c r="L338">
         <v>-0.006760716977237683</v>
@@ -25575,13 +25575,13 @@
         <v>-0.02812500000001705</v>
       </c>
       <c r="U338">
-        <v>0.9999191322894657</v>
+        <v>-8.086771053428254E-05</v>
       </c>
       <c r="V338">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W338">
-        <v>0.9993932038834951</v>
+        <v>-0.0006067961165049374</v>
       </c>
     </row>
     <row r="339" spans="1:23">
@@ -25616,7 +25616,7 @@
         <v>0.5215355031845472</v>
       </c>
       <c r="K339">
-        <v>34.27691973621269</v>
+        <v>-0.1572308026378731</v>
       </c>
       <c r="L339">
         <v>-0.007054532008748358</v>
@@ -25646,13 +25646,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U339">
-        <v>0.9998483607800323</v>
+        <v>-0.0001516392199677474</v>
       </c>
       <c r="V339">
-        <v>0.9998583884606823</v>
+        <v>-0.0001416115393176876</v>
       </c>
       <c r="W339">
-        <v>0.9984820886460231</v>
+        <v>-0.001517911353976942</v>
       </c>
     </row>
     <row r="340" spans="1:23">
@@ -25687,7 +25687,7 @@
         <v>0.634232410038122</v>
       </c>
       <c r="K340">
-        <v>38.80919299742239</v>
+        <v>-0.1119080700257761</v>
       </c>
       <c r="L340">
         <v>-0.007462515288456746</v>
@@ -25717,13 +25717,13 @@
         <v>-0.07187500000000568</v>
       </c>
       <c r="U340">
-        <v>0.9998988918547277</v>
+        <v>-0.0001011081452723106</v>
       </c>
       <c r="V340">
-        <v>0.9999190676594368</v>
+        <v>-8.093234056316678E-05</v>
       </c>
       <c r="W340">
-        <v>1.00060808756461</v>
+        <v>0.0006080875646095052</v>
       </c>
     </row>
     <row r="341" spans="1:23">
@@ -25758,7 +25758,7 @@
         <v>0.5987198444877918</v>
       </c>
       <c r="K341">
-        <v>37.44995388354696</v>
+        <v>-0.1255004611645304</v>
       </c>
       <c r="L341">
         <v>-0.007997025488051597</v>
@@ -25788,13 +25788,13 @@
         <v>-0.07500000000001705</v>
       </c>
       <c r="U341">
-        <v>0.9998988816308372</v>
+        <v>-0.0001011183691628226</v>
       </c>
       <c r="V341">
-        <v>0.9998785916632943</v>
+        <v>-0.0001214083367057084</v>
       </c>
       <c r="W341">
-        <v>0.9996961409905804</v>
+        <v>-0.0003038590094196492</v>
       </c>
     </row>
     <row r="342" spans="1:23">
@@ -25829,7 +25829,7 @@
         <v>0.4844952708945316</v>
       </c>
       <c r="K342">
-        <v>32.63703700467723</v>
+        <v>-0.1736296299532277</v>
       </c>
       <c r="L342">
         <v>-0.008986938963172802</v>
@@ -25859,13 +25859,13 @@
         <v>-0.08749999999997726</v>
       </c>
       <c r="U342">
-        <v>0.9998483071073178</v>
+        <v>-0.0001516928926822425</v>
       </c>
       <c r="V342">
-        <v>0.9997976282025335</v>
+        <v>-0.0002023717974665162</v>
       </c>
       <c r="W342">
-        <v>0.9987841945288755</v>
+        <v>-0.001215805471124543</v>
       </c>
     </row>
     <row r="343" spans="1:23">
@@ -25900,7 +25900,7 @@
         <v>0.6351121174418282</v>
       </c>
       <c r="K343">
-        <v>38.84211429094393</v>
+        <v>-0.1115788570905608</v>
       </c>
       <c r="L343">
         <v>-0.009825783836172079</v>
@@ -25930,13 +25930,13 @@
         <v>-0.09062500000001705</v>
       </c>
       <c r="U343">
-        <v>0.9998786272744743</v>
+        <v>-0.0001213727255257036</v>
       </c>
       <c r="V343">
-        <v>0.9998380697919198</v>
+        <v>-0.0001619302080801965</v>
       </c>
       <c r="W343">
-        <v>1.000912964090079</v>
+        <v>0.0009129640900789049</v>
       </c>
     </row>
     <row r="344" spans="1:23">
@@ -25971,7 +25971,7 @@
         <v>0.6879601337742329</v>
       </c>
       <c r="K344">
-        <v>40.75689466883159</v>
+        <v>-0.09243105331168411</v>
       </c>
       <c r="L344">
         <v>-0.01037351620320578</v>
@@ -26001,13 +26001,13 @@
         <v>-0.1125000000000114</v>
       </c>
       <c r="U344">
-        <v>0.9998786125413476</v>
+        <v>-0.0001213874586524222</v>
       </c>
       <c r="V344">
-        <v>0.9998785326747105</v>
+        <v>-0.0001214673252895038</v>
       </c>
       <c r="W344">
-        <v>1.000304043782305</v>
+        <v>0.0003040437823047526</v>
       </c>
     </row>
     <row r="345" spans="1:23">
@@ -26042,7 +26042,7 @@
         <v>0.687960133774233</v>
       </c>
       <c r="K345">
-        <v>40.75689466883159</v>
+        <v>-0.09243105331168411</v>
       </c>
       <c r="L345">
         <v>-0.01067226588346648</v>
@@ -26072,13 +26072,13 @@
         <v>-0.1312500000000227</v>
       </c>
       <c r="U345">
-        <v>0.9998785978046437</v>
+        <v>-0.0001214021953562794</v>
       </c>
       <c r="V345">
-        <v>0.9998582709050416</v>
+        <v>-0.0001417290949583538</v>
       </c>
       <c r="W345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:23">
@@ -26113,7 +26113,7 @@
         <v>0.8050748514083376</v>
       </c>
       <c r="K346">
-        <v>44.60063530219869</v>
+        <v>-0.05399364697801312</v>
       </c>
       <c r="L346">
         <v>-0.01054131684109905</v>
@@ -26143,13 +26143,13 @@
         <v>-0.1281249999999829</v>
       </c>
       <c r="U346">
-        <v>0.9998988192203007</v>
+        <v>-0.0001011807796993391</v>
       </c>
       <c r="V346">
-        <v>0.9999190004657474</v>
+        <v>-8.099953425255713E-05</v>
       </c>
       <c r="W346">
-        <v>1.000607902735562</v>
+        <v>0.0006079027355623268</v>
       </c>
     </row>
     <row r="347" spans="1:23">
@@ -26184,7 +26184,7 @@
         <v>0.7583317915948777</v>
       </c>
       <c r="K347">
-        <v>43.1279122188333</v>
+        <v>-0.06872087781166697</v>
       </c>
       <c r="L347">
         <v>-0.01023045951491577</v>
@@ -26214,13 +26214,13 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="U347">
-        <v>0.9998886898798862</v>
+        <v>-0.0001113101201137834</v>
       </c>
       <c r="V347">
-        <v>0.9998987423803639</v>
+        <v>-0.0001012576196360859</v>
       </c>
       <c r="W347">
-        <v>0.9996962332928312</v>
+        <v>-0.0003037667071688066</v>
       </c>
     </row>
     <row r="348" spans="1:23">
@@ -26255,7 +26255,7 @@
         <v>0.8805644529932932</v>
       </c>
       <c r="K348">
-        <v>46.82447610831414</v>
+        <v>-0.03175523891685855</v>
       </c>
       <c r="L348">
         <v>-0.009572106647603175</v>
@@ -26285,13 +26285,13 @@
         <v>-0.07812499999997158</v>
       </c>
       <c r="U348">
-        <v>0.9999291584018137</v>
+        <v>-7.084159818626645E-05</v>
       </c>
       <c r="V348">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W348">
-        <v>1.000607718018839</v>
+        <v>0.0006077180188392983</v>
       </c>
     </row>
     <row r="349" spans="1:23">
@@ -26326,7 +26326,7 @@
         <v>0.8273392536001591</v>
       </c>
       <c r="K349">
-        <v>45.27562421538117</v>
+        <v>-0.04724375784618828</v>
       </c>
       <c r="L349">
         <v>-0.008820774585912754</v>
@@ -26356,13 +26356,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U349">
-        <v>0.9999595162188148</v>
+        <v>-4.048378118515217E-05</v>
       </c>
       <c r="V349">
-        <v>0.9999797464252441</v>
+        <v>-2.025357475587963E-05</v>
       </c>
       <c r="W349">
-        <v>0.9996963255390221</v>
+        <v>-0.0003036744609778985</v>
       </c>
     </row>
     <row r="350" spans="1:23">
@@ -26397,7 +26397,7 @@
         <v>0.733943874751032</v>
       </c>
       <c r="K350">
-        <v>42.32800642733694</v>
+        <v>-0.07671993572663055</v>
       </c>
       <c r="L350">
         <v>-0.008249924872768544</v>
@@ -26427,13 +26427,13 @@
         <v>-0.02812499999998863</v>
       </c>
       <c r="U350">
-        <v>0.9999493932247648</v>
+        <v>-5.060677523516244E-05</v>
       </c>
       <c r="V350">
-        <v>0.9999392380450854</v>
+        <v>-6.07619549145566E-05</v>
       </c>
       <c r="W350">
-        <v>0.9993924665856623</v>
+        <v>-0.0006075334143377242</v>
       </c>
     </row>
     <row r="351" spans="1:23">
@@ -26468,7 +26468,7 @@
         <v>0.8527717010345611</v>
       </c>
       <c r="K351">
-        <v>46.02680948539886</v>
+        <v>-0.03973190514601144</v>
       </c>
       <c r="L351">
         <v>-0.007573685912736757</v>
@@ -26498,13 +26498,13 @@
         <v>-0.006250000000022737</v>
       </c>
       <c r="U351">
-        <v>0.9999898781327179</v>
+        <v>-1.012186728210906E-05</v>
       </c>
       <c r="V351">
-        <v>0.9998987239214099</v>
+        <v>-0.0001012760785901179</v>
       </c>
       <c r="W351">
-        <v>1.000607902735562</v>
+        <v>0.0006079027355623268</v>
       </c>
     </row>
     <row r="352" spans="1:23">
@@ -26539,7 +26539,7 @@
         <v>0.852771701034561</v>
       </c>
       <c r="K352">
-        <v>46.02680948539885</v>
+        <v>-0.03973190514601149</v>
       </c>
       <c r="L352">
         <v>-0.006849082311297989</v>
@@ -26569,13 +26569,13 @@
         <v>0.02187500000002274</v>
       </c>
       <c r="U352">
-        <v>0.9999696340907939</v>
+        <v>-3.036590920613147E-05</v>
       </c>
       <c r="V352">
-        <v>0.9999189709308215</v>
+        <v>-8.10290691785065E-05</v>
       </c>
       <c r="W352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:23">
@@ -26610,7 +26610,7 @@
         <v>0.9844368825121559</v>
       </c>
       <c r="K353">
-        <v>49.60787068550796</v>
+        <v>-0.003921293144920401</v>
       </c>
       <c r="L353">
         <v>-0.005895253974979441</v>
@@ -26640,13 +26640,13 @@
         <v>0.05312500000002274</v>
       </c>
       <c r="U353">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V353">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W353">
-        <v>1.000607533414338</v>
+        <v>0.0006075334143378353</v>
       </c>
     </row>
     <row r="354" spans="1:23">
@@ -26681,7 +26681,7 @@
         <v>0.8646067696373565</v>
       </c>
       <c r="K354">
-        <v>46.36938917718893</v>
+        <v>-0.0363061082281107</v>
       </c>
       <c r="L354">
         <v>-0.005062958674690426</v>
@@ -26711,13 +26711,13 @@
         <v>0.05937500000001705</v>
       </c>
       <c r="U354">
-        <v>0.99995951089157</v>
+        <v>-4.048910843001963E-05</v>
       </c>
       <c r="V354">
-        <v>1.000060776726565</v>
+        <v>6.077672656545907E-05</v>
       </c>
       <c r="W354">
-        <v>0.9993928354584093</v>
+        <v>-0.0006071645415907101</v>
       </c>
     </row>
     <row r="355" spans="1:23">
@@ -26752,7 +26752,7 @@
         <v>0.8646067696373564</v>
       </c>
       <c r="K355">
-        <v>46.36938917718892</v>
+        <v>-0.03630610822811081</v>
       </c>
       <c r="L355">
         <v>-0.004338893932067964</v>
@@ -26782,13 +26782,13 @@
         <v>0.05624999999997726</v>
       </c>
       <c r="U355">
-        <v>0.9999696319391022</v>
+        <v>-3.036806089784516E-05</v>
       </c>
       <c r="V355">
-        <v>1.00002025767766</v>
+        <v>2.025767766000719E-05</v>
       </c>
       <c r="W355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:23">
@@ -26823,7 +26823,7 @@
         <v>0.8646067696373565</v>
       </c>
       <c r="K356">
-        <v>46.36938917718893</v>
+        <v>-0.0363061082281107</v>
       </c>
       <c r="L356">
         <v>-0.00371074030478155</v>
@@ -26853,13 +26853,13 @@
         <v>0.046875</v>
       </c>
       <c r="U356">
-        <v>0.9999595080224727</v>
+        <v>-4.049197752731271E-05</v>
       </c>
       <c r="V356">
-        <v>1.000040514534589</v>
+        <v>4.051453458919774E-05</v>
       </c>
       <c r="W356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:23">
@@ -26894,7 +26894,7 @@
         <v>0.9355935175444651</v>
       </c>
       <c r="K357">
-        <v>48.33626012197947</v>
+        <v>-0.01663739878020531</v>
       </c>
       <c r="L357">
         <v>-0.003056620514269827</v>
@@ -26924,13 +26924,13 @@
         <v>0.04374999999998863</v>
       </c>
       <c r="U357">
-        <v>0.9999696297871051</v>
+        <v>-3.037021289487019E-05</v>
       </c>
       <c r="V357">
-        <v>1.000141795126299</v>
+        <v>0.0001417951262989714</v>
       </c>
       <c r="W357">
-        <v>1.000303766707169</v>
+        <v>0.0003037667071690286</v>
       </c>
     </row>
     <row r="358" spans="1:23">
@@ -26965,7 +26965,7 @@
         <v>0.9355935175444653</v>
       </c>
       <c r="K358">
-        <v>48.33626012197949</v>
+        <v>-0.01663739878020515</v>
       </c>
       <c r="L358">
         <v>-0.002417311949986812</v>
@@ -26995,13 +26995,13 @@
         <v>0.04062500000000568</v>
       </c>
       <c r="U358">
-        <v>0.9999595051529692</v>
+        <v>-4.049484703083639E-05</v>
       </c>
       <c r="V358">
-        <v>1.000081014299024</v>
+        <v>8.101429902351853E-05</v>
       </c>
       <c r="W358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:23">
@@ -27036,7 +27036,7 @@
         <v>0.9355935175444652</v>
       </c>
       <c r="K359">
-        <v>48.33626012197948</v>
+        <v>-0.0166373987802052</v>
       </c>
       <c r="L359">
         <v>-0.001818908435855514</v>
@@ -27066,13 +27066,13 @@
         <v>0.03437500000003979</v>
       </c>
       <c r="U359">
-        <v>0.9999696276348027</v>
+        <v>-3.037236519731756E-05</v>
       </c>
       <c r="V359">
-        <v>1.000060755802179</v>
+        <v>6.075580217923537E-05</v>
       </c>
       <c r="W359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:23">
@@ -27107,7 +27107,7 @@
         <v>1.018388966335331</v>
       </c>
       <c r="K360">
-        <v>50.45553574266506</v>
+        <v>0.004555357426650586</v>
       </c>
       <c r="L360">
         <v>-0.001166197126736543</v>
@@ -27137,13 +27137,13 @@
         <v>0.03437499999998295</v>
       </c>
       <c r="U360">
-        <v>0.9999696267122942</v>
+        <v>-3.037328770583159E-05</v>
       </c>
       <c r="V360">
-        <v>1.000081002814848</v>
+        <v>8.100281484790806E-05</v>
       </c>
       <c r="W360">
-        <v>1.000303674460978</v>
+        <v>0.0003036744609776765</v>
       </c>
     </row>
     <row r="361" spans="1:23">
@@ -27178,7 +27178,7 @@
         <v>1.018388966335331</v>
       </c>
       <c r="K361">
-        <v>50.45553574266506</v>
+        <v>0.004555357426650586</v>
       </c>
       <c r="L361">
         <v>-0.0005179281370955495</v>
@@ -27208,13 +27208,13 @@
         <v>0.02187499999999432</v>
       </c>
       <c r="U361">
-        <v>0.9999797505264864</v>
+        <v>-2.024947351364492E-05</v>
       </c>
       <c r="V361">
-        <v>1.000040498126961</v>
+        <v>4.049812696149679E-05</v>
       </c>
       <c r="W361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:23">
@@ -27249,7 +27249,7 @@
         <v>1.293609294726124</v>
       </c>
       <c r="K362">
-        <v>56.40059524089919</v>
+        <v>0.06400595240899198</v>
       </c>
       <c r="L362">
         <v>0.0004200196728019102</v>
@@ -27279,13 +27279,13 @@
         <v>0.03749999999999432</v>
       </c>
       <c r="U362">
-        <v>1.000010124941782</v>
+        <v>1.012494178165291E-05</v>
       </c>
       <c r="V362">
-        <v>1.000121489460789</v>
+        <v>0.0001214894607892703</v>
       </c>
       <c r="W362">
-        <v>1.000910746812386</v>
+        <v>0.0009107468123861207</v>
       </c>
     </row>
     <row r="363" spans="1:23">
@@ -27320,7 +27320,7 @@
         <v>1.486746367281048</v>
       </c>
       <c r="K363">
-        <v>59.78681166855881</v>
+        <v>0.09786811668558815</v>
       </c>
       <c r="L363">
         <v>0.00169334883330832</v>
@@ -27350,13 +27350,13 @@
         <v>0.05625000000000568</v>
       </c>
       <c r="U363">
-        <v>1.000060749035609</v>
+        <v>6.074903560926437E-05</v>
       </c>
       <c r="V363">
-        <v>1.000121474702893</v>
+        <v>0.0001214747028932539</v>
       </c>
       <c r="W363">
-        <v>1.00060661207158</v>
+        <v>0.0006066120715801926</v>
       </c>
     </row>
     <row r="364" spans="1:23">
@@ -27391,7 +27391,7 @@
         <v>1.486746367281048</v>
       </c>
       <c r="K364">
-        <v>59.78681166855882</v>
+        <v>0.09786811668558815</v>
       </c>
       <c r="L364">
         <v>0.003082505338605597</v>
@@ -27421,13 +27421,13 @@
         <v>0.08124999999998295</v>
       </c>
       <c r="U364">
-        <v>1.000060745345388</v>
+        <v>6.074534538758058E-05</v>
       </c>
       <c r="V364">
-        <v>1.000141703273346</v>
+        <v>0.0001417032733455059</v>
       </c>
       <c r="W364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:23">
@@ -27462,7 +27462,7 @@
         <v>1.343039589126386</v>
       </c>
       <c r="K365">
-        <v>57.32039677686988</v>
+        <v>0.07320396776869875</v>
       </c>
       <c r="L365">
         <v>0.004331413050834088</v>
@@ -27492,13 +27492,13 @@
         <v>0.09374999999997158</v>
       </c>
       <c r="U365">
-        <v>1.000050618046346</v>
+        <v>5.061804634576283E-05</v>
       </c>
       <c r="V365">
-        <v>1.000161923652998</v>
+        <v>0.0001619236529977197</v>
       </c>
       <c r="W365">
-        <v>0.9996968778417703</v>
+        <v>-0.0003031221582296961</v>
       </c>
     </row>
     <row r="366" spans="1:23">
@@ -27533,7 +27533,7 @@
         <v>1.11595248992657</v>
       </c>
       <c r="K366">
-        <v>52.73995967486478</v>
+        <v>0.02739959674864778</v>
       </c>
       <c r="L366">
         <v>0.005178741960883378</v>
@@ -27563,13 +27563,13 @@
         <v>0.09375000000002842</v>
       </c>
       <c r="U366">
-        <v>0.9999898769031422</v>
+        <v>-1.012309685777257E-05</v>
       </c>
       <c r="V366">
-        <v>1.000080948718986</v>
+        <v>8.094871898634004E-05</v>
       </c>
       <c r="W366">
-        <v>0.9993935718617344</v>
+        <v>-0.0006064281382656134</v>
       </c>
     </row>
     <row r="367" spans="1:23">
@@ -27604,7 +27604,7 @@
         <v>1.20494430138341</v>
       </c>
       <c r="K367">
-        <v>54.64738046341635</v>
+        <v>0.04647380463416351</v>
       </c>
       <c r="L367">
         <v>0.005820483488873844</v>
@@ -27634,13 +27634,13 @@
         <v>0.1031249999999773</v>
       </c>
       <c r="U367">
-        <v>1.000010123199336</v>
+        <v>1.012319933590966E-05</v>
       </c>
       <c r="V367">
-        <v>1.000101177708528</v>
+        <v>0.0001011777085275778</v>
       </c>
       <c r="W367">
-        <v>1.000303398058252</v>
+        <v>0.0003033980582523021</v>
       </c>
     </row>
     <row r="368" spans="1:23">
@@ -27675,7 +27675,7 @@
         <v>1.20494430138341</v>
       </c>
       <c r="K368">
-        <v>54.64738046341636</v>
+        <v>0.04647380463416362</v>
       </c>
       <c r="L368">
         <v>0.006275547879558935</v>
@@ -27705,13 +27705,13 @@
         <v>0.1062499999999886</v>
       </c>
       <c r="U368">
-        <v>1.000030369290573</v>
+        <v>3.036929057342874E-05</v>
       </c>
       <c r="V368">
-        <v>1.000060700483581</v>
+        <v>6.070048358064462E-05</v>
       </c>
       <c r="W368">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:23">
@@ -27746,7 +27746,7 @@
         <v>1.20494430138341</v>
       </c>
       <c r="K369">
-        <v>54.64738046341636</v>
+        <v>0.04647380463416362</v>
       </c>
       <c r="L369">
         <v>0.006565639402877185</v>
@@ -27776,13 +27776,13 @@
         <v>0.1156249999999943</v>
       </c>
       <c r="U369">
-        <v>1.000080982315487</v>
+        <v>8.098231548703261E-05</v>
       </c>
       <c r="V369">
-        <v>1.000101161332092</v>
+        <v>0.0001011613320922589</v>
       </c>
       <c r="W369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:23">
@@ -27817,7 +27817,7 @@
         <v>1.308739970089506</v>
       </c>
       <c r="K370">
-        <v>56.68633051121684</v>
+        <v>0.06686330511216843</v>
       </c>
       <c r="L370">
         <v>0.006823933574005071</v>
@@ -27847,13 +27847,13 @@
         <v>0.1031250000000057</v>
       </c>
       <c r="U370">
-        <v>1.000070853788147</v>
+        <v>7.085378814708498E-05</v>
       </c>
       <c r="V370">
-        <v>1.000121381319415</v>
+        <v>0.0001213813194147484</v>
       </c>
       <c r="W370">
-        <v>1.00030330603579</v>
+        <v>0.0003033060357902073</v>
       </c>
     </row>
     <row r="371" spans="1:23">
@@ -27888,7 +27888,7 @@
         <v>1.308739970089506</v>
       </c>
       <c r="K371">
-        <v>56.68633051121684</v>
+        <v>0.06686330511216843</v>
       </c>
       <c r="L371">
         <v>0.007021615093347609</v>
@@ -27918,13 +27918,13 @@
         <v>0.078125</v>
       </c>
       <c r="U371">
-        <v>1.00008097002085</v>
+        <v>8.097002084994642E-05</v>
       </c>
       <c r="V371">
-        <v>1.000121366587778</v>
+        <v>0.0001213665877783932</v>
       </c>
       <c r="W371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:23">
@@ -27959,7 +27959,7 @@
         <v>1.308739970089506</v>
       </c>
       <c r="K372">
-        <v>56.68633051121684</v>
+        <v>0.06686330511216843</v>
       </c>
       <c r="L372">
         <v>0.007144376914906532</v>
@@ -27989,13 +27989,13 @@
         <v>0.05312500000002274</v>
       </c>
       <c r="U372">
-        <v>1.000121445197854</v>
+        <v>0.0001214451978543973</v>
       </c>
       <c r="V372">
-        <v>1.000101126549764</v>
+        <v>0.0001011265497643521</v>
       </c>
       <c r="W372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:23">
@@ -28030,7 +28030,7 @@
         <v>1.429802129245112</v>
       </c>
       <c r="K373">
-        <v>58.8443853940206</v>
+        <v>0.08844385394020593</v>
       </c>
       <c r="L373">
         <v>0.007298424635446166</v>
@@ -28060,13 +28060,13 @@
         <v>0.04062500000000568</v>
       </c>
       <c r="U373">
-        <v>1.000101192042258</v>
+        <v>0.0001011920422577806</v>
       </c>
       <c r="V373">
-        <v>1.000121339589064</v>
+        <v>0.0001213395890635738</v>
       </c>
       <c r="W373">
-        <v>1.000303214069133</v>
+        <v>0.0003032140691328067</v>
       </c>
     </row>
     <row r="374" spans="1:23">
@@ -28101,7 +28101,7 @@
         <v>1.812103684473487</v>
       </c>
       <c r="K374">
-        <v>64.43943352724455</v>
+        <v>0.1443943352724455</v>
       </c>
       <c r="L374">
         <v>0.007766577556871434</v>
@@ -28131,13 +28131,13 @@
         <v>0.04999999999998295</v>
       </c>
       <c r="U374">
-        <v>1.000121418164157</v>
+        <v>0.0001214181641573386</v>
       </c>
       <c r="V374">
-        <v>1.00018198730133</v>
+        <v>0.0001819873013304552</v>
       </c>
       <c r="W374">
-        <v>1.000909366474689</v>
+        <v>0.0009093664746893104</v>
       </c>
     </row>
     <row r="375" spans="1:23">
@@ -28172,7 +28172,7 @@
         <v>2.080385477616181</v>
       </c>
       <c r="K375">
-        <v>67.53653050027134</v>
+        <v>0.1753653050027134</v>
       </c>
       <c r="L375">
         <v>0.008587824529236459</v>
@@ -28202,13 +28202,13 @@
         <v>0.05937500000001705</v>
       </c>
       <c r="U375">
-        <v>1.000141637327506</v>
+        <v>0.0001416373275060501</v>
       </c>
       <c r="V375">
-        <v>1.000202171319976</v>
+        <v>0.000202171319976463</v>
       </c>
       <c r="W375">
-        <v>1.000605693519079</v>
+        <v>0.0006056935190792423</v>
       </c>
     </row>
     <row r="376" spans="1:23">
@@ -28243,7 +28243,7 @@
         <v>1.622257030236916</v>
       </c>
       <c r="K376">
-        <v>61.86491299406863</v>
+        <v>0.1186491299406863</v>
       </c>
       <c r="L376">
         <v>0.009318166115441933</v>
@@ -28273,13 +28273,13 @@
         <v>0.06562500000001137</v>
       </c>
       <c r="U376">
-        <v>1.000101155192296</v>
+        <v>0.0001011551922962539</v>
       </c>
       <c r="V376">
-        <v>1.000161704363997</v>
+        <v>0.0001617043639967619</v>
       </c>
       <c r="W376">
-        <v>0.9993946731234867</v>
+        <v>-0.000605326876513268</v>
       </c>
     </row>
     <row r="377" spans="1:23">
@@ -28314,7 +28314,7 @@
         <v>1.316977207924611</v>
       </c>
       <c r="K377">
-        <v>56.84031778216189</v>
+        <v>0.06840317782161887</v>
       </c>
       <c r="L377">
         <v>0.009691850412239305</v>
@@ -28344,13 +28344,13 @@
         <v>0.06562499999998295</v>
       </c>
       <c r="U377">
-        <v>1.000091030464862</v>
+        <v>9.103046486225175E-05</v>
       </c>
       <c r="V377">
-        <v>1.000060629332471</v>
+        <v>6.062933247097391E-05</v>
       </c>
       <c r="W377">
-        <v>0.9993943064809206</v>
+        <v>-0.0006056935190793533</v>
       </c>
     </row>
     <row r="378" spans="1:23">
@@ -28385,7 +28385,7 @@
         <v>1.316977207924611</v>
       </c>
       <c r="K378">
-        <v>56.84031778216189</v>
+        <v>0.06840317782161887</v>
       </c>
       <c r="L378">
         <v>0.009790343301262279</v>
@@ -28415,13 +28415,13 @@
         <v>0.06875000000002274</v>
       </c>
       <c r="U378">
-        <v>1.000070795028166</v>
+        <v>7.079502816620398E-05</v>
       </c>
       <c r="V378">
-        <v>1.000020208552259</v>
+        <v>2.02085522593709E-05</v>
       </c>
       <c r="W378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:23">
@@ -28456,7 +28456,7 @@
         <v>1.19263753968402</v>
       </c>
       <c r="K379">
-        <v>54.39282681696175</v>
+        <v>0.04392826816961748</v>
       </c>
       <c r="L379">
         <v>0.009569707573092475</v>
@@ -28486,13 +28486,13 @@
         <v>0.07500000000001705</v>
       </c>
       <c r="U379">
-        <v>1.000070790016585</v>
+        <v>7.079001658505391E-05</v>
       </c>
       <c r="V379">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W379">
-        <v>0.9996969696969696</v>
+        <v>-0.0003030303030303605</v>
       </c>
     </row>
     <row r="380" spans="1:23">
@@ -28527,7 +28527,7 @@
         <v>1.084825395515328</v>
       </c>
       <c r="K380">
-        <v>52.03435250975445</v>
+        <v>0.02034352509754445</v>
       </c>
       <c r="L380">
         <v>0.00902451880804666</v>
@@ -28557,13 +28557,13 @@
         <v>0.07812499999997158</v>
       </c>
       <c r="U380">
-        <v>1.000080897149387</v>
+        <v>8.089714938663839E-05</v>
       </c>
       <c r="V380">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W380">
-        <v>0.9996968778417703</v>
+        <v>-0.0003031221582296961</v>
       </c>
     </row>
     <row r="381" spans="1:23">
@@ -28598,7 +28598,7 @@
         <v>0.7857503500522477</v>
       </c>
       <c r="K381">
-        <v>44.00113095479769</v>
+        <v>-0.05998869045202304</v>
       </c>
       <c r="L381">
         <v>0.007842816561779044</v>
@@ -28628,13 +28628,13 @@
         <v>0.05937500000001705</v>
       </c>
       <c r="U381">
-        <v>1.000020222651392</v>
+        <v>2.022265139189905E-05</v>
       </c>
       <c r="V381">
-        <v>0.999959583712236</v>
+        <v>-4.041628776396688E-05</v>
       </c>
       <c r="W381">
-        <v>0.9987871437234687</v>
+        <v>-0.001212856276531338</v>
       </c>
     </row>
   </sheetData>
